--- a/MMS/Test Cases/Monitor app/Performance tests-18apr2015.xlsx
+++ b/MMS/Test Cases/Monitor app/Performance tests-18apr2015.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="v1.4 20th mar15" sheetId="4" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="330">
   <si>
     <t>time for upload</t>
   </si>
@@ -1409,8 +1409,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1687,7 +1687,50 @@
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1772,7 +1815,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1807,7 +1849,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1983,7 +2024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V116"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -1991,7 +2032,7 @@
       <selection pane="bottomLeft" activeCell="E11" sqref="E11:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="8.140625" customWidth="1"/>
@@ -2015,7 +2056,7 @@
     <col min="22" max="22" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="5" customFormat="1" ht="90">
       <c r="B1" s="5" t="s">
         <v>47</v>
       </c>
@@ -2074,7 +2115,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="75">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -2112,7 +2153,7 @@
       </c>
       <c r="U2" s="5"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="C3" s="3">
         <v>3</v>
       </c>
@@ -2151,7 +2192,7 @@
       </c>
       <c r="U3" s="3"/>
     </row>
-    <row r="4" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="75">
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -2192,7 +2233,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="75">
       <c r="C5" s="3">
         <v>2</v>
       </c>
@@ -2228,7 +2269,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="30">
       <c r="C6" s="3">
         <v>1</v>
       </c>
@@ -2278,7 +2319,7 @@
       </c>
       <c r="U6" s="3"/>
     </row>
-    <row r="7" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="60">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -2329,7 +2370,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -2360,7 +2401,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="60">
       <c r="C9" s="3">
         <v>3</v>
       </c>
@@ -2396,7 +2437,7 @@
       </c>
       <c r="U9" s="5"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="C10" s="3">
         <v>4</v>
       </c>
@@ -2448,7 +2489,7 @@
       </c>
       <c r="U10" s="5"/>
     </row>
-    <row r="11" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="60">
       <c r="C11" s="3">
         <v>5</v>
       </c>
@@ -2493,7 +2534,7 @@
       </c>
       <c r="U11" s="5"/>
     </row>
-    <row r="12" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="30">
       <c r="C12" s="3">
         <v>6</v>
       </c>
@@ -2539,7 +2580,7 @@
       </c>
       <c r="U12" s="5"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="C13" s="3">
         <v>7</v>
       </c>
@@ -2570,7 +2611,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="75">
       <c r="C14" s="3">
         <v>8</v>
       </c>
@@ -2609,7 +2650,7 @@
       </c>
       <c r="U14" s="5"/>
     </row>
-    <row r="15" spans="1:22" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="120">
       <c r="C15" s="3">
         <v>9</v>
       </c>
@@ -2636,7 +2677,7 @@
       <c r="R15" s="3"/>
       <c r="U15" s="5"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -2650,7 +2691,7 @@
       <c r="R16" s="3"/>
       <c r="U16" s="5"/>
     </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:21">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -2665,7 +2706,7 @@
       <c r="R17" s="3"/>
       <c r="U17" s="5"/>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:21">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -2680,7 +2721,7 @@
       <c r="R18" s="3"/>
       <c r="U18" s="5"/>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:21">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -2695,499 +2736,499 @@
       <c r="R19" s="3"/>
       <c r="U19" s="5"/>
     </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:21">
       <c r="D20" s="3"/>
       <c r="F20"/>
       <c r="G20"/>
       <c r="R20" s="3"/>
       <c r="U20" s="5"/>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:21">
       <c r="D21" s="3"/>
       <c r="F21"/>
       <c r="G21"/>
       <c r="R21" s="3"/>
       <c r="U21" s="5"/>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:21">
       <c r="D22" s="3"/>
       <c r="F22"/>
       <c r="G22"/>
       <c r="R22" s="3"/>
       <c r="U22" s="5"/>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:21">
       <c r="D23" s="3"/>
       <c r="F23"/>
       <c r="G23"/>
       <c r="R23" s="3"/>
       <c r="U23" s="5"/>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:21">
       <c r="D24" s="3"/>
       <c r="F24"/>
       <c r="G24"/>
       <c r="R24" s="3"/>
       <c r="U24" s="5"/>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:21">
       <c r="D25" s="3"/>
       <c r="F25"/>
       <c r="G25"/>
       <c r="R25" s="3"/>
       <c r="U25" s="5"/>
     </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:21">
       <c r="D26" s="3"/>
       <c r="F26"/>
       <c r="G26"/>
       <c r="R26" s="3"/>
       <c r="U26" s="5"/>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:21">
       <c r="D27" s="3"/>
       <c r="F27"/>
       <c r="G27"/>
       <c r="R27" s="3"/>
       <c r="U27" s="5"/>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:21">
       <c r="D28" s="3"/>
       <c r="F28"/>
       <c r="G28"/>
       <c r="R28" s="3"/>
       <c r="U28" s="5"/>
     </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:21">
       <c r="D29" s="3"/>
       <c r="F29"/>
       <c r="G29"/>
       <c r="R29" s="3"/>
       <c r="U29" s="5"/>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:21">
       <c r="D30" s="3"/>
       <c r="F30"/>
       <c r="G30"/>
       <c r="R30" s="3"/>
       <c r="U30" s="5"/>
     </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:21">
       <c r="D31" s="3"/>
       <c r="F31"/>
       <c r="G31"/>
       <c r="R31" s="3"/>
       <c r="U31" s="5"/>
     </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:21">
       <c r="D32" s="3"/>
       <c r="F32"/>
       <c r="G32"/>
       <c r="R32" s="3"/>
       <c r="U32" s="5"/>
     </row>
-    <row r="33" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:21">
       <c r="D33" s="3"/>
       <c r="F33"/>
       <c r="G33"/>
       <c r="R33" s="3"/>
       <c r="U33" s="5"/>
     </row>
-    <row r="34" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:21">
       <c r="D34" s="3"/>
       <c r="F34"/>
       <c r="G34"/>
       <c r="R34" s="3"/>
       <c r="U34" s="5"/>
     </row>
-    <row r="35" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:21">
       <c r="D35" s="3"/>
       <c r="F35"/>
       <c r="G35"/>
       <c r="R35" s="3"/>
       <c r="U35" s="5"/>
     </row>
-    <row r="36" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:21">
       <c r="D36" s="3"/>
       <c r="F36"/>
       <c r="G36"/>
       <c r="R36" s="3"/>
       <c r="U36" s="5"/>
     </row>
-    <row r="37" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:21">
       <c r="D37" s="3"/>
       <c r="F37"/>
       <c r="G37"/>
       <c r="R37" s="3"/>
       <c r="U37" s="5"/>
     </row>
-    <row r="38" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:21">
       <c r="D38" s="3"/>
       <c r="F38"/>
       <c r="G38"/>
       <c r="R38" s="3"/>
       <c r="U38" s="5"/>
     </row>
-    <row r="39" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:21">
       <c r="D39" s="3"/>
       <c r="F39"/>
       <c r="G39"/>
       <c r="R39" s="3"/>
       <c r="U39" s="5"/>
     </row>
-    <row r="40" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:21">
       <c r="D40" s="3"/>
       <c r="F40"/>
       <c r="G40"/>
       <c r="R40" s="3"/>
       <c r="U40" s="5"/>
     </row>
-    <row r="41" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:21">
       <c r="D41" s="3"/>
       <c r="F41"/>
       <c r="G41"/>
       <c r="R41" s="3"/>
       <c r="U41" s="5"/>
     </row>
-    <row r="42" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:21">
       <c r="D42" s="3"/>
       <c r="F42"/>
       <c r="G42"/>
       <c r="R42" s="3"/>
       <c r="U42" s="5"/>
     </row>
-    <row r="43" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:21">
       <c r="D43" s="3"/>
       <c r="F43"/>
       <c r="G43"/>
       <c r="R43" s="3"/>
       <c r="U43" s="5"/>
     </row>
-    <row r="44" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:21">
       <c r="D44" s="3"/>
       <c r="F44"/>
       <c r="G44"/>
       <c r="R44" s="3"/>
       <c r="U44" s="5"/>
     </row>
-    <row r="45" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:21">
       <c r="D45" s="3"/>
       <c r="F45"/>
       <c r="G45"/>
       <c r="R45" s="3"/>
       <c r="U45" s="5"/>
     </row>
-    <row r="46" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:21">
       <c r="D46" s="3"/>
       <c r="F46"/>
       <c r="G46"/>
       <c r="R46" s="3"/>
       <c r="U46" s="5"/>
     </row>
-    <row r="47" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:21">
       <c r="D47" s="3"/>
       <c r="F47"/>
       <c r="G47"/>
       <c r="R47" s="3"/>
       <c r="U47" s="5"/>
     </row>
-    <row r="48" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:21">
       <c r="D48" s="3"/>
       <c r="F48"/>
       <c r="G48"/>
       <c r="R48" s="3"/>
       <c r="U48" s="5"/>
     </row>
-    <row r="49" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:21">
       <c r="D49" s="3"/>
       <c r="F49"/>
       <c r="G49"/>
       <c r="U49" s="5"/>
     </row>
-    <row r="50" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:21">
       <c r="D50" s="3"/>
       <c r="F50"/>
       <c r="G50"/>
       <c r="U50" s="5"/>
     </row>
-    <row r="51" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:21">
       <c r="D51" s="3"/>
       <c r="F51"/>
       <c r="G51"/>
       <c r="U51" s="5"/>
     </row>
-    <row r="52" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:21">
       <c r="D52" s="3"/>
       <c r="F52"/>
       <c r="G52"/>
       <c r="U52" s="5"/>
     </row>
-    <row r="53" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:21">
       <c r="D53" s="3"/>
       <c r="F53"/>
       <c r="G53"/>
       <c r="U53" s="5"/>
     </row>
-    <row r="54" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:21">
       <c r="D54" s="3"/>
       <c r="F54"/>
       <c r="G54"/>
       <c r="U54" s="5"/>
     </row>
-    <row r="55" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:21">
       <c r="F55"/>
       <c r="G55"/>
       <c r="U55" s="5"/>
     </row>
-    <row r="56" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:21">
       <c r="F56"/>
       <c r="G56"/>
       <c r="U56" s="5"/>
     </row>
-    <row r="57" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:21">
       <c r="F57"/>
       <c r="G57"/>
       <c r="U57" s="5"/>
     </row>
-    <row r="58" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:21">
       <c r="F58"/>
       <c r="G58"/>
       <c r="U58" s="5"/>
     </row>
-    <row r="59" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:21">
       <c r="F59"/>
       <c r="G59"/>
       <c r="U59" s="5"/>
     </row>
-    <row r="60" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:21">
       <c r="F60"/>
       <c r="G60"/>
       <c r="U60" s="5"/>
     </row>
-    <row r="61" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:21">
       <c r="F61"/>
       <c r="G61"/>
       <c r="U61" s="5"/>
     </row>
-    <row r="62" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:21">
       <c r="F62"/>
       <c r="G62"/>
       <c r="U62" s="5"/>
     </row>
-    <row r="63" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:21">
       <c r="F63"/>
       <c r="G63"/>
       <c r="U63" s="5"/>
     </row>
-    <row r="64" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:21">
       <c r="F64"/>
       <c r="G64"/>
     </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:7">
       <c r="F65"/>
       <c r="G65"/>
     </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:7">
       <c r="F66"/>
       <c r="G66"/>
     </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:7">
       <c r="F67"/>
       <c r="G67"/>
     </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:7">
       <c r="F68"/>
       <c r="G68"/>
     </row>
-    <row r="69" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:7">
       <c r="F69"/>
       <c r="G69"/>
     </row>
-    <row r="70" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:7">
       <c r="F70"/>
       <c r="G70"/>
     </row>
-    <row r="71" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:7">
       <c r="F71"/>
       <c r="G71"/>
     </row>
-    <row r="72" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:7">
       <c r="F72"/>
       <c r="G72"/>
     </row>
-    <row r="73" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:7">
       <c r="F73"/>
       <c r="G73"/>
     </row>
-    <row r="74" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:7">
       <c r="F74"/>
       <c r="G74"/>
     </row>
-    <row r="75" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:7">
       <c r="F75"/>
       <c r="G75"/>
     </row>
-    <row r="76" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:7">
       <c r="F76"/>
       <c r="G76"/>
     </row>
-    <row r="77" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:7">
       <c r="F77"/>
       <c r="G77"/>
     </row>
-    <row r="78" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:7">
       <c r="F78"/>
       <c r="G78"/>
     </row>
-    <row r="79" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:7">
       <c r="F79"/>
       <c r="G79"/>
     </row>
-    <row r="80" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:7">
       <c r="F80"/>
       <c r="G80"/>
     </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:7">
       <c r="F81"/>
       <c r="G81"/>
     </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:7">
       <c r="F82"/>
       <c r="G82"/>
     </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:7">
       <c r="F83"/>
       <c r="G83"/>
     </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:7">
       <c r="F84"/>
       <c r="G84"/>
     </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:7">
       <c r="F85"/>
       <c r="G85"/>
     </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:7">
       <c r="F86"/>
       <c r="G86"/>
     </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:7">
       <c r="F87"/>
       <c r="G87"/>
     </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:7">
       <c r="F88"/>
       <c r="G88"/>
     </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:7">
       <c r="F89"/>
       <c r="G89"/>
     </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:7">
       <c r="F90"/>
       <c r="G90"/>
     </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:7">
       <c r="F91"/>
       <c r="G91"/>
     </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:7">
       <c r="F92"/>
       <c r="G92"/>
     </row>
-    <row r="93" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:7">
       <c r="F93"/>
       <c r="G93"/>
     </row>
-    <row r="94" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:7">
       <c r="F94"/>
       <c r="G94"/>
     </row>
-    <row r="95" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:7">
       <c r="F95"/>
       <c r="G95"/>
     </row>
-    <row r="96" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:7">
       <c r="F96"/>
       <c r="G96"/>
     </row>
-    <row r="97" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:7">
       <c r="F97"/>
       <c r="G97"/>
     </row>
-    <row r="98" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:7">
       <c r="F98"/>
       <c r="G98"/>
     </row>
-    <row r="99" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:7">
       <c r="F99"/>
       <c r="G99"/>
     </row>
-    <row r="100" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:7">
       <c r="F100"/>
       <c r="G100"/>
     </row>
-    <row r="101" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:7">
       <c r="F101"/>
       <c r="G101"/>
     </row>
-    <row r="102" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:7">
       <c r="F102"/>
       <c r="G102"/>
     </row>
-    <row r="103" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:7">
       <c r="F103"/>
       <c r="G103"/>
     </row>
-    <row r="104" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="6:7">
       <c r="F104"/>
       <c r="G104"/>
     </row>
-    <row r="105" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="6:7">
       <c r="F105"/>
       <c r="G105"/>
     </row>
-    <row r="106" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="6:7">
       <c r="F106"/>
       <c r="G106"/>
     </row>
-    <row r="107" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="6:7">
       <c r="F107"/>
       <c r="G107"/>
     </row>
-    <row r="108" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="6:7">
       <c r="F108"/>
       <c r="G108"/>
     </row>
-    <row r="109" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="6:7">
       <c r="F109"/>
       <c r="G109"/>
     </row>
-    <row r="110" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="6:7">
       <c r="F110"/>
       <c r="G110"/>
     </row>
-    <row r="111" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="6:7">
       <c r="F111"/>
       <c r="G111"/>
     </row>
-    <row r="112" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="6:7">
       <c r="F112"/>
       <c r="G112"/>
     </row>
-    <row r="113" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="6:7">
       <c r="F113"/>
       <c r="G113"/>
     </row>
-    <row r="114" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="6:7">
       <c r="F114"/>
       <c r="G114"/>
     </row>
-    <row r="115" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="6:7">
       <c r="F115"/>
       <c r="G115"/>
     </row>
-    <row r="116" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="6:7">
       <c r="F116"/>
       <c r="G116"/>
     </row>
@@ -3227,20 +3268,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:D6"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="48.5703125" customWidth="1"/>
     <col min="4" max="4" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:4" ht="345" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:4" ht="345">
       <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
@@ -3248,7 +3289,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="3:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:4" ht="240">
       <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
@@ -3256,11 +3297,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:4">
       <c r="C5" s="1"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="3:4" ht="330" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:4" ht="330">
       <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
@@ -3272,15 +3313,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:I123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="4" customWidth="1"/>
@@ -3293,7 +3334,7 @@
     <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="23" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="23" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>124</v>
       </c>
@@ -3322,7 +3363,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="16" customFormat="1">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -3333,7 +3374,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="16" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="16" customFormat="1" ht="75">
       <c r="A4" s="16">
         <v>2</v>
       </c>
@@ -3346,7 +3387,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="16" customFormat="1" ht="60">
       <c r="A5" s="16">
         <v>3</v>
       </c>
@@ -3361,7 +3402,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="16" customFormat="1" ht="30">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -3373,7 +3414,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="16" customFormat="1" ht="30">
       <c r="A7" s="16">
         <v>5</v>
       </c>
@@ -3385,7 +3426,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="16" customFormat="1" ht="30">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -3399,7 +3440,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="30">
       <c r="A9" s="16">
         <v>7</v>
       </c>
@@ -3412,8 +3453,9 @@
       <c r="F9" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="1:9" ht="60">
       <c r="A10" s="16">
         <v>8</v>
       </c>
@@ -3424,8 +3466,9 @@
       <c r="F10" s="4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="1:9" ht="45">
       <c r="A11" s="16">
         <v>9</v>
       </c>
@@ -3438,8 +3481,9 @@
       <c r="F11" s="4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:9" ht="45">
       <c r="A12" s="16">
         <v>10</v>
       </c>
@@ -3452,8 +3496,9 @@
       <c r="F12" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="1:9" ht="75">
       <c r="A13" s="16">
         <v>11</v>
       </c>
@@ -3466,8 +3511,9 @@
       <c r="F13" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="1:9" ht="75">
       <c r="A14" s="16">
         <v>12</v>
       </c>
@@ -3480,8 +3526,9 @@
       <c r="F14" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="1:9" ht="90">
       <c r="A15" s="16">
         <v>13</v>
       </c>
@@ -3494,8 +3541,9 @@
       <c r="F15" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="1:9" ht="90">
       <c r="A16" s="16">
         <v>14</v>
       </c>
@@ -3508,8 +3556,9 @@
       <c r="F16" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="1:8" ht="90">
       <c r="A17" s="16">
         <v>15</v>
       </c>
@@ -3522,8 +3571,9 @@
       <c r="F17" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="1:8" ht="60">
       <c r="A18" s="16">
         <v>16</v>
       </c>
@@ -3536,8 +3586,9 @@
       <c r="F18" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" spans="1:8" ht="90">
       <c r="A19" s="16">
         <v>17</v>
       </c>
@@ -3550,8 +3601,9 @@
       <c r="F19" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="1:8" ht="90">
       <c r="A20" s="16">
         <v>18</v>
       </c>
@@ -3565,8 +3617,9 @@
       <c r="F20" s="18" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="G20" s="16"/>
+    </row>
+    <row r="21" spans="1:8" ht="60">
       <c r="A21" s="16">
         <v>19</v>
       </c>
@@ -3579,8 +3632,9 @@
       <c r="F21" s="17" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" spans="1:8" ht="60">
       <c r="A22" s="16"/>
       <c r="C22" s="17" t="s">
         <v>242</v>
@@ -3591,11 +3645,12 @@
       <c r="F22" s="17" t="s">
         <v>159</v>
       </c>
+      <c r="G22" s="16"/>
       <c r="H22" s="4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="87" customHeight="1">
       <c r="A23" s="16">
         <v>20</v>
       </c>
@@ -3608,8 +3663,9 @@
       <c r="F23" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="G23" s="16"/>
+    </row>
+    <row r="24" spans="1:8" ht="60">
       <c r="A24" s="16">
         <v>21</v>
       </c>
@@ -3622,8 +3678,9 @@
       <c r="F24" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="G24" s="16"/>
+    </row>
+    <row r="25" spans="1:8" ht="60">
       <c r="A25" s="16">
         <v>22</v>
       </c>
@@ -3637,8 +3694,9 @@
       <c r="F25" s="17" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" spans="1:8" ht="75">
       <c r="A26" s="16">
         <v>23</v>
       </c>
@@ -3651,8 +3709,9 @@
       <c r="F26" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="G26" s="16"/>
+    </row>
+    <row r="27" spans="1:8" ht="90">
       <c r="A27" s="16">
         <v>24</v>
       </c>
@@ -3665,8 +3724,9 @@
       <c r="F27" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" spans="1:8" ht="75">
       <c r="A28" s="16">
         <v>25</v>
       </c>
@@ -3679,8 +3739,9 @@
       <c r="F28" s="2" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="G28" s="16"/>
+    </row>
+    <row r="29" spans="1:8" ht="120">
       <c r="A29" s="16">
         <v>26</v>
       </c>
@@ -3693,8 +3754,9 @@
       <c r="F29" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="G29" s="16"/>
+    </row>
+    <row r="30" spans="1:8" ht="135">
       <c r="A30" s="16">
         <v>27</v>
       </c>
@@ -3707,8 +3769,9 @@
       <c r="F30" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="G30" s="16"/>
+    </row>
+    <row r="31" spans="1:8" ht="120">
       <c r="A31" s="16">
         <v>28</v>
       </c>
@@ -3721,8 +3784,9 @@
       <c r="F31" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="G31" s="16"/>
+    </row>
+    <row r="32" spans="1:8" ht="90">
       <c r="A32" s="16">
         <v>29</v>
       </c>
@@ -3735,8 +3799,9 @@
       <c r="F32" s="2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="G32" s="16"/>
+    </row>
+    <row r="33" spans="1:7" ht="180">
       <c r="A33" s="16"/>
       <c r="C33" s="2" t="s">
         <v>249</v>
@@ -3747,8 +3812,9 @@
       <c r="F33" s="2" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="G33" s="16"/>
+    </row>
+    <row r="34" spans="1:7" ht="105">
       <c r="A34" s="16"/>
       <c r="C34" s="2"/>
       <c r="D34" s="33" t="s">
@@ -3757,8 +3823,9 @@
       <c r="F34" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="G34" s="16"/>
+    </row>
+    <row r="35" spans="1:7" ht="120">
       <c r="A35" s="16"/>
       <c r="C35" s="2" t="s">
         <v>253</v>
@@ -3769,8 +3836,9 @@
       <c r="F35" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G35" s="16"/>
+    </row>
+    <row r="36" spans="1:7" ht="30">
       <c r="A36" s="16"/>
       <c r="C36" s="2"/>
       <c r="D36" s="33" t="s">
@@ -3779,8 +3847,9 @@
       <c r="F36" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="G36" s="16"/>
+    </row>
+    <row r="37" spans="1:7" ht="180">
       <c r="A37" s="16"/>
       <c r="C37" s="2"/>
       <c r="D37" s="33" t="s">
@@ -3789,16 +3858,18 @@
       <c r="F37" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G37" s="16"/>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="16">
         <v>30</v>
       </c>
       <c r="D38" s="33" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="G38" s="16"/>
+    </row>
+    <row r="39" spans="1:7" ht="75">
       <c r="A39" s="16">
         <v>31</v>
       </c>
@@ -3811,8 +3882,9 @@
       <c r="F39" s="20" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="G39" s="16"/>
+    </row>
+    <row r="40" spans="1:7" ht="75">
       <c r="A40" s="16">
         <v>32</v>
       </c>
@@ -3825,8 +3897,9 @@
       <c r="F40" s="20" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="G40" s="16"/>
+    </row>
+    <row r="41" spans="1:7" ht="75">
       <c r="A41" s="16">
         <v>33</v>
       </c>
@@ -3839,8 +3912,9 @@
       <c r="F41" s="20" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="G41" s="16"/>
+    </row>
+    <row r="42" spans="1:7" ht="75">
       <c r="A42" s="16">
         <v>34</v>
       </c>
@@ -3853,8 +3927,9 @@
       <c r="F42" s="20" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="G42" s="16"/>
+    </row>
+    <row r="43" spans="1:7" ht="90">
       <c r="A43" s="16">
         <v>35</v>
       </c>
@@ -3868,11 +3943,9 @@
       <c r="F43" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="G43" s="16"/>
+    </row>
+    <row r="44" spans="1:7" ht="75">
       <c r="A44" s="16">
         <v>36</v>
       </c>
@@ -3882,8 +3955,9 @@
       <c r="D44" s="33" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="G44" s="16"/>
+    </row>
+    <row r="45" spans="1:7" ht="60">
       <c r="A45" s="16">
         <v>37</v>
       </c>
@@ -3896,8 +3970,9 @@
       <c r="F45" s="2" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="G45" s="16"/>
+    </row>
+    <row r="46" spans="1:7" ht="75">
       <c r="A46" s="16">
         <v>38</v>
       </c>
@@ -3910,8 +3985,9 @@
       <c r="F46" s="2" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="G46" s="16"/>
+    </row>
+    <row r="47" spans="1:7" ht="60">
       <c r="A47" s="16">
         <v>39</v>
       </c>
@@ -3924,8 +4000,9 @@
       <c r="F47" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="G47" s="16"/>
+    </row>
+    <row r="48" spans="1:7" ht="75">
       <c r="A48" s="16">
         <v>40</v>
       </c>
@@ -3938,8 +4015,9 @@
       <c r="F48" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="16"/>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="16">
         <v>41</v>
       </c>
@@ -3947,8 +4025,9 @@
         <v>15</v>
       </c>
       <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G49" s="16"/>
+    </row>
+    <row r="50" spans="1:7" ht="60">
       <c r="A50" s="16">
         <v>42</v>
       </c>
@@ -3961,8 +4040,9 @@
       <c r="F50" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G50" s="16"/>
+    </row>
+    <row r="51" spans="1:7" ht="60">
       <c r="A51" s="16">
         <v>43</v>
       </c>
@@ -3975,8 +4055,9 @@
       <c r="F51" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="G51" s="16"/>
+    </row>
+    <row r="52" spans="1:7" ht="75">
       <c r="A52" s="16">
         <v>44</v>
       </c>
@@ -3989,8 +4070,9 @@
       <c r="F52" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G52" s="16"/>
+    </row>
+    <row r="53" spans="1:7" ht="45">
       <c r="A53" s="16">
         <v>45</v>
       </c>
@@ -4003,8 +4085,9 @@
       <c r="F53" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="G53" s="16"/>
+    </row>
+    <row r="54" spans="1:7" ht="75">
       <c r="A54" s="16">
         <v>46</v>
       </c>
@@ -4017,8 +4100,9 @@
       <c r="F54" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" s="16"/>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="16">
         <v>47</v>
       </c>
@@ -4026,8 +4110,9 @@
         <v>16</v>
       </c>
       <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G55" s="16"/>
+    </row>
+    <row r="56" spans="1:7" ht="60">
       <c r="A56" s="16">
         <v>48</v>
       </c>
@@ -4040,8 +4125,9 @@
       <c r="F56" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="G56" s="16"/>
+    </row>
+    <row r="57" spans="1:7" ht="75">
       <c r="A57" s="16">
         <v>49</v>
       </c>
@@ -4054,8 +4140,9 @@
       <c r="F57" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G57" s="16"/>
+    </row>
+    <row r="58" spans="1:7" ht="30">
       <c r="A58" s="16">
         <v>50</v>
       </c>
@@ -4066,8 +4153,9 @@
         <v>86</v>
       </c>
       <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G58" s="16"/>
+    </row>
+    <row r="59" spans="1:7" ht="30">
       <c r="A59" s="16">
         <v>51</v>
       </c>
@@ -4078,8 +4166,9 @@
         <v>90</v>
       </c>
       <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G59" s="16"/>
+    </row>
+    <row r="60" spans="1:7" ht="30">
       <c r="A60" s="16">
         <v>52</v>
       </c>
@@ -4090,8 +4179,9 @@
         <v>87</v>
       </c>
       <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G60" s="16"/>
+    </row>
+    <row r="61" spans="1:7" ht="30">
       <c r="A61" s="16">
         <v>53</v>
       </c>
@@ -4102,8 +4192,9 @@
         <v>88</v>
       </c>
       <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G61" s="16"/>
+    </row>
+    <row r="62" spans="1:7" ht="30">
       <c r="A62" s="16">
         <v>54</v>
       </c>
@@ -4114,8 +4205,9 @@
         <v>89</v>
       </c>
       <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" s="16"/>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="16">
         <v>55</v>
       </c>
@@ -4123,23 +4215,26 @@
         <v>91</v>
       </c>
       <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" s="16"/>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="16">
         <v>56</v>
       </c>
       <c r="D64" s="33"/>
       <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" s="16"/>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="16">
         <v>57</v>
       </c>
       <c r="D65" s="36" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="G65" s="16"/>
+    </row>
+    <row r="66" spans="1:7" ht="105">
       <c r="A66" s="16">
         <v>58</v>
       </c>
@@ -4149,8 +4244,9 @@
       <c r="D66" s="33" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G66" s="16"/>
+    </row>
+    <row r="67" spans="1:7" ht="60">
       <c r="A67" s="16">
         <v>59</v>
       </c>
@@ -4163,8 +4259,9 @@
       <c r="F67" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G67" s="16"/>
+    </row>
+    <row r="68" spans="1:7" ht="30">
       <c r="A68" s="16">
         <v>60</v>
       </c>
@@ -4175,8 +4272,9 @@
       <c r="F68" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G68" s="16"/>
+    </row>
+    <row r="69" spans="1:7" ht="60">
       <c r="A69" s="16">
         <v>61</v>
       </c>
@@ -4185,8 +4283,9 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" s="16"/>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="16">
         <v>62</v>
       </c>
@@ -4195,8 +4294,9 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
-    </row>
-    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G70" s="16"/>
+    </row>
+    <row r="71" spans="1:7" ht="30">
       <c r="A71" s="16">
         <v>63</v>
       </c>
@@ -4204,8 +4304,9 @@
         <v>85</v>
       </c>
       <c r="F71" s="2"/>
-    </row>
-    <row r="72" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G71" s="16"/>
+    </row>
+    <row r="72" spans="1:7" ht="60">
       <c r="A72" s="16">
         <v>64</v>
       </c>
@@ -4214,8 +4315,9 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
-    </row>
-    <row r="73" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="G72" s="16"/>
+    </row>
+    <row r="73" spans="1:7" ht="120">
       <c r="A73" s="16">
         <v>65</v>
       </c>
@@ -4229,8 +4331,9 @@
       <c r="F73" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73" s="16"/>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="16">
         <v>66</v>
       </c>
@@ -4238,8 +4341,9 @@
       <c r="D74" s="33"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
-    </row>
-    <row r="75" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G74" s="16"/>
+    </row>
+    <row r="75" spans="1:7" ht="60">
       <c r="A75" s="16">
         <v>67</v>
       </c>
@@ -4247,8 +4351,9 @@
         <v>94</v>
       </c>
       <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G75" s="16"/>
+    </row>
+    <row r="76" spans="1:7" ht="60">
       <c r="A76" s="16">
         <v>68</v>
       </c>
@@ -4259,56 +4364,63 @@
       <c r="F76" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G76" s="16"/>
+    </row>
+    <row r="77" spans="1:7" ht="30">
       <c r="A77" s="16">
         <v>69</v>
       </c>
       <c r="D77" s="33" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77" s="16"/>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="16">
         <v>70</v>
       </c>
       <c r="D78" s="33" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78" s="16"/>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="16">
         <v>71</v>
       </c>
       <c r="D79" s="36" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G79" s="16"/>
+    </row>
+    <row r="80" spans="1:7" ht="30">
       <c r="A80" s="16">
         <v>72</v>
       </c>
       <c r="D80" s="33" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G80" s="16"/>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="16">
         <v>73</v>
       </c>
       <c r="D81" s="33" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G81" s="16"/>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="16">
         <v>74</v>
       </c>
       <c r="D82" s="36" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G82" s="16"/>
+    </row>
+    <row r="83" spans="1:7" ht="30">
       <c r="A83" s="16">
         <v>75</v>
       </c>
@@ -4316,16 +4428,18 @@
         <v>102</v>
       </c>
       <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G83" s="16"/>
+    </row>
+    <row r="84" spans="1:7" ht="30">
       <c r="A84" s="16">
         <v>76</v>
       </c>
       <c r="D84" s="33" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G84" s="16"/>
+    </row>
+    <row r="85" spans="1:7" ht="45">
       <c r="A85" s="16">
         <v>77</v>
       </c>
@@ -4333,8 +4447,9 @@
         <v>105</v>
       </c>
       <c r="E85" s="2"/>
-    </row>
-    <row r="86" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G85" s="16"/>
+    </row>
+    <row r="86" spans="1:7" ht="45">
       <c r="A86" s="16">
         <v>78</v>
       </c>
@@ -4343,8 +4458,9 @@
         <v>108</v>
       </c>
       <c r="E86" s="2"/>
-    </row>
-    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G86" s="16"/>
+    </row>
+    <row r="87" spans="1:7" ht="30">
       <c r="A87" s="16">
         <v>79</v>
       </c>
@@ -4353,8 +4469,9 @@
         <v>109</v>
       </c>
       <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="G87" s="16"/>
+    </row>
+    <row r="88" spans="1:7" ht="60">
       <c r="A88" s="16">
         <v>80</v>
       </c>
@@ -4364,8 +4481,9 @@
       <c r="D88" s="36" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G88" s="16"/>
+    </row>
+    <row r="89" spans="1:7" ht="45">
       <c r="A89" s="16">
         <v>81</v>
       </c>
@@ -4375,74 +4493,169 @@
       <c r="D89" s="36" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="G89" s="16"/>
+    </row>
+    <row r="90" spans="1:7" ht="60">
       <c r="A90" s="16">
         <v>82</v>
       </c>
       <c r="D90" s="33" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="G90" s="16"/>
+    </row>
+    <row r="91" spans="1:7" ht="60">
       <c r="A91" s="16">
         <v>83</v>
       </c>
       <c r="D91" s="33" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="G91" s="16"/>
+    </row>
+    <row r="92" spans="1:7" ht="60">
       <c r="A92" s="16"/>
       <c r="D92" s="33" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="G92" s="16"/>
+    </row>
+    <row r="93" spans="1:7" ht="90">
       <c r="A93" s="16">
         <v>84</v>
       </c>
       <c r="D93" s="33" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G93" s="16"/>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="16">
         <v>85</v>
       </c>
       <c r="D94" s="36" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G94" s="16"/>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="16">
         <v>86</v>
       </c>
       <c r="D95" s="36" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G95" s="16"/>
+    </row>
+    <row r="96" spans="1:7" ht="30">
       <c r="A96" s="16">
         <v>87</v>
       </c>
       <c r="D96" s="33" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G96" s="16"/>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="16">
         <v>88</v>
       </c>
       <c r="D97" s="36" t="s">
         <v>218</v>
       </c>
+      <c r="G97" s="16"/>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="G98" s="16"/>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="G99" s="16"/>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="G100" s="16"/>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="G101" s="16"/>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="G102" s="16"/>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="G103" s="16"/>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="G104" s="16"/>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="G105" s="16"/>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="G106" s="16"/>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="G107" s="16"/>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="G108" s="16"/>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="G109" s="16"/>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="G110" s="16"/>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="G111" s="16"/>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="G112" s="16"/>
+    </row>
+    <row r="113" spans="7:7">
+      <c r="G113" s="16"/>
+    </row>
+    <row r="114" spans="7:7">
+      <c r="G114" s="16"/>
+    </row>
+    <row r="115" spans="7:7">
+      <c r="G115" s="16"/>
+    </row>
+    <row r="116" spans="7:7">
+      <c r="G116" s="16"/>
+    </row>
+    <row r="117" spans="7:7">
+      <c r="G117" s="16"/>
+    </row>
+    <row r="118" spans="7:7">
+      <c r="G118" s="16"/>
+    </row>
+    <row r="119" spans="7:7">
+      <c r="G119" s="16"/>
+    </row>
+    <row r="120" spans="7:7">
+      <c r="G120" s="16"/>
+    </row>
+    <row r="121" spans="7:7">
+      <c r="G121" s="16"/>
+    </row>
+    <row r="122" spans="7:7">
+      <c r="G122" s="16"/>
+    </row>
+    <row r="123" spans="7:7">
+      <c r="G123" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:I2"/>
+  <conditionalFormatting sqref="G3:G123">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G79">
-      <formula1>"Pass, Fail, clarification"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G123">
+      <formula1>"Pass, Fail, untestable"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4452,15 +4665,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
@@ -4473,12 +4686,12 @@
     <col min="18" max="18" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="30">
       <c r="D1" s="6" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="24" customFormat="1">
       <c r="B2" s="24" t="s">
         <v>267</v>
       </c>
@@ -4501,7 +4714,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="60">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4527,7 +4740,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="60">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4556,7 +4769,7 @@
       <c r="Q4" s="28"/>
       <c r="R4" s="28"/>
     </row>
-    <row r="5" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="75">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4583,7 +4796,7 @@
       </c>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4611,7 +4824,7 @@
       <c r="N6" s="3"/>
       <c r="R6" s="39"/>
     </row>
-    <row r="7" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4638,7 +4851,7 @@
       </c>
       <c r="R7" s="39"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4666,7 +4879,7 @@
       <c r="N8" s="3"/>
       <c r="R8" s="39"/>
     </row>
-    <row r="9" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="45">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4693,7 +4906,7 @@
       </c>
       <c r="R9" s="39"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4721,7 +4934,7 @@
       <c r="N10" s="3"/>
       <c r="R10" s="39"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4748,7 +4961,7 @@
       </c>
       <c r="R11" s="39"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4776,7 +4989,7 @@
       <c r="N12" s="3"/>
       <c r="R12" s="39"/>
     </row>
-    <row r="13" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="60">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4803,7 +5016,7 @@
       </c>
       <c r="R13" s="39"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4828,7 +5041,7 @@
       <c r="N14" s="3"/>
       <c r="R14" s="39"/>
     </row>
-    <row r="15" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="90">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4855,7 +5068,7 @@
       </c>
       <c r="R15" s="39"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4883,7 +5096,7 @@
       <c r="N16" s="3"/>
       <c r="R16" s="39"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4910,7 +5123,7 @@
       </c>
       <c r="R17" s="39"/>
     </row>
-    <row r="18" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="45">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4938,7 +5151,7 @@
       <c r="N18" s="3"/>
       <c r="R18" s="39"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4968,7 +5181,7 @@
       </c>
       <c r="R19" s="39"/>
     </row>
-    <row r="20" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="30">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4999,7 +5212,7 @@
       <c r="N20" s="3"/>
       <c r="R20" s="37"/>
     </row>
-    <row r="21" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="30">
       <c r="A21">
         <v>19</v>
       </c>
@@ -5027,7 +5240,7 @@
       <c r="N21" s="3"/>
       <c r="R21" s="39"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>20</v>
       </c>
@@ -5057,7 +5270,7 @@
       </c>
       <c r="R22" s="39"/>
     </row>
-    <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="30">
       <c r="A23">
         <v>21</v>
       </c>
@@ -5088,7 +5301,7 @@
       <c r="N23" s="3"/>
       <c r="R23" s="39"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>22</v>
       </c>
@@ -5118,7 +5331,7 @@
       </c>
       <c r="R24" s="39"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>23</v>
       </c>
@@ -5146,7 +5359,7 @@
       <c r="N25" s="3"/>
       <c r="R25" s="39"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>24</v>
       </c>
@@ -5173,7 +5386,7 @@
       </c>
       <c r="R26" s="39"/>
     </row>
-    <row r="27" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="30">
       <c r="A27">
         <v>25</v>
       </c>
@@ -5201,7 +5414,7 @@
       <c r="N27" s="3"/>
       <c r="R27" s="39"/>
     </row>
-    <row r="28" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="30">
       <c r="A28">
         <v>26</v>
       </c>
@@ -5228,7 +5441,7 @@
       </c>
       <c r="R28" s="39"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>27</v>
       </c>
@@ -5256,7 +5469,7 @@
       <c r="N29" s="3"/>
       <c r="R29" s="39"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>28</v>
       </c>
@@ -5286,7 +5499,7 @@
       </c>
       <c r="R30" s="39"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>29</v>
       </c>
@@ -5317,7 +5530,7 @@
       <c r="N31" s="3"/>
       <c r="R31" s="39"/>
     </row>
-    <row r="32" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="30">
       <c r="A32">
         <v>30</v>
       </c>
@@ -5347,7 +5560,7 @@
       </c>
       <c r="R32" s="39"/>
     </row>
-    <row r="33" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="30">
       <c r="A33">
         <v>31</v>
       </c>
@@ -5378,7 +5591,7 @@
       <c r="N33" s="3"/>
       <c r="R33" s="39"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18">
       <c r="A34">
         <v>32</v>
       </c>
@@ -5408,7 +5621,7 @@
       </c>
       <c r="R34" s="39"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18">
       <c r="A35">
         <v>33</v>
       </c>
@@ -5439,7 +5652,7 @@
       <c r="N35" s="3"/>
       <c r="R35" s="39"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18">
       <c r="A36">
         <v>34</v>
       </c>
@@ -5469,7 +5682,7 @@
       </c>
       <c r="R36" s="39"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18">
       <c r="A37">
         <v>35</v>
       </c>
@@ -5498,7 +5711,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18">
       <c r="A38">
         <v>36</v>
       </c>
@@ -5527,12 +5740,12 @@
         <v>319</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18">
       <c r="G39" s="29"/>
       <c r="H39" s="29"/>
       <c r="I39" s="38"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18">
       <c r="A40">
         <v>37</v>
       </c>
@@ -5561,7 +5774,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18">
       <c r="A41">
         <v>38</v>
       </c>
@@ -5590,7 +5803,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18">
       <c r="A42">
         <v>39</v>
       </c>
@@ -5619,7 +5832,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18">
       <c r="A43">
         <v>40</v>
       </c>
@@ -5648,22 +5861,22 @@
         <v>323</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18">
       <c r="G44" s="29"/>
       <c r="H44" s="29"/>
       <c r="I44" s="38"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18">
       <c r="G45" s="29"/>
       <c r="H45" s="29"/>
       <c r="I45" s="38"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18">
       <c r="G46" s="29"/>
       <c r="H46" s="29"/>
       <c r="I46" s="38"/>
     </row>
-    <row r="47" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" ht="30">
       <c r="A47">
         <v>41</v>
       </c>
@@ -5692,7 +5905,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18">
       <c r="A48">
         <v>42</v>
       </c>
@@ -5721,7 +5934,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>43</v>
       </c>
@@ -5750,7 +5963,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>44</v>
       </c>
@@ -5779,7 +5992,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>45</v>
       </c>
@@ -5810,6 +6023,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="R14:R15"/>
     <mergeCell ref="R16:R17"/>
     <mergeCell ref="R18:R19"/>
     <mergeCell ref="R31:R32"/>
@@ -5820,11 +6038,6 @@
     <mergeCell ref="R25:R26"/>
     <mergeCell ref="R27:R28"/>
     <mergeCell ref="R29:R30"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="R14:R15"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E51">

--- a/MMS/Test Cases/Monitor app/Performance tests-18apr2015.xlsx
+++ b/MMS/Test Cases/Monitor app/Performance tests-18apr2015.xlsx
@@ -59,7 +59,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C20" authorId="0">
+    <comment ref="C21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F57" authorId="0">
+    <comment ref="F59" authorId="0">
       <text>
         <r>
           <rPr>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="332">
   <si>
     <t>time for upload</t>
   </si>
@@ -476,9 +476,6 @@
     <t>check whether a deactivated media(web page), can be linked to the image</t>
   </si>
   <si>
-    <t>identify media manually with correct media id</t>
-  </si>
-  <si>
     <t>When linking medias in the link monitor screen, check few medias and scroll down 
 The checked media must not get unchecked on scrolling</t>
   </si>
@@ -1062,9 +1059,6 @@
 6. Link Monitor screen</t>
   </si>
   <si>
-    <t>Enter other account media ID</t>
-  </si>
-  <si>
     <t>1. Capture an image and save
 2. Click 'Identify media to link' button
 3. Select 'Manual' option 
@@ -1078,9 +1072,6 @@
   </si>
   <si>
     <t>1. Enter valid ID and corresponding Password</t>
-  </si>
-  <si>
-    <t>check on next build able to retrieve abc account media 14710 for info account</t>
   </si>
   <si>
     <t>The app must return a message informing that this is a incorrect Qrcode</t>
@@ -1404,6 +1395,23 @@
   </si>
   <si>
     <t>The monitor is uploaded</t>
+  </si>
+  <si>
+    <t>identify media manually with correct media id - indoor media</t>
+  </si>
+  <si>
+    <t>identify media manually with correct media id - street media</t>
+  </si>
+  <si>
+    <t>NOTE: In Previous Version is not loading.
+Unable to connect server please try again later msg is displayed and if the img cache will be there its loading.</t>
+  </si>
+  <si>
+    <t>Enter other Street media account media ID</t>
+  </si>
+  <si>
+    <t>check on next build able to retrieve abc account media 14710 for info account
+and Unable to connect server msg is displayed</t>
   </si>
 </sst>
 </file>
@@ -1480,7 +1488,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1526,6 +1534,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1595,7 +1609,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1679,6 +1693,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1687,21 +1702,7 @@
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -1713,20 +1714,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3314,11 +3301,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I123"/>
+  <dimension ref="A2:I125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3330,37 +3317,38 @@
     <col min="5" max="5" width="18.28515625" style="4" customWidth="1"/>
     <col min="6" max="6" width="36.140625" style="4" customWidth="1"/>
     <col min="7" max="7" width="30.85546875" style="4" customWidth="1"/>
-    <col min="8" max="9" width="13.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="4" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" s="23" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="F2" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="G2" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" s="22" t="s">
         <v>126</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="16" customFormat="1">
@@ -3368,10 +3356,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="16" customFormat="1" ht="75">
@@ -3380,11 +3371,11 @@
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="32" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="16" customFormat="1" ht="60">
@@ -3392,14 +3383,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="16" customFormat="1" ht="30">
@@ -3408,10 +3399,10 @@
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="16" customFormat="1" ht="30">
@@ -3420,10 +3411,10 @@
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="16" customFormat="1" ht="30">
@@ -3434,10 +3425,10 @@
         <v>92</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30">
@@ -3445,13 +3436,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G9" s="16"/>
     </row>
@@ -3461,10 +3452,10 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G10" s="16"/>
     </row>
@@ -3473,13 +3464,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G11" s="16"/>
     </row>
@@ -3491,10 +3482,10 @@
         <v>13</v>
       </c>
       <c r="D12" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="G12" s="16"/>
     </row>
@@ -3503,13 +3494,13 @@
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G13" s="16"/>
     </row>
@@ -3518,13 +3509,13 @@
         <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="G14" s="16"/>
     </row>
@@ -3533,13 +3524,13 @@
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G15" s="16"/>
     </row>
@@ -3548,13 +3539,13 @@
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D16" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="G16" s="16"/>
     </row>
@@ -3563,1012 +3554,1032 @@
         <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D17" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:8" ht="60">
+    <row r="18" spans="1:8" ht="120">
       <c r="A18" s="16">
         <v>16</v>
       </c>
+      <c r="B18" s="39"/>
       <c r="C18" s="2" t="s">
-        <v>104</v>
+        <v>327</v>
       </c>
       <c r="D18" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G18" s="16"/>
-    </row>
-    <row r="19" spans="1:8" ht="90">
-      <c r="A19" s="16">
-        <v>17</v>
-      </c>
+      <c r="G18" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="60">
+      <c r="A19" s="16"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="2" t="s">
-        <v>153</v>
+        <v>328</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G19" s="16"/>
+        <v>149</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="16" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="90">
       <c r="A20" s="16">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G20" s="16"/>
+    </row>
+    <row r="21" spans="1:8" ht="90">
+      <c r="A21" s="16">
         <v>18</v>
       </c>
-      <c r="C20" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="D20" s="34" t="s">
+      <c r="C21" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="18" t="s">
+      <c r="G21" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="60">
+      <c r="A23" s="16">
+        <v>19</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="F23" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="G20" s="16"/>
-    </row>
-    <row r="21" spans="1:8" ht="60">
-      <c r="A21" s="16">
-        <v>19</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="D21" s="32" t="s">
+      <c r="G23" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="90">
+      <c r="A24" s="16"/>
+      <c r="C24" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="87" customHeight="1">
+      <c r="A25" s="16">
+        <v>20</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="F21" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="G21" s="16"/>
-    </row>
-    <row r="22" spans="1:8" ht="60">
-      <c r="A22" s="16"/>
-      <c r="C22" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="87" customHeight="1">
-      <c r="A23" s="16">
-        <v>20</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="F25" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" spans="1:8" ht="60">
+      <c r="A26" s="16">
+        <v>21</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D26" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="G23" s="16"/>
-    </row>
-    <row r="24" spans="1:8" ht="60">
-      <c r="A24" s="16">
-        <v>21</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G24" s="16"/>
-    </row>
-    <row r="25" spans="1:8" ht="60">
-      <c r="A25" s="16">
+      <c r="F26" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="16"/>
+    </row>
+    <row r="27" spans="1:8" ht="60">
+      <c r="A27" s="16">
         <v>22</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C27" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="17" t="s">
         <v>163</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="G25" s="16"/>
-    </row>
-    <row r="26" spans="1:8" ht="75">
-      <c r="A26" s="16">
-        <v>23</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G26" s="16"/>
-    </row>
-    <row r="27" spans="1:8" ht="90">
-      <c r="A27" s="16">
-        <v>24</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="G27" s="16"/>
     </row>
     <row r="28" spans="1:8" ht="75">
       <c r="A28" s="16">
+        <v>23</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G28" s="16"/>
+    </row>
+    <row r="29" spans="1:8" ht="90">
+      <c r="A29" s="16">
+        <v>24</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G29" s="16"/>
+    </row>
+    <row r="30" spans="1:8" ht="75">
+      <c r="A30" s="16">
         <v>25</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D30" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G28" s="16"/>
-    </row>
-    <row r="29" spans="1:8" ht="120">
-      <c r="A29" s="16">
-        <v>26</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G29" s="16"/>
-    </row>
-    <row r="30" spans="1:8" ht="135">
-      <c r="A30" s="16">
-        <v>27</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:8" ht="120">
       <c r="A31" s="16">
+        <v>26</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G31" s="16"/>
+    </row>
+    <row r="32" spans="1:8" ht="135">
+      <c r="A32" s="16">
+        <v>27</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G32" s="16"/>
+    </row>
+    <row r="33" spans="1:7" ht="120">
+      <c r="A33" s="16">
         <v>28</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C33" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D33" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="F33" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="G31" s="16"/>
-    </row>
-    <row r="32" spans="1:8" ht="90">
-      <c r="A32" s="16">
+      <c r="G33" s="16"/>
+    </row>
+    <row r="34" spans="1:7" ht="90">
+      <c r="A34" s="16">
         <v>29</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C34" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D34" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="D32" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G32" s="16"/>
-    </row>
-    <row r="33" spans="1:7" ht="180">
-      <c r="A33" s="16"/>
-      <c r="C33" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>248</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="G33" s="16"/>
-    </row>
-    <row r="34" spans="1:7" ht="105">
-      <c r="A34" s="16"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="33" t="s">
-        <v>251</v>
-      </c>
       <c r="F34" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="G34" s="16"/>
     </row>
-    <row r="35" spans="1:7" ht="120">
+    <row r="35" spans="1:7" ht="180">
       <c r="A35" s="16"/>
       <c r="C35" s="2" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="G35" s="16"/>
     </row>
-    <row r="36" spans="1:7" ht="30">
+    <row r="36" spans="1:7" ht="105">
       <c r="A36" s="16"/>
       <c r="C36" s="2"/>
       <c r="D36" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G36" s="16"/>
+    </row>
+    <row r="37" spans="1:7" ht="120">
+      <c r="A37" s="16"/>
+      <c r="C37" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G37" s="16"/>
+    </row>
+    <row r="38" spans="1:7" ht="30">
+      <c r="A38" s="16"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G38" s="16"/>
+    </row>
+    <row r="39" spans="1:7" ht="180">
+      <c r="A39" s="16"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G36" s="16"/>
-    </row>
-    <row r="37" spans="1:7" ht="180">
-      <c r="A37" s="16"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="G37" s="16"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="16">
+      <c r="G39" s="16"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="16">
         <v>30</v>
       </c>
-      <c r="D38" s="33" t="s">
+      <c r="D40" s="33" t="s">
         <v>95</v>
-      </c>
-      <c r="G38" s="16"/>
-    </row>
-    <row r="39" spans="1:7" ht="75">
-      <c r="A39" s="16">
-        <v>31</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D39" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="G39" s="16"/>
-    </row>
-    <row r="40" spans="1:7" ht="75">
-      <c r="A40" s="16">
-        <v>32</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>173</v>
       </c>
       <c r="G40" s="16"/>
     </row>
     <row r="41" spans="1:7" ht="75">
       <c r="A41" s="16">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G41" s="16"/>
     </row>
     <row r="42" spans="1:7" ht="75">
       <c r="A42" s="16">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>83</v>
+        <v>176</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G42" s="16"/>
     </row>
-    <row r="43" spans="1:7" ht="90">
+    <row r="43" spans="1:7" ht="75">
       <c r="A43" s="16">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="E43" s="26"/>
-      <c r="F43" s="27" t="s">
-        <v>182</v>
+        <v>177</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>172</v>
       </c>
       <c r="G43" s="16"/>
     </row>
     <row r="44" spans="1:7" ht="75">
       <c r="A44" s="16">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>225</v>
+        <v>178</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>172</v>
       </c>
       <c r="G44" s="16"/>
     </row>
-    <row r="45" spans="1:7" ht="60">
+    <row r="45" spans="1:7" ht="90">
       <c r="A45" s="16">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D45" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>220</v>
+        <v>14</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="E45" s="26"/>
+      <c r="F45" s="27" t="s">
+        <v>181</v>
       </c>
       <c r="G45" s="16"/>
     </row>
     <row r="46" spans="1:7" ht="75">
       <c r="A46" s="16">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>221</v>
+        <v>11</v>
       </c>
       <c r="D46" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G46" s="16"/>
     </row>
     <row r="47" spans="1:7" ht="60">
       <c r="A47" s="16">
-        <v>39</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>223</v>
+        <v>37</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G47" s="16"/>
     </row>
     <row r="48" spans="1:7" ht="75">
       <c r="A48" s="16">
+        <v>38</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D48" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G48" s="16"/>
+    </row>
+    <row r="49" spans="1:7" ht="60">
+      <c r="A49" s="16">
+        <v>39</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G49" s="16"/>
+    </row>
+    <row r="50" spans="1:7" ht="75">
+      <c r="A50" s="16">
         <v>40</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C50" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G50" s="16"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="16">
+        <v>41</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="16"/>
+    </row>
+    <row r="52" spans="1:7" ht="60">
+      <c r="A52" s="16">
+        <v>42</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D48" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="G48" s="16"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="16">
-        <v>41</v>
-      </c>
-      <c r="D49" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="16"/>
-    </row>
-    <row r="50" spans="1:7" ht="60">
-      <c r="A50" s="16">
-        <v>42</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D50" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="G50" s="16"/>
-    </row>
-    <row r="51" spans="1:7" ht="60">
-      <c r="A51" s="16">
-        <v>43</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D51" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="G51" s="16"/>
-    </row>
-    <row r="52" spans="1:7" ht="75">
-      <c r="A52" s="16">
-        <v>44</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>230</v>
-      </c>
       <c r="D52" s="33" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>231</v>
       </c>
       <c r="G52" s="16"/>
     </row>
-    <row r="53" spans="1:7" ht="45">
+    <row r="53" spans="1:7" ht="60">
       <c r="A53" s="16">
-        <v>45</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>233</v>
+        <v>43</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G53" s="16"/>
     </row>
     <row r="54" spans="1:7" ht="75">
       <c r="A54" s="16">
+        <v>44</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D54" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G54" s="16"/>
+    </row>
+    <row r="55" spans="1:7" ht="45">
+      <c r="A55" s="16">
+        <v>45</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="D55" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G55" s="16"/>
+    </row>
+    <row r="56" spans="1:7" ht="75">
+      <c r="A56" s="16">
         <v>46</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C56" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D56" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D54" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G54" s="16"/>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="16">
+      <c r="G56" s="16"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="16">
         <v>47</v>
       </c>
-      <c r="D55" s="36" t="s">
+      <c r="D57" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F55" s="2"/>
-      <c r="G55" s="16"/>
-    </row>
-    <row r="56" spans="1:7" ht="60">
-      <c r="A56" s="16">
+      <c r="F57" s="2"/>
+      <c r="G57" s="16"/>
+    </row>
+    <row r="58" spans="1:7" ht="60">
+      <c r="A58" s="16">
         <v>48</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C58" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="33" t="s">
+      <c r="D58" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="G58" s="16"/>
+    </row>
+    <row r="59" spans="1:7" ht="75">
+      <c r="A59" s="16">
+        <v>49</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D59" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="G56" s="16"/>
-    </row>
-    <row r="57" spans="1:7" ht="75">
-      <c r="A57" s="16">
-        <v>49</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D57" s="33" t="s">
+      <c r="F59" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G57" s="16"/>
-    </row>
-    <row r="58" spans="1:7" ht="30">
-      <c r="A58" s="16">
-        <v>50</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D58" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="G58" s="16"/>
-    </row>
-    <row r="59" spans="1:7" ht="30">
-      <c r="A59" s="16">
-        <v>51</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D59" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="E59" s="2"/>
       <c r="G59" s="16"/>
     </row>
     <row r="60" spans="1:7" ht="30">
       <c r="A60" s="16">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D60" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E60" s="2"/>
       <c r="G60" s="16"/>
     </row>
     <row r="61" spans="1:7" ht="30">
       <c r="A61" s="16">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>276</v>
+        <v>72</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E61" s="2"/>
       <c r="G61" s="16"/>
     </row>
     <row r="62" spans="1:7" ht="30">
       <c r="A62" s="16">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E62" s="2"/>
       <c r="G62" s="16"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" ht="30">
       <c r="A63" s="16">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E63" s="2"/>
       <c r="G63" s="16"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" ht="30">
       <c r="A64" s="16">
-        <v>56</v>
-      </c>
-      <c r="D64" s="33"/>
+        <v>54</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D64" s="33" t="s">
+        <v>89</v>
+      </c>
       <c r="E64" s="2"/>
       <c r="G64" s="16"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="16">
+        <v>55</v>
+      </c>
+      <c r="D65" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="G65" s="16"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="16">
+        <v>56</v>
+      </c>
+      <c r="D66" s="33"/>
+      <c r="E66" s="2"/>
+      <c r="G66" s="16"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="16">
         <v>57</v>
       </c>
-      <c r="D65" s="36" t="s">
+      <c r="D67" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="G65" s="16"/>
-    </row>
-    <row r="66" spans="1:7" ht="105">
-      <c r="A66" s="16">
+      <c r="G67" s="16"/>
+    </row>
+    <row r="68" spans="1:7" ht="105">
+      <c r="A68" s="16">
         <v>58</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="G66" s="16"/>
-    </row>
-    <row r="67" spans="1:7" ht="60">
-      <c r="A67" s="16">
-        <v>59</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D67" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G67" s="16"/>
-    </row>
-    <row r="68" spans="1:7" ht="30">
-      <c r="A68" s="16">
-        <v>60</v>
-      </c>
       <c r="D68" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2" t="s">
-        <v>67</v>
+        <v>240</v>
       </c>
       <c r="G68" s="16"/>
     </row>
     <row r="69" spans="1:7" ht="60">
       <c r="A69" s="16">
+        <v>59</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G69" s="16"/>
+    </row>
+    <row r="70" spans="1:7" ht="30">
+      <c r="A70" s="16">
+        <v>60</v>
+      </c>
+      <c r="D70" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G70" s="16"/>
+    </row>
+    <row r="71" spans="1:7" ht="60">
+      <c r="A71" s="16">
         <v>61</v>
       </c>
-      <c r="D69" s="33" t="s">
+      <c r="D71" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="16"/>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="16">
-        <v>62</v>
-      </c>
-      <c r="D70" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="16"/>
-    </row>
-    <row r="71" spans="1:7" ht="30">
-      <c r="A71" s="16">
-        <v>63</v>
-      </c>
-      <c r="D71" s="33" t="s">
-        <v>85</v>
-      </c>
+      <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="16"/>
     </row>
-    <row r="72" spans="1:7" ht="60">
+    <row r="72" spans="1:7">
       <c r="A72" s="16">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D72" s="33" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="16"/>
     </row>
-    <row r="73" spans="1:7" ht="120">
+    <row r="73" spans="1:7" ht="30">
       <c r="A73" s="16">
-        <v>65</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>194</v>
+        <v>63</v>
       </c>
       <c r="D73" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2" t="s">
-        <v>195</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F73" s="2"/>
       <c r="G73" s="16"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" ht="60">
       <c r="A74" s="16">
-        <v>66</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="33"/>
+        <v>64</v>
+      </c>
+      <c r="D74" s="33" t="s">
+        <v>93</v>
+      </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="16"/>
     </row>
-    <row r="75" spans="1:7" ht="60">
+    <row r="75" spans="1:7" ht="120">
       <c r="A75" s="16">
+        <v>65</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D75" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G75" s="16"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="16">
+        <v>66</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="16"/>
+    </row>
+    <row r="77" spans="1:7" ht="60">
+      <c r="A77" s="16">
         <v>67</v>
       </c>
-      <c r="D75" s="33" t="s">
+      <c r="D77" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="E75" s="2"/>
-      <c r="G75" s="16"/>
-    </row>
-    <row r="76" spans="1:7" ht="60">
-      <c r="A76" s="16">
+      <c r="E77" s="2"/>
+      <c r="G77" s="16"/>
+    </row>
+    <row r="78" spans="1:7" ht="60">
+      <c r="A78" s="16">
         <v>68</v>
       </c>
-      <c r="D76" s="33" t="s">
+      <c r="D78" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2" t="s">
+      <c r="E78" s="2"/>
+      <c r="F78" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G76" s="16"/>
-    </row>
-    <row r="77" spans="1:7" ht="30">
-      <c r="A77" s="16">
+      <c r="G78" s="16"/>
+    </row>
+    <row r="79" spans="1:7" ht="30">
+      <c r="A79" s="16">
         <v>69</v>
       </c>
-      <c r="D77" s="33" t="s">
+      <c r="D79" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="G77" s="16"/>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="16">
+      <c r="G79" s="16"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="16">
         <v>70</v>
       </c>
-      <c r="D78" s="33" t="s">
+      <c r="D80" s="33" t="s">
         <v>99</v>
-      </c>
-      <c r="G78" s="16"/>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="16">
-        <v>71</v>
-      </c>
-      <c r="D79" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="G79" s="16"/>
-    </row>
-    <row r="80" spans="1:7" ht="30">
-      <c r="A80" s="16">
-        <v>72</v>
-      </c>
-      <c r="D80" s="33" t="s">
-        <v>101</v>
       </c>
       <c r="G80" s="16"/>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="16">
+        <v>71</v>
+      </c>
+      <c r="D81" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="G81" s="16"/>
+    </row>
+    <row r="82" spans="1:7" ht="30">
+      <c r="A82" s="16">
+        <v>72</v>
+      </c>
+      <c r="D82" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="G82" s="16"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="16">
         <v>73</v>
       </c>
-      <c r="D81" s="33" t="s">
+      <c r="D83" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="G83" s="16"/>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="16">
+        <v>74</v>
+      </c>
+      <c r="D84" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="G81" s="16"/>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="16">
-        <v>74</v>
-      </c>
-      <c r="D82" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="G82" s="16"/>
-    </row>
-    <row r="83" spans="1:7" ht="30">
-      <c r="A83" s="16">
+      <c r="G84" s="16"/>
+    </row>
+    <row r="85" spans="1:7" ht="30">
+      <c r="A85" s="16">
         <v>75</v>
       </c>
-      <c r="D83" s="33" t="s">
+      <c r="D85" s="33" t="s">
         <v>102</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="G83" s="16"/>
-    </row>
-    <row r="84" spans="1:7" ht="30">
-      <c r="A84" s="16">
-        <v>76</v>
-      </c>
-      <c r="D84" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="G84" s="16"/>
-    </row>
-    <row r="85" spans="1:7" ht="45">
-      <c r="A85" s="16">
-        <v>77</v>
-      </c>
-      <c r="D85" s="33" t="s">
-        <v>105</v>
       </c>
       <c r="E85" s="2"/>
       <c r="G85" s="16"/>
     </row>
-    <row r="86" spans="1:7" ht="45">
+    <row r="86" spans="1:7" ht="30">
       <c r="A86" s="16">
-        <v>78</v>
-      </c>
-      <c r="C86" s="2"/>
+        <v>76</v>
+      </c>
       <c r="D86" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="E86" s="2"/>
+        <v>103</v>
+      </c>
       <c r="G86" s="16"/>
     </row>
-    <row r="87" spans="1:7" ht="30">
+    <row r="87" spans="1:7" ht="45">
       <c r="A87" s="16">
-        <v>79</v>
-      </c>
-      <c r="C87" s="2"/>
+        <v>77</v>
+      </c>
       <c r="D87" s="33" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E87" s="2"/>
       <c r="G87" s="16"/>
     </row>
-    <row r="88" spans="1:7" ht="60">
+    <row r="88" spans="1:7" ht="45">
       <c r="A88" s="16">
-        <v>80</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D88" s="36" t="s">
-        <v>112</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="E88" s="2"/>
       <c r="G88" s="16"/>
     </row>
-    <row r="89" spans="1:7" ht="45">
+    <row r="89" spans="1:7" ht="30">
       <c r="A89" s="16">
-        <v>81</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D89" s="36" t="s">
-        <v>197</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="E89" s="2"/>
       <c r="G89" s="16"/>
     </row>
     <row r="90" spans="1:7" ht="60">
       <c r="A90" s="16">
+        <v>80</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D90" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="G90" s="16"/>
+    </row>
+    <row r="91" spans="1:7" ht="45">
+      <c r="A91" s="16">
+        <v>81</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D91" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="G91" s="16"/>
+    </row>
+    <row r="92" spans="1:7" ht="60">
+      <c r="A92" s="16">
         <v>82</v>
       </c>
-      <c r="D90" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="G90" s="16"/>
-    </row>
-    <row r="91" spans="1:7" ht="60">
-      <c r="A91" s="16">
+      <c r="D92" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="G92" s="16"/>
+    </row>
+    <row r="93" spans="1:7" ht="60">
+      <c r="A93" s="16">
         <v>83</v>
       </c>
-      <c r="D91" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="G91" s="16"/>
-    </row>
-    <row r="92" spans="1:7" ht="60">
-      <c r="A92" s="16"/>
-      <c r="D92" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="G92" s="16"/>
-    </row>
-    <row r="93" spans="1:7" ht="90">
-      <c r="A93" s="16">
+      <c r="D93" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="G93" s="16"/>
+    </row>
+    <row r="94" spans="1:7" ht="60">
+      <c r="A94" s="16"/>
+      <c r="D94" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="G94" s="16"/>
+    </row>
+    <row r="95" spans="1:7" ht="90">
+      <c r="A95" s="16">
         <v>84</v>
       </c>
-      <c r="D93" s="33" t="s">
-        <v>262</v>
-      </c>
-      <c r="G93" s="16"/>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="16">
+      <c r="D95" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="G95" s="16"/>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="16">
         <v>85</v>
       </c>
-      <c r="D94" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="G94" s="16"/>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="16">
-        <v>86</v>
-      </c>
-      <c r="D95" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="G95" s="16"/>
-    </row>
-    <row r="96" spans="1:7" ht="30">
-      <c r="A96" s="16">
-        <v>87</v>
-      </c>
-      <c r="D96" s="33" t="s">
-        <v>217</v>
+      <c r="D96" s="36" t="s">
+        <v>213</v>
       </c>
       <c r="G96" s="16"/>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="16">
+        <v>86</v>
+      </c>
+      <c r="D97" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="G97" s="16"/>
+    </row>
+    <row r="98" spans="1:7" ht="30">
+      <c r="A98" s="16">
+        <v>87</v>
+      </c>
+      <c r="D98" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="G98" s="16"/>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="16">
         <v>88</v>
       </c>
-      <c r="D97" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="G97" s="16"/>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="G98" s="16"/>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="D99" s="36" t="s">
+        <v>217</v>
+      </c>
       <c r="G99" s="16"/>
     </row>
     <row r="100" spans="1:7">
@@ -4643,18 +4654,24 @@
     <row r="123" spans="7:7">
       <c r="G123" s="16"/>
     </row>
+    <row r="124" spans="7:7">
+      <c r="G124" s="16"/>
+    </row>
+    <row r="125" spans="7:7">
+      <c r="G125" s="16"/>
+    </row>
   </sheetData>
   <autoFilter ref="A2:I2"/>
-  <conditionalFormatting sqref="G3:G123">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+  <conditionalFormatting sqref="G3:G21 G23:G125">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"pass"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>"fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G123">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G125">
       <formula1>"Pass, Fail, untestable"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4688,30 +4705,30 @@
   <sheetData>
     <row r="1" spans="1:18" ht="30">
       <c r="D1" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="24" customFormat="1">
       <c r="B2" s="24" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D2" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>266</v>
-      </c>
       <c r="G2" s="24" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="60">
@@ -4722,22 +4739,22 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G3" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="60">
@@ -4748,22 +4765,22 @@
         <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P4" s="28"/>
       <c r="Q4" s="28"/>
@@ -4777,22 +4794,22 @@
         <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G5" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="N5" s="3"/>
     </row>
@@ -4804,25 +4821,25 @@
         <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="N6" s="3"/>
-      <c r="R6" s="39"/>
+      <c r="R6" s="40"/>
     </row>
     <row r="7" spans="1:18" ht="45">
       <c r="A7">
@@ -4832,24 +4849,24 @@
         <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="R7" s="39"/>
+        <v>279</v>
+      </c>
+      <c r="R7" s="40"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
@@ -4859,25 +4876,25 @@
         <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G8" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="N8" s="3"/>
-      <c r="R8" s="39"/>
+      <c r="R8" s="40"/>
     </row>
     <row r="9" spans="1:18" ht="45">
       <c r="A9">
@@ -4887,24 +4904,24 @@
         <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D9" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E9" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F9" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G9" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="R9" s="39"/>
+        <v>279</v>
+      </c>
+      <c r="R9" s="40"/>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
@@ -4914,25 +4931,25 @@
         <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D10" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F10" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="N10" s="3"/>
-      <c r="R10" s="39"/>
+      <c r="R10" s="40"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
@@ -4942,272 +4959,272 @@
         <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D11" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F11" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G11" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="R11" s="39"/>
+        <v>290</v>
+      </c>
+      <c r="R11" s="40"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C12" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D12" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E12" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F12" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="N12" s="3"/>
-      <c r="R12" s="39"/>
+      <c r="R12" s="40"/>
     </row>
     <row r="13" spans="1:18" ht="60">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C13" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E13" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F13" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="R13" s="39"/>
+        <v>287</v>
+      </c>
+      <c r="R13" s="40"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D14" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E14" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F14" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G14" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="N14" s="3"/>
-      <c r="R14" s="39"/>
+      <c r="R14" s="40"/>
     </row>
     <row r="15" spans="1:18" ht="90">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C15" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D15" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E15" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F15" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="R15" s="39"/>
+        <v>291</v>
+      </c>
+      <c r="R15" s="40"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C16" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D16" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E16" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F16" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G16" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="N16" s="3"/>
-      <c r="R16" s="39"/>
+      <c r="R16" s="40"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C17" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D17" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E17" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F17" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G17" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="R17" s="39"/>
+        <v>278</v>
+      </c>
+      <c r="R17" s="40"/>
     </row>
     <row r="18" spans="1:18" ht="45">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C18" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D18" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E18" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F18" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G18" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="N18" s="3"/>
-      <c r="R18" s="39"/>
+      <c r="R18" s="40"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D19" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E19" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J19" s="29" t="s">
-        <v>295</v>
-      </c>
-      <c r="R19" s="39"/>
+        <v>292</v>
+      </c>
+      <c r="R19" s="40"/>
     </row>
     <row r="20" spans="1:18" ht="30">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D20" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E20" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F20" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J20" s="29" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="N20" s="3"/>
       <c r="R20" s="37"/>
@@ -5217,498 +5234,498 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D21" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E21" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F21" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="N21" s="3"/>
-      <c r="R21" s="39"/>
+      <c r="R21" s="40"/>
     </row>
     <row r="22" spans="1:18">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="C22" t="s">
+        <v>295</v>
+      </c>
+      <c r="D22" t="s">
+        <v>266</v>
+      </c>
+      <c r="E22" t="s">
         <v>298</v>
       </c>
-      <c r="D22" t="s">
-        <v>269</v>
-      </c>
-      <c r="E22" t="s">
-        <v>301</v>
-      </c>
       <c r="F22" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="R22" s="39"/>
+        <v>293</v>
+      </c>
+      <c r="R22" s="40"/>
     </row>
     <row r="23" spans="1:18" ht="30">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="C23" t="s">
+        <v>295</v>
+      </c>
+      <c r="D23" t="s">
+        <v>266</v>
+      </c>
+      <c r="E23" t="s">
         <v>298</v>
       </c>
-      <c r="D23" t="s">
-        <v>269</v>
-      </c>
-      <c r="E23" t="s">
-        <v>301</v>
-      </c>
       <c r="F23" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J23" s="29" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="N23" s="3"/>
-      <c r="R23" s="39"/>
+      <c r="R23" s="40"/>
     </row>
     <row r="24" spans="1:18">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D24" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E24" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F24" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="J24" s="29" t="s">
-        <v>295</v>
-      </c>
-      <c r="R24" s="39"/>
+        <v>292</v>
+      </c>
+      <c r="R24" s="40"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D25" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E25" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F25" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I25" s="38" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="N25" s="3"/>
-      <c r="R25" s="39"/>
+      <c r="R25" s="40"/>
     </row>
     <row r="26" spans="1:18">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D26" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E26" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F26" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I26" s="38" t="s">
-        <v>306</v>
-      </c>
-      <c r="R26" s="39"/>
+        <v>303</v>
+      </c>
+      <c r="R26" s="40"/>
     </row>
     <row r="27" spans="1:18" ht="30">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="C27" t="s">
+        <v>301</v>
+      </c>
+      <c r="D27" t="s">
+        <v>266</v>
+      </c>
+      <c r="E27" t="s">
+        <v>298</v>
+      </c>
+      <c r="F27" t="s">
+        <v>266</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="I27" s="38" t="s">
         <v>304</v>
       </c>
-      <c r="D27" t="s">
-        <v>269</v>
-      </c>
-      <c r="E27" t="s">
-        <v>301</v>
-      </c>
-      <c r="F27" t="s">
-        <v>269</v>
-      </c>
-      <c r="G27" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="H27" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="I27" s="38" t="s">
-        <v>307</v>
-      </c>
       <c r="N27" s="3"/>
-      <c r="R27" s="39"/>
+      <c r="R27" s="40"/>
     </row>
     <row r="28" spans="1:18" ht="30">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D28" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E28" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F28" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I28" s="38" t="s">
-        <v>308</v>
-      </c>
-      <c r="R28" s="39"/>
+        <v>305</v>
+      </c>
+      <c r="R28" s="40"/>
     </row>
     <row r="29" spans="1:18">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E29" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F29" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I29" s="38" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="N29" s="3"/>
-      <c r="R29" s="39"/>
+      <c r="R29" s="40"/>
     </row>
     <row r="30" spans="1:18">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C30" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D30" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E30" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F30" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I30" s="38" t="s">
-        <v>289</v>
-      </c>
-      <c r="R30" s="39"/>
+        <v>286</v>
+      </c>
+      <c r="R30" s="40"/>
     </row>
     <row r="31" spans="1:18">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C31" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D31" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E31" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F31" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I31" s="38" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="N31" s="3"/>
-      <c r="R31" s="39"/>
+      <c r="R31" s="40"/>
     </row>
     <row r="32" spans="1:18" ht="30">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C32" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D32" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E32" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F32" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I32" s="38" t="s">
-        <v>299</v>
-      </c>
-      <c r="R32" s="39"/>
+        <v>296</v>
+      </c>
+      <c r="R32" s="40"/>
     </row>
     <row r="33" spans="1:18" ht="30">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
+        <v>307</v>
+      </c>
+      <c r="C33" t="s">
         <v>310</v>
       </c>
-      <c r="C33" t="s">
-        <v>313</v>
-      </c>
       <c r="D33" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E33" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F33" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I33" s="38" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="N33" s="3"/>
-      <c r="R33" s="39"/>
+      <c r="R33" s="40"/>
     </row>
     <row r="34" spans="1:18">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
+        <v>307</v>
+      </c>
+      <c r="C34" t="s">
         <v>310</v>
       </c>
-      <c r="C34" t="s">
-        <v>313</v>
-      </c>
       <c r="D34" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E34" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F34" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I34" s="38" t="s">
-        <v>315</v>
-      </c>
-      <c r="R34" s="39"/>
+        <v>312</v>
+      </c>
+      <c r="R34" s="40"/>
     </row>
     <row r="35" spans="1:18">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
+        <v>307</v>
+      </c>
+      <c r="C35" t="s">
         <v>310</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>270</v>
+      </c>
+      <c r="E35" t="s">
+        <v>267</v>
+      </c>
+      <c r="F35" t="s">
+        <v>266</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="H35" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="I35" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="D35" t="s">
-        <v>273</v>
-      </c>
-      <c r="E35" t="s">
-        <v>270</v>
-      </c>
-      <c r="F35" t="s">
-        <v>269</v>
-      </c>
-      <c r="G35" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="H35" s="29" t="s">
-        <v>288</v>
-      </c>
-      <c r="I35" s="38" t="s">
-        <v>316</v>
-      </c>
       <c r="N35" s="3"/>
-      <c r="R35" s="39"/>
+      <c r="R35" s="40"/>
     </row>
     <row r="36" spans="1:18">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C36" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D36" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E36" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F36" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H36" s="29" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I36" s="38" t="s">
-        <v>317</v>
-      </c>
-      <c r="R36" s="39"/>
+        <v>314</v>
+      </c>
+      <c r="R36" s="40"/>
     </row>
     <row r="37" spans="1:18">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C37" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D37" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E37" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F37" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H37" s="29" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I37" s="38" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -5716,28 +5733,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C38" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D38" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E38" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F38" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H38" s="29" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I38" s="38" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -5750,28 +5767,28 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C40" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D40" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E40" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F40" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H40" s="29" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I40" s="38" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -5779,28 +5796,28 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C41" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D41" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E41" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F41" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G41" s="29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H41" s="29" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I41" s="38" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -5808,28 +5825,28 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
+        <v>317</v>
+      </c>
+      <c r="C42" t="s">
+        <v>309</v>
+      </c>
+      <c r="D42" t="s">
+        <v>266</v>
+      </c>
+      <c r="E42" t="s">
+        <v>267</v>
+      </c>
+      <c r="F42" t="s">
+        <v>265</v>
+      </c>
+      <c r="G42" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="H42" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="I42" s="38" t="s">
         <v>320</v>
-      </c>
-      <c r="C42" t="s">
-        <v>312</v>
-      </c>
-      <c r="D42" t="s">
-        <v>269</v>
-      </c>
-      <c r="E42" t="s">
-        <v>270</v>
-      </c>
-      <c r="F42" t="s">
-        <v>268</v>
-      </c>
-      <c r="G42" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="H42" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="I42" s="38" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -5837,28 +5854,28 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
+        <v>317</v>
+      </c>
+      <c r="C43" t="s">
+        <v>276</v>
+      </c>
+      <c r="D43" t="s">
+        <v>270</v>
+      </c>
+      <c r="E43" t="s">
+        <v>267</v>
+      </c>
+      <c r="F43" t="s">
+        <v>266</v>
+      </c>
+      <c r="G43" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="H43" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="I43" s="38" t="s">
         <v>320</v>
-      </c>
-      <c r="C43" t="s">
-        <v>279</v>
-      </c>
-      <c r="D43" t="s">
-        <v>273</v>
-      </c>
-      <c r="E43" t="s">
-        <v>270</v>
-      </c>
-      <c r="F43" t="s">
-        <v>269</v>
-      </c>
-      <c r="G43" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="H43" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="I43" s="38" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -5881,28 +5898,28 @@
         <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C47" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D47" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E47" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F47" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H47" s="29" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I47" s="38" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -5910,28 +5927,28 @@
         <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C48" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D48" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E48" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F48" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I48" s="38" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -5939,28 +5956,28 @@
         <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C49" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D49" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E49" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F49" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G49" s="29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H49" s="29" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I49" s="38" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -5968,28 +5985,28 @@
         <v>44</v>
       </c>
       <c r="B50" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C50" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D50" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E50" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F50" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G50" s="29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H50" s="29" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I50" s="38" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -5997,28 +6014,28 @@
         <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C51" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D51" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E51" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F51" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G51" s="29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H51" s="29" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I51" s="38" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/MMS/Test Cases/Monitor app/Performance tests-18apr2015.xlsx
+++ b/MMS/Test Cases/Monitor app/Performance tests-18apr2015.xlsx
@@ -4456,8 +4456,8 @@
   <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5810,6 +5810,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="R14:R15"/>
     <mergeCell ref="R16:R17"/>
     <mergeCell ref="R18:R19"/>
     <mergeCell ref="R31:R32"/>
@@ -5820,11 +5825,6 @@
     <mergeCell ref="R25:R26"/>
     <mergeCell ref="R27:R28"/>
     <mergeCell ref="R29:R30"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="R14:R15"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E51">

--- a/MMS/Test Cases/Monitor app/Performance tests-18apr2015.xlsx
+++ b/MMS/Test Cases/Monitor app/Performance tests-18apr2015.xlsx
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="333">
   <si>
     <t>time for upload</t>
   </si>
@@ -1412,6 +1412,9 @@
   <si>
     <t>check on next build able to retrieve abc account media 14710 for info account
 and Unable to connect server msg is displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identify no data connection identfy media with correct media ID for the stret </t>
   </si>
 </sst>
 </file>
@@ -3305,7 +3308,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3630,6 +3633,11 @@
       </c>
       <c r="G21" s="16" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="C22" s="4" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="60">
@@ -6040,11 +6048,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="R14:R15"/>
     <mergeCell ref="R16:R17"/>
     <mergeCell ref="R18:R19"/>
     <mergeCell ref="R31:R32"/>
@@ -6055,6 +6058,11 @@
     <mergeCell ref="R25:R26"/>
     <mergeCell ref="R27:R28"/>
     <mergeCell ref="R29:R30"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="R14:R15"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E51">

--- a/MMS/Test Cases/Monitor app/Performance tests-18apr2015.xlsx
+++ b/MMS/Test Cases/Monitor app/Performance tests-18apr2015.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'20 mar15'!$A$2:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'20 mar15'!$A$2:$L$102</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -83,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F59" authorId="0">
+    <comment ref="F62" authorId="0">
       <text>
         <r>
           <rPr>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="342">
   <si>
     <t>time for upload</t>
   </si>
@@ -661,9 +661,6 @@
     <t>Unable to retrieve media manually with correct media id</t>
   </si>
   <si>
-    <t>with no data connection identify media manually with correct media id</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -684,9 +681,6 @@
     <t>Media not found message must appear and if the user tries to upload, a message informing that the monitor will not be linked must appear</t>
   </si>
   <si>
-    <t>Auto identify media</t>
-  </si>
-  <si>
     <t>Auto identify media-unable to retrieve data</t>
   </si>
   <si>
@@ -698,9 +692,6 @@
 </t>
   </si>
   <si>
-    <t>with no data connection auto identify media</t>
-  </si>
-  <si>
     <t>No data connection message must appear</t>
   </si>
   <si>
@@ -719,9 +710,6 @@
 1. Capture an image and save
 2. Click 'Identify media to link' button
 3. Select 'auto' option </t>
-  </si>
-  <si>
-    <t>Linking multiple medias</t>
   </si>
   <si>
     <t>With data connection disabled
@@ -827,17 +815,11 @@
     <t>The last sync with the server data in the dashboard must be updated correctly</t>
   </si>
   <si>
-    <t>Unchecking medias and uploading</t>
-  </si>
-  <si>
     <t>1. Capture an image and save
 2.  'Identify media to link' manually/auto
 3. The link monitor screen appears displaying the media
 4. Do not check any media (for manually identifying-uncheck the selectedmedia)
 5. Select Upload</t>
-  </si>
-  <si>
-    <t>Proceed without linkingconfirmation message must appear</t>
   </si>
   <si>
     <t>1. Capture images
@@ -1090,10 +1072,6 @@
   </si>
   <si>
     <t>Checkif linked medias are retrieved into link monitor</t>
-  </si>
-  <si>
-    <t>Medias which are already linked to a QRcode must not be retrieved to the link monitor screen.
-Only unlinked medias (with default QRcode value '0') must be retrieved into the link monitor screen</t>
   </si>
   <si>
     <t>1. Select Capture&gt; choose indoor media as category&gt; click image&gt; save
@@ -1403,10 +1381,6 @@
     <t>identify media manually with correct media id - street media</t>
   </si>
   <si>
-    <t>NOTE: In Previous Version is not loading.
-Unable to connect server please try again later msg is displayed and if the img cache will be there its loading.</t>
-  </si>
-  <si>
     <t>Enter other Street media account media ID</t>
   </si>
   <si>
@@ -1414,7 +1388,62 @@
 and Unable to connect server msg is displayed</t>
   </si>
   <si>
-    <t xml:space="preserve">Identify no data connection identfy media with correct media ID for the stret </t>
+    <t>Identify no data connection identfy media with correct media ID for the street media</t>
+  </si>
+  <si>
+    <t>with no data connection identify media manually with correct media id for the place media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDOOR: Auto identify media </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STREET: Auto identify media </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifying media message must appear and the app must retrieve the media for the location available and on selection an available media and display it in the Link monitor screen.
+The user must be able to check and uncheck the medias checkboxes
+</t>
+  </si>
+  <si>
+    <t>STREET:with no data connection auto identify media</t>
+  </si>
+  <si>
+    <t>INDOOR:with no data connection auto identify media</t>
+  </si>
+  <si>
+    <t>INDOOR: Linking multiple medias</t>
+  </si>
+  <si>
+    <t>Proceed without linking confirmation message must appear</t>
+  </si>
+  <si>
+    <t>STREET: Unchecking medias and uploading</t>
+  </si>
+  <si>
+    <t>INDOOR: Unchecking medias and uploading</t>
+  </si>
+  <si>
+    <t>The application not going to the Linked to the monitor when clciking on Proceed</t>
+  </si>
+  <si>
+    <t>WIFI</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>The application not going to the Linked to the monitor screen when clciking on Proceed</t>
+  </si>
+  <si>
+    <t>NOTE: In Previous Version manual  loading of the medias are working.
+Unable to connect server please try again later msg is displayed and if the img cache will be there its loading.</t>
+  </si>
+  <si>
+    <t>Medias which are already linked to a QRcode must not be retrieved to the link monitor screen.
+Only unlinked medias (with default QRcode value '0' ) must be retrieved into the link monitor screen</t>
   </si>
 </sst>
 </file>
@@ -1705,7 +1734,49 @@
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3304,11 +3375,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I125"/>
+  <dimension ref="A2:L128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3325,12 +3396,12 @@
     <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="23" customFormat="1" ht="45" customHeight="1">
+    <row r="2" spans="1:12" s="23" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>123</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>124</v>
@@ -3345,7 +3416,7 @@
         <v>121</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H2" s="22" t="s">
         <v>122</v>
@@ -3353,13 +3424,22 @@
       <c r="I2" s="22" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" s="16" customFormat="1">
+      <c r="J2" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="16" customFormat="1">
       <c r="A3" s="16">
         <v>1</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>114</v>
@@ -3368,35 +3448,35 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="16" customFormat="1" ht="75">
+    <row r="4" spans="1:12" s="16" customFormat="1" ht="75">
       <c r="A4" s="16">
         <v>2</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="32" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="16" customFormat="1" ht="60">
+    <row r="5" spans="1:12" s="16" customFormat="1" ht="60">
       <c r="A5" s="16">
         <v>3</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="16" customFormat="1" ht="30">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="16" customFormat="1" ht="30">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -3408,7 +3488,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="16" customFormat="1" ht="30">
+    <row r="7" spans="1:12" s="16" customFormat="1" ht="30">
       <c r="A7" s="16">
         <v>5</v>
       </c>
@@ -3420,7 +3500,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="16" customFormat="1" ht="30">
+    <row r="8" spans="1:12" s="16" customFormat="1" ht="30">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -3434,7 +3514,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30">
+    <row r="9" spans="1:12" ht="30">
       <c r="A9" s="16">
         <v>7</v>
       </c>
@@ -3449,7 +3529,7 @@
       </c>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:9" ht="60">
+    <row r="10" spans="1:12" ht="60">
       <c r="A10" s="16">
         <v>8</v>
       </c>
@@ -3462,7 +3542,7 @@
       </c>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:9" ht="45">
+    <row r="11" spans="1:12" ht="45">
       <c r="A11" s="16">
         <v>9</v>
       </c>
@@ -3477,7 +3557,7 @@
       </c>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:9" ht="45">
+    <row r="12" spans="1:12" ht="45">
       <c r="A12" s="16">
         <v>10</v>
       </c>
@@ -3492,7 +3572,7 @@
       </c>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:9" ht="75">
+    <row r="13" spans="1:12" ht="75">
       <c r="A13" s="16">
         <v>11</v>
       </c>
@@ -3507,7 +3587,7 @@
       </c>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:9" ht="75">
+    <row r="14" spans="1:12" ht="75">
       <c r="A14" s="16">
         <v>12</v>
       </c>
@@ -3515,14 +3595,14 @@
         <v>141</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>142</v>
       </c>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:9" ht="90">
+    <row r="15" spans="1:12" ht="90">
       <c r="A15" s="16">
         <v>13</v>
       </c>
@@ -3537,7 +3617,7 @@
       </c>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:9" ht="90">
+    <row r="16" spans="1:12" ht="90">
       <c r="A16" s="16">
         <v>14</v>
       </c>
@@ -3552,7 +3632,7 @@
       </c>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:8" ht="90">
+    <row r="17" spans="1:10" ht="90">
       <c r="A17" s="16">
         <v>15</v>
       </c>
@@ -3567,13 +3647,13 @@
       </c>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:8" ht="120">
+    <row r="18" spans="1:10" ht="150">
       <c r="A18" s="16">
         <v>16</v>
       </c>
       <c r="B18" s="39"/>
       <c r="C18" s="2" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D18" s="33" t="s">
         <v>149</v>
@@ -3585,14 +3665,17 @@
         <v>46</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="60">
+        <v>340</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="60">
       <c r="A19" s="16"/>
       <c r="B19" s="39"/>
       <c r="C19" s="2" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D19" s="33" t="s">
         <v>149</v>
@@ -3601,8 +3684,11 @@
       <c r="G19" s="16" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="90">
+      <c r="J19" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="90">
       <c r="A20" s="16">
         <v>17</v>
       </c>
@@ -3610,993 +3696,1123 @@
         <v>152</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:8" ht="90">
+    <row r="21" spans="1:10" ht="105">
       <c r="A21" s="16">
         <v>18</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>153</v>
+        <v>325</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G21" s="16" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="C22" s="4" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="60">
+      <c r="J21" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="90">
+      <c r="C22" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="60">
       <c r="A23" s="16">
         <v>19</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G23" s="16" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="90">
+      <c r="J23" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="90">
       <c r="A24" s="16"/>
       <c r="C24" s="17" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="87" customHeight="1">
+        <v>323</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="87" customHeight="1">
       <c r="A25" s="16">
         <v>20</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>159</v>
+        <v>326</v>
       </c>
       <c r="D25" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="87" customHeight="1">
+      <c r="A26" s="16"/>
+      <c r="C26" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="60">
+      <c r="A27" s="16">
+        <v>21</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" spans="1:10" ht="60">
+      <c r="A28" s="16">
+        <v>22</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="60">
+      <c r="A29" s="16"/>
+      <c r="C29" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="75">
+      <c r="A30" s="16">
+        <v>23</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="D30" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="G25" s="16"/>
-    </row>
-    <row r="26" spans="1:8" ht="60">
-      <c r="A26" s="16">
-        <v>21</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D26" s="32" t="s">
+      <c r="F30" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G26" s="16"/>
-    </row>
-    <row r="27" spans="1:8" ht="60">
-      <c r="A27" s="16">
-        <v>22</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="G27" s="16"/>
-    </row>
-    <row r="28" spans="1:8" ht="75">
-      <c r="A28" s="16">
-        <v>23</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G28" s="16"/>
-    </row>
-    <row r="29" spans="1:8" ht="90">
-      <c r="A29" s="16">
+      <c r="G30" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="90">
+      <c r="A31" s="16">
         <v>24</v>
       </c>
-      <c r="C29" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="F29" s="2" t="s">
+      <c r="C31" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="I31" s="17"/>
+      <c r="J31" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="90">
+      <c r="A32" s="16"/>
+      <c r="C32" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="I32" s="17"/>
+      <c r="J32" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="75">
+      <c r="A33" s="16">
+        <v>25</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="G29" s="16"/>
-    </row>
-    <row r="30" spans="1:8" ht="75">
-      <c r="A30" s="16">
-        <v>25</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="32" t="s">
+      <c r="F33" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="120">
+      <c r="A34" s="16">
+        <v>26</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="135">
+      <c r="A35" s="16">
+        <v>27</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G35" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="120">
+      <c r="A36" s="16">
+        <v>28</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="90">
+      <c r="A37" s="16">
+        <v>29</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="G30" s="16"/>
-    </row>
-    <row r="31" spans="1:8" ht="120">
-      <c r="A31" s="16">
-        <v>26</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D31" s="32" t="s">
+      <c r="D37" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G31" s="16"/>
-    </row>
-    <row r="32" spans="1:8" ht="135">
-      <c r="A32" s="16">
-        <v>27</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D32" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G32" s="16"/>
-    </row>
-    <row r="33" spans="1:7" ht="120">
-      <c r="A33" s="16">
-        <v>28</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D33" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G33" s="16"/>
-    </row>
-    <row r="34" spans="1:7" ht="90">
-      <c r="A34" s="16">
-        <v>29</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D34" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="G34" s="16"/>
-    </row>
-    <row r="35" spans="1:7" ht="180">
-      <c r="A35" s="16"/>
-      <c r="C35" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G35" s="16"/>
-    </row>
-    <row r="36" spans="1:7" ht="105">
-      <c r="A36" s="16"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="33" t="s">
-        <v>248</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G36" s="16"/>
-    </row>
-    <row r="37" spans="1:7" ht="120">
-      <c r="A37" s="16"/>
-      <c r="C37" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D37" s="33" t="s">
-        <v>251</v>
-      </c>
       <c r="F37" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="G37" s="16"/>
-    </row>
-    <row r="38" spans="1:7" ht="30">
+        <v>238</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="180">
       <c r="A38" s="16"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="33" t="s">
-        <v>253</v>
+      <c r="C38" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G38" s="16"/>
-    </row>
-    <row r="39" spans="1:7" ht="180">
+        <v>341</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="105">
       <c r="A39" s="16"/>
       <c r="C39" s="2"/>
       <c r="D39" s="33" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G39" s="16"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="16">
+        <v>242</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="120">
+      <c r="A40" s="16"/>
+      <c r="C40" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30">
+      <c r="A41" s="16"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G41" s="16"/>
+    </row>
+    <row r="42" spans="1:7" ht="180">
+      <c r="A42" s="16"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="16">
         <v>30</v>
       </c>
-      <c r="D40" s="33" t="s">
+      <c r="D43" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="G40" s="16"/>
-    </row>
-    <row r="41" spans="1:7" ht="75">
-      <c r="A41" s="16">
-        <v>31</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D41" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="F41" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="G41" s="16"/>
-    </row>
-    <row r="42" spans="1:7" ht="75">
-      <c r="A42" s="16">
-        <v>32</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D42" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="F42" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="G42" s="16"/>
-    </row>
-    <row r="43" spans="1:7" ht="75">
-      <c r="A43" s="16">
-        <v>33</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D43" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F43" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="G43" s="16"/>
+      <c r="G43" s="16" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="44" spans="1:7" ht="75">
       <c r="A44" s="16">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F44" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="75">
+      <c r="A45" s="16">
+        <v>32</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G44" s="16"/>
-    </row>
-    <row r="45" spans="1:7" ht="90">
-      <c r="A45" s="16">
-        <v>35</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="E45" s="26"/>
-      <c r="F45" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="G45" s="16"/>
+      <c r="D45" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="46" spans="1:7" ht="75">
       <c r="A46" s="16">
+        <v>33</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="75">
+      <c r="A47" s="16">
+        <v>34</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="90">
+      <c r="A48" s="16">
+        <v>35</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="E48" s="26"/>
+      <c r="F48" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="G48" s="16"/>
+    </row>
+    <row r="49" spans="1:7" ht="75">
+      <c r="A49" s="16">
         <v>36</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="G46" s="16"/>
-    </row>
-    <row r="47" spans="1:7" ht="60">
-      <c r="A47" s="16">
+      <c r="D49" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="60">
+      <c r="A50" s="16">
         <v>37</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C50" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="75">
+      <c r="A51" s="16">
+        <v>38</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D51" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="D47" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G47" s="16"/>
-    </row>
-    <row r="48" spans="1:7" ht="75">
-      <c r="A48" s="16">
-        <v>38</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D48" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G48" s="16"/>
-    </row>
-    <row r="49" spans="1:7" ht="60">
-      <c r="A49" s="16">
-        <v>39</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="D49" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="G49" s="16"/>
-    </row>
-    <row r="50" spans="1:7" ht="75">
-      <c r="A50" s="16">
-        <v>40</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="D50" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="G50" s="16"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="16">
-        <v>41</v>
-      </c>
-      <c r="D51" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51" s="2"/>
+      <c r="F51" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="G51" s="16"/>
     </row>
     <row r="52" spans="1:7" ht="60">
       <c r="A52" s="16">
+        <v>39</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G52" s="16"/>
+    </row>
+    <row r="53" spans="1:7" ht="75">
+      <c r="A53" s="16">
+        <v>40</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="D53" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G53" s="16"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="16">
+        <v>41</v>
+      </c>
+      <c r="D54" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="16"/>
+    </row>
+    <row r="55" spans="1:7" ht="60">
+      <c r="A55" s="16">
         <v>42</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C55" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D55" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G55" s="16"/>
+    </row>
+    <row r="56" spans="1:7" ht="60">
+      <c r="A56" s="16">
+        <v>43</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D52" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="F52" s="2" t="s">
+      <c r="D56" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G56" s="16"/>
+    </row>
+    <row r="57" spans="1:7" ht="75">
+      <c r="A57" s="16">
+        <v>44</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D57" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="G52" s="16"/>
-    </row>
-    <row r="53" spans="1:7" ht="60">
-      <c r="A53" s="16">
-        <v>43</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D53" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G53" s="16"/>
-    </row>
-    <row r="54" spans="1:7" ht="75">
-      <c r="A54" s="16">
-        <v>44</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D54" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G54" s="16"/>
-    </row>
-    <row r="55" spans="1:7" ht="45">
-      <c r="A55" s="16">
+      <c r="F57" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G57" s="16"/>
+    </row>
+    <row r="58" spans="1:7" ht="45">
+      <c r="A58" s="16">
         <v>45</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C58" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="D58" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="D55" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G55" s="16"/>
-    </row>
-    <row r="56" spans="1:7" ht="75">
-      <c r="A56" s="16">
-        <v>46</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="D56" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G56" s="16"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="16">
-        <v>47</v>
-      </c>
-      <c r="D57" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="F57" s="2"/>
-      <c r="G57" s="16"/>
-    </row>
-    <row r="58" spans="1:7" ht="60">
-      <c r="A58" s="16">
-        <v>48</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" s="33" t="s">
-        <v>183</v>
-      </c>
       <c r="F58" s="2" t="s">
-        <v>184</v>
+        <v>227</v>
       </c>
       <c r="G58" s="16"/>
     </row>
     <row r="59" spans="1:7" ht="75">
       <c r="A59" s="16">
+        <v>46</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="D59" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G59" s="16"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="16">
+        <v>47</v>
+      </c>
+      <c r="D60" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" s="16"/>
+    </row>
+    <row r="61" spans="1:7" ht="60">
+      <c r="A61" s="16">
+        <v>48</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G61" s="16"/>
+    </row>
+    <row r="62" spans="1:7" ht="75">
+      <c r="A62" s="16">
         <v>49</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C62" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D62" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D59" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G59" s="16"/>
-    </row>
-    <row r="60" spans="1:7" ht="30">
-      <c r="A60" s="16">
-        <v>50</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D60" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="G60" s="16"/>
-    </row>
-    <row r="61" spans="1:7" ht="30">
-      <c r="A61" s="16">
-        <v>51</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D61" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="G61" s="16"/>
-    </row>
-    <row r="62" spans="1:7" ht="30">
-      <c r="A62" s="16">
-        <v>52</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D62" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="E62" s="2"/>
       <c r="G62" s="16"/>
     </row>
     <row r="63" spans="1:7" ht="30">
       <c r="A63" s="16">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E63" s="2"/>
       <c r="G63" s="16"/>
     </row>
     <row r="64" spans="1:7" ht="30">
       <c r="A64" s="16">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>273</v>
+        <v>72</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E64" s="2"/>
       <c r="G64" s="16"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" ht="30">
       <c r="A65" s="16">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="D65" s="33" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E65" s="2"/>
       <c r="G65" s="16"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" ht="30">
       <c r="A66" s="16">
-        <v>56</v>
-      </c>
-      <c r="D66" s="33"/>
+        <v>53</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D66" s="33" t="s">
+        <v>88</v>
+      </c>
       <c r="E66" s="2"/>
       <c r="G66" s="16"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" ht="30">
       <c r="A67" s="16">
+        <v>54</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D67" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="G67" s="16"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="16">
+        <v>55</v>
+      </c>
+      <c r="D68" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="G68" s="16"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="16">
+        <v>56</v>
+      </c>
+      <c r="D69" s="33"/>
+      <c r="E69" s="2"/>
+      <c r="G69" s="16"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="16">
         <v>57</v>
       </c>
-      <c r="D67" s="36" t="s">
+      <c r="D70" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="G67" s="16"/>
-    </row>
-    <row r="68" spans="1:7" ht="105">
-      <c r="A68" s="16">
+      <c r="G70" s="16"/>
+    </row>
+    <row r="71" spans="1:7" ht="105">
+      <c r="A71" s="16">
         <v>58</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D68" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="G68" s="16"/>
-    </row>
-    <row r="69" spans="1:7" ht="60">
-      <c r="A69" s="16">
+      <c r="D71" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="G71" s="16"/>
+    </row>
+    <row r="72" spans="1:7" ht="60">
+      <c r="A72" s="16">
         <v>59</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D69" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="G69" s="16"/>
-    </row>
-    <row r="70" spans="1:7" ht="30">
-      <c r="A70" s="16">
-        <v>60</v>
-      </c>
-      <c r="D70" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G70" s="16"/>
-    </row>
-    <row r="71" spans="1:7" ht="60">
-      <c r="A71" s="16">
-        <v>61</v>
-      </c>
-      <c r="D71" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="16"/>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="16">
-        <v>62</v>
-      </c>
       <c r="D72" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="G72" s="16"/>
     </row>
     <row r="73" spans="1:7" ht="30">
       <c r="A73" s="16">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D73" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F73" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="G73" s="16"/>
     </row>
     <row r="74" spans="1:7" ht="60">
       <c r="A74" s="16">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D74" s="33" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="16"/>
     </row>
-    <row r="75" spans="1:7" ht="120">
+    <row r="75" spans="1:7">
       <c r="A75" s="16">
-        <v>65</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>193</v>
+        <v>62</v>
       </c>
       <c r="D75" s="33" t="s">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="E75" s="2"/>
-      <c r="F75" s="2" t="s">
-        <v>194</v>
-      </c>
+      <c r="F75" s="2"/>
       <c r="G75" s="16"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" ht="30">
       <c r="A76" s="16">
-        <v>66</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="D76" s="33" t="s">
+        <v>85</v>
+      </c>
       <c r="F76" s="2"/>
       <c r="G76" s="16"/>
     </row>
     <row r="77" spans="1:7" ht="60">
       <c r="A77" s="16">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D77" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
       <c r="G77" s="16"/>
     </row>
-    <row r="78" spans="1:7" ht="60">
+    <row r="78" spans="1:7" ht="120">
       <c r="A78" s="16">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="D78" s="33" t="s">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G78" s="16"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="16">
+        <v>66</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="16"/>
+    </row>
+    <row r="80" spans="1:7" ht="60">
+      <c r="A80" s="16">
+        <v>67</v>
+      </c>
+      <c r="D80" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="G80" s="16"/>
+    </row>
+    <row r="81" spans="1:7" ht="60">
+      <c r="A81" s="16">
+        <v>68</v>
+      </c>
+      <c r="D81" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="G78" s="16"/>
-    </row>
-    <row r="79" spans="1:7" ht="30">
-      <c r="A79" s="16">
-        <v>69</v>
-      </c>
-      <c r="D79" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="G79" s="16"/>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="16">
-        <v>70</v>
-      </c>
-      <c r="D80" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="G80" s="16"/>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="16">
-        <v>71</v>
-      </c>
-      <c r="D81" s="36" t="s">
-        <v>100</v>
       </c>
       <c r="G81" s="16"/>
     </row>
     <row r="82" spans="1:7" ht="30">
       <c r="A82" s="16">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D82" s="33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G82" s="16"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="16">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D83" s="33" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G83" s="16"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="16">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D84" s="36" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G84" s="16"/>
     </row>
     <row r="85" spans="1:7" ht="30">
       <c r="A85" s="16">
+        <v>72</v>
+      </c>
+      <c r="D85" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="G85" s="16"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="16">
+        <v>73</v>
+      </c>
+      <c r="D86" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="G86" s="16"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="16">
+        <v>74</v>
+      </c>
+      <c r="D87" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="G87" s="16"/>
+    </row>
+    <row r="88" spans="1:7" ht="30">
+      <c r="A88" s="16">
         <v>75</v>
       </c>
-      <c r="D85" s="33" t="s">
+      <c r="D88" s="33" t="s">
         <v>102</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="G85" s="16"/>
-    </row>
-    <row r="86" spans="1:7" ht="30">
-      <c r="A86" s="16">
-        <v>76</v>
-      </c>
-      <c r="D86" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="G86" s="16"/>
-    </row>
-    <row r="87" spans="1:7" ht="45">
-      <c r="A87" s="16">
-        <v>77</v>
-      </c>
-      <c r="D87" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="G87" s="16"/>
-    </row>
-    <row r="88" spans="1:7" ht="45">
-      <c r="A88" s="16">
-        <v>78</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="33" t="s">
-        <v>107</v>
       </c>
       <c r="E88" s="2"/>
       <c r="G88" s="16"/>
     </row>
     <row r="89" spans="1:7" ht="30">
       <c r="A89" s="16">
-        <v>79</v>
-      </c>
-      <c r="C89" s="2"/>
+        <v>76</v>
+      </c>
       <c r="D89" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="E89" s="2"/>
+        <v>103</v>
+      </c>
       <c r="G89" s="16"/>
     </row>
-    <row r="90" spans="1:7" ht="60">
+    <row r="90" spans="1:7" ht="45">
       <c r="A90" s="16">
-        <v>80</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D90" s="36" t="s">
-        <v>111</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D90" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="E90" s="2"/>
       <c r="G90" s="16"/>
     </row>
     <row r="91" spans="1:7" ht="45">
       <c r="A91" s="16">
-        <v>81</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D91" s="36" t="s">
-        <v>196</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="E91" s="2"/>
       <c r="G91" s="16"/>
     </row>
-    <row r="92" spans="1:7" ht="60">
+    <row r="92" spans="1:7" ht="30">
       <c r="A92" s="16">
-        <v>82</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C92" s="2"/>
       <c r="D92" s="33" t="s">
-        <v>257</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E92" s="2"/>
       <c r="G92" s="16"/>
     </row>
     <row r="93" spans="1:7" ht="60">
       <c r="A93" s="16">
+        <v>80</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D93" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="G93" s="16"/>
+    </row>
+    <row r="94" spans="1:7" ht="45">
+      <c r="A94" s="16">
+        <v>81</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D94" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="G94" s="16"/>
+    </row>
+    <row r="95" spans="1:7" ht="60">
+      <c r="A95" s="16">
+        <v>82</v>
+      </c>
+      <c r="D95" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="G95" s="16"/>
+    </row>
+    <row r="96" spans="1:7" ht="60">
+      <c r="A96" s="16">
         <v>83</v>
       </c>
-      <c r="D93" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="G93" s="16"/>
-    </row>
-    <row r="94" spans="1:7" ht="60">
-      <c r="A94" s="16"/>
-      <c r="D94" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="G94" s="16"/>
-    </row>
-    <row r="95" spans="1:7" ht="90">
-      <c r="A95" s="16">
+      <c r="D96" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="G96" s="16"/>
+    </row>
+    <row r="97" spans="1:7" ht="60">
+      <c r="A97" s="16"/>
+      <c r="D97" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="G97" s="16"/>
+    </row>
+    <row r="98" spans="1:7" ht="90">
+      <c r="A98" s="16">
         <v>84</v>
       </c>
-      <c r="D95" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="G95" s="16"/>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="16">
-        <v>85</v>
-      </c>
-      <c r="D96" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="G96" s="16"/>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="16">
-        <v>86</v>
-      </c>
-      <c r="D97" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="G97" s="16"/>
-    </row>
-    <row r="98" spans="1:7" ht="30">
-      <c r="A98" s="16">
-        <v>87</v>
-      </c>
       <c r="D98" s="33" t="s">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="G98" s="16"/>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="16">
+        <v>85</v>
+      </c>
+      <c r="D99" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="G99" s="16"/>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="16">
+        <v>86</v>
+      </c>
+      <c r="D100" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="G100" s="16"/>
+    </row>
+    <row r="101" spans="1:7" ht="30">
+      <c r="A101" s="16">
+        <v>87</v>
+      </c>
+      <c r="D101" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="G101" s="16"/>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="16">
         <v>88</v>
       </c>
-      <c r="D99" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="G99" s="16"/>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="G100" s="16"/>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="G101" s="16"/>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="D102" s="36" t="s">
+        <v>211</v>
+      </c>
       <c r="G102" s="16"/>
     </row>
     <row r="103" spans="1:7">
@@ -4668,18 +4884,43 @@
     <row r="125" spans="7:7">
       <c r="G125" s="16"/>
     </row>
+    <row r="126" spans="7:7">
+      <c r="G126" s="16"/>
+    </row>
+    <row r="127" spans="7:7">
+      <c r="G127" s="16"/>
+    </row>
+    <row r="128" spans="7:7">
+      <c r="G128" s="16"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:I2"/>
-  <conditionalFormatting sqref="G3:G21 G23:G125">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <autoFilter ref="A2:L102"/>
+  <conditionalFormatting sqref="G3:G21 G23:G30 G32:G128">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G125">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G128">
       <formula1>"Pass, Fail, untestable"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4713,30 +4954,30 @@
   <sheetData>
     <row r="1" spans="1:18" ht="30">
       <c r="D1" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="24" customFormat="1">
       <c r="B2" s="24" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E2" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="H2" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>269</v>
-      </c>
       <c r="I2" s="24" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="60">
@@ -4747,22 +4988,22 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D3" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E3" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F3" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G3" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="60">
@@ -4773,22 +5014,22 @@
         <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D4" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E4" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F4" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="P4" s="28"/>
       <c r="Q4" s="28"/>
@@ -4802,22 +5043,22 @@
         <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D5" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E5" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F5" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G5" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="N5" s="3"/>
     </row>
@@ -4829,22 +5070,22 @@
         <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D6" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E6" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F6" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="N6" s="3"/>
       <c r="R6" s="40"/>
@@ -4857,22 +5098,22 @@
         <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="R7" s="40"/>
     </row>
@@ -4884,22 +5125,22 @@
         <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D8" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E8" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F8" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G8" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="N8" s="3"/>
       <c r="R8" s="40"/>
@@ -4912,22 +5153,22 @@
         <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D9" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E9" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F9" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G9" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="R9" s="40"/>
     </row>
@@ -4939,22 +5180,22 @@
         <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D10" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E10" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F10" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="N10" s="3"/>
       <c r="R10" s="40"/>
@@ -4967,22 +5208,22 @@
         <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D11" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E11" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F11" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G11" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="R11" s="40"/>
     </row>
@@ -4991,25 +5232,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C12" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D12" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E12" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F12" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="N12" s="3"/>
       <c r="R12" s="40"/>
@@ -5019,25 +5260,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C13" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D13" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E13" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F13" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="R13" s="40"/>
     </row>
@@ -5046,22 +5287,22 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E14" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F14" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G14" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="N14" s="3"/>
       <c r="R14" s="40"/>
@@ -5071,25 +5312,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C15" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D15" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E15" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="R15" s="40"/>
     </row>
@@ -5098,25 +5339,25 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C16" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D16" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E16" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F16" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G16" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="N16" s="3"/>
       <c r="R16" s="40"/>
@@ -5126,25 +5367,25 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C17" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D17" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E17" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F17" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G17" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="R17" s="40"/>
     </row>
@@ -5153,25 +5394,25 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C18" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D18" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E18" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F18" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G18" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="N18" s="3"/>
       <c r="R18" s="40"/>
@@ -5181,28 +5422,28 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D19" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E19" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F19" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="J19" s="29" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="R19" s="40"/>
     </row>
@@ -5211,28 +5452,28 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D20" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E20" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F20" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="J20" s="29" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="N20" s="3"/>
       <c r="R20" s="37"/>
@@ -5242,25 +5483,25 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D21" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E21" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F21" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="N21" s="3"/>
       <c r="R21" s="40"/>
@@ -5270,28 +5511,28 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D22" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E22" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F22" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I22" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J22" s="29" t="s">
         <v>286</v>
-      </c>
-      <c r="J22" s="29" t="s">
-        <v>293</v>
       </c>
       <c r="R22" s="40"/>
     </row>
@@ -5300,28 +5541,28 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D23" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E23" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F23" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H23" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="J23" s="29" t="s">
         <v>285</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="J23" s="29" t="s">
-        <v>292</v>
       </c>
       <c r="N23" s="3"/>
       <c r="R23" s="40"/>
@@ -5331,28 +5572,28 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D24" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E24" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F24" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H24" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="J24" s="29" t="s">
         <v>285</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="J24" s="29" t="s">
-        <v>292</v>
       </c>
       <c r="R24" s="40"/>
     </row>
@@ -5361,25 +5602,25 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D25" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E25" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F25" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I25" s="38" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="N25" s="3"/>
       <c r="R25" s="40"/>
@@ -5389,25 +5630,25 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D26" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E26" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F26" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="I26" s="38" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="R26" s="40"/>
     </row>
@@ -5416,25 +5657,25 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D27" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E27" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F27" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="I27" s="38" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N27" s="3"/>
       <c r="R27" s="40"/>
@@ -5444,25 +5685,25 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D28" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E28" t="s">
+        <v>291</v>
+      </c>
+      <c r="F28" t="s">
+        <v>258</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="I28" s="38" t="s">
         <v>298</v>
-      </c>
-      <c r="F28" t="s">
-        <v>265</v>
-      </c>
-      <c r="G28" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="H28" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="I28" s="38" t="s">
-        <v>305</v>
       </c>
       <c r="R28" s="40"/>
     </row>
@@ -5471,25 +5712,25 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D29" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E29" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F29" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I29" s="38" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="N29" s="3"/>
       <c r="R29" s="40"/>
@@ -5499,28 +5740,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C30" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D30" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E30" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F30" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I30" s="38" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="R30" s="40"/>
     </row>
@@ -5529,28 +5770,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C31" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D31" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E31" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F31" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I31" s="38" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="N31" s="3"/>
       <c r="R31" s="40"/>
@@ -5560,28 +5801,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C32" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D32" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E32" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F32" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I32" s="38" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="R32" s="40"/>
     </row>
@@ -5590,28 +5831,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C33" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D33" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E33" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F33" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I33" s="38" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="N33" s="3"/>
       <c r="R33" s="40"/>
@@ -5621,28 +5862,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C34" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D34" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E34" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F34" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I34" s="38" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="R34" s="40"/>
     </row>
@@ -5651,28 +5892,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C35" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D35" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E35" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F35" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H35" s="29" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I35" s="38" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="N35" s="3"/>
       <c r="R35" s="40"/>
@@ -5682,28 +5923,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>300</v>
+      </c>
+      <c r="C36" t="s">
+        <v>302</v>
+      </c>
+      <c r="D36" t="s">
+        <v>259</v>
+      </c>
+      <c r="E36" t="s">
+        <v>260</v>
+      </c>
+      <c r="F36" t="s">
+        <v>259</v>
+      </c>
+      <c r="G36" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H36" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="I36" s="38" t="s">
         <v>307</v>
-      </c>
-      <c r="C36" t="s">
-        <v>309</v>
-      </c>
-      <c r="D36" t="s">
-        <v>266</v>
-      </c>
-      <c r="E36" t="s">
-        <v>267</v>
-      </c>
-      <c r="F36" t="s">
-        <v>266</v>
-      </c>
-      <c r="G36" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="H36" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="I36" s="38" t="s">
-        <v>314</v>
       </c>
       <c r="R36" s="40"/>
     </row>
@@ -5712,28 +5953,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C37" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D37" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E37" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F37" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H37" s="29" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="I37" s="38" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -5741,28 +5982,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C38" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D38" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E38" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F38" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H38" s="29" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="I38" s="38" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -5775,28 +6016,28 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C40" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D40" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E40" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F40" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H40" s="29" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I40" s="38" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -5804,28 +6045,28 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C41" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D41" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E41" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F41" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G41" s="29" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H41" s="29" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I41" s="38" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -5833,28 +6074,28 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C42" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D42" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E42" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F42" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H42" s="29" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I42" s="38" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -5862,28 +6103,28 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C43" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D43" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E43" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F43" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H43" s="29" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I43" s="38" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -5906,28 +6147,28 @@
         <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C47" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D47" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E47" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F47" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H47" s="29" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I47" s="38" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -5935,28 +6176,28 @@
         <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C48" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D48" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E48" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F48" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="I48" s="38" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -5964,28 +6205,28 @@
         <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C49" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D49" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E49" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F49" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G49" s="29" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H49" s="29" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="I49" s="38" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -5993,28 +6234,28 @@
         <v>44</v>
       </c>
       <c r="B50" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C50" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D50" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E50" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F50" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G50" s="29" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H50" s="29" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I50" s="38" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -6022,32 +6263,37 @@
         <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C51" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D51" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E51" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F51" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G51" s="29" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H51" s="29" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="I51" s="38" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="R14:R15"/>
     <mergeCell ref="R16:R17"/>
     <mergeCell ref="R18:R19"/>
     <mergeCell ref="R31:R32"/>
@@ -6058,11 +6304,6 @@
     <mergeCell ref="R25:R26"/>
     <mergeCell ref="R27:R28"/>
     <mergeCell ref="R29:R30"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="R14:R15"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E51">

--- a/MMS/Test Cases/Monitor app/Performance tests-18apr2015.xlsx
+++ b/MMS/Test Cases/Monitor app/Performance tests-18apr2015.xlsx
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="348">
   <si>
     <t>time for upload</t>
   </si>
@@ -395,9 +395,6 @@
     <t>timeout after 2 min</t>
   </si>
   <si>
-    <t>try uploading the images in the captured folder, while uploading go tosettings,&gt;storage settings&gt;clear the captured datareturn back to dashboard, the uploader runs for few secs and stops without an error message</t>
-  </si>
-  <si>
     <t>Scan valid QR codes</t>
   </si>
   <si>
@@ -491,12 +488,6 @@
   </si>
   <si>
     <t>Link as many medias as possible and check in uploaded folder (dashboard) and in monitor inbox</t>
-  </si>
-  <si>
-    <t>login wth buyer account</t>
-  </si>
-  <si>
-    <t>login withseller account</t>
   </si>
   <si>
     <t>check whether deactivated medias get identified</t>
@@ -820,14 +811,6 @@
 3. The link monitor screen appears displaying the media
 4. Do not check any media (for manually identifying-uncheck the selectedmedia)
 5. Select Upload</t>
-  </si>
-  <si>
-    <t>1. Capture images
-2. Identify media to link/ proceed without linking
-3. Let the data connection be disabled
-4. select upload so that the monitor sits in captured folderin dashboard
-5. Do the above steps for 70-100 monitors (will be in captured folder)
-6. With data connection enabled, press upload button on dashboard</t>
   </si>
   <si>
     <t>Uploading large number of monitor's at once</t>
@@ -930,14 +913,6 @@
     <t>Delete the account folder in the phone and check the app functionality</t>
   </si>
   <si>
-    <t>Login as one user, capture upload, logout
-Login as second user captureupload, logout
-In the app folder in the phone, separate folders for different accounts must be created</t>
-  </si>
-  <si>
-    <t>replace the imagein the account folder with another image with same name and check</t>
-  </si>
-  <si>
     <t>capture in landscape mode</t>
   </si>
   <si>
@@ -1045,12 +1020,6 @@
 2. Click 'Identify media to link' button
 3. Select 'Manual' option 
 4. Enter other accounts (valid) media ID in the input field</t>
-  </si>
-  <si>
-    <t>1. Enter invalid Id and valid pasword
-2. Enter valid ID and invalid password
-3. Enter only characters / numbers
-4. Enter valid ID of one account and valid password of an another account</t>
   </si>
   <si>
     <t>1. Enter valid ID and corresponding Password</t>
@@ -1118,11 +1087,6 @@
   </si>
   <si>
     <t>linked media must be retrieved and displayed in the link monitor</t>
-  </si>
-  <si>
-    <t>Login as one user, capture upload, logout
-Login as second user captureupload, logout
-dashboard count in both the account should not interchange on logging in</t>
   </si>
   <si>
     <t>Login as one user&gt; capture&gt; upload&gt; logout
@@ -1438,12 +1402,66 @@
     <t>The application not going to the Linked to the monitor screen when clciking on Proceed</t>
   </si>
   <si>
-    <t>NOTE: In Previous Version manual  loading of the medias are working.
-Unable to connect server please try again later msg is displayed and if the img cache will be there its loading.</t>
-  </si>
-  <si>
     <t>Medias which are already linked to a QRcode must not be retrieved to the link monitor screen.
 Only unlinked medias (with default QRcode value '0' ) must be retrieved into the link monitor screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"unable to connect server , please try again later" message is displayed. </t>
+  </si>
+  <si>
+    <t>No Internet Detected. Proceed without validating the media media should display.</t>
+  </si>
+  <si>
+    <t>The enetered media Id with the Linked monitor should uploaded</t>
+  </si>
+  <si>
+    <t>With Cache it is uploaded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For a valid media Id it should be upload </t>
+  </si>
+  <si>
+    <t>try uploading the images in the captured folder, while uploading go to settings,&gt;storage settings&gt;clear the captured data return back to dashboard, the uploader runs for few secs and stops without an error message</t>
+  </si>
+  <si>
+    <t>1. Capture images
+2. Identify media to link/ proceed without linking
+3. Let the data connection be disabled
+4. select upload so that the monitor sits in captured folder in dashboard
+5. Do the above steps for 70-100 monitors (will be in captured folder)
+6. With data connection enabled, press upload button on dashboard</t>
+  </si>
+  <si>
+    <t>Login as one user, capture upload, logout
+Login as second user capture upload, logout
+dashboard count in both the account should not interchange on logging in</t>
+  </si>
+  <si>
+    <t>Login as one user, capture upload, logout
+Login as second user capture upload, logout
+In the app folder in the phone, separate folders for different accounts must be created</t>
+  </si>
+  <si>
+    <t>replace the image in the account folder with another image with same name and check</t>
+  </si>
+  <si>
+    <t>1. Enter invalid Id and valid password
+2. Enter valid ID and invalid password
+3. Enter only characters / numbers
+4. Enter valid ID of one account and valid password of an another account</t>
+  </si>
+  <si>
+    <t>login with buyer account</t>
+  </si>
+  <si>
+    <t>login with seller account</t>
+  </si>
+  <si>
+    <t>NOTE: In Previous Version manual  loading of the medias are working.
+Unable to connect server please try again later msg is displayed and if the image cache will be there its loading.</t>
+  </si>
+  <si>
+    <t>untestable</t>
   </si>
 </sst>
 </file>
@@ -3378,8 +3396,8 @@
   <dimension ref="A2:L128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3398,40 +3416,40 @@
   <sheetData>
     <row r="2" spans="1:12" s="23" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>126</v>
-      </c>
       <c r="J2" s="22" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="16" customFormat="1">
@@ -3439,10 +3457,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>43</v>
@@ -3453,12 +3471,12 @@
         <v>2</v>
       </c>
       <c r="C4" s="17"/>
-      <c r="D4" s="32" t="s">
-        <v>236</v>
+      <c r="D4" s="17" t="s">
+        <v>343</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="17" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="16" customFormat="1" ht="60">
@@ -3466,14 +3484,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="16" customFormat="1" ht="30">
@@ -3481,11 +3499,11 @@
         <v>4</v>
       </c>
       <c r="C6" s="17"/>
-      <c r="D6" s="31" t="s">
-        <v>109</v>
+      <c r="D6" s="16" t="s">
+        <v>344</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="16" customFormat="1" ht="30">
@@ -3493,11 +3511,11 @@
         <v>5</v>
       </c>
       <c r="C7" s="17"/>
-      <c r="D7" s="31" t="s">
-        <v>110</v>
+      <c r="D7" s="16" t="s">
+        <v>345</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="16" customFormat="1" ht="30">
@@ -3505,13 +3523,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30">
@@ -3519,13 +3537,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G9" s="16"/>
     </row>
@@ -3535,10 +3553,10 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="33" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G10" s="16"/>
     </row>
@@ -3547,13 +3565,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G11" s="16"/>
     </row>
@@ -3565,10 +3583,10 @@
         <v>13</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G12" s="16"/>
     </row>
@@ -3577,13 +3595,13 @@
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G13" s="16"/>
     </row>
@@ -3592,13 +3610,13 @@
         <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G14" s="16"/>
     </row>
@@ -3607,13 +3625,13 @@
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G15" s="16"/>
     </row>
@@ -3622,13 +3640,13 @@
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="G16" s="16"/>
     </row>
@@ -3637,13 +3655,13 @@
         <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="G17" s="16"/>
     </row>
@@ -3653,39 +3671,39 @@
       </c>
       <c r="B18" s="39"/>
       <c r="C18" s="2" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G18" s="16" t="s">
         <v>46</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="60">
       <c r="A19" s="16"/>
       <c r="B19" s="39"/>
       <c r="C19" s="2" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="16" t="s">
         <v>46</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="90">
@@ -3693,13 +3711,13 @@
         <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G20" s="16"/>
     </row>
@@ -3708,32 +3726,32 @@
         <v>18</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G21" s="16" t="s">
         <v>43</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="90">
       <c r="C22" s="17" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="17" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G22" s="16" t="s">
         <v>43</v>
@@ -3741,7 +3759,7 @@
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
       <c r="J22" s="4" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="60">
@@ -3749,40 +3767,40 @@
         <v>19</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G23" s="16" t="s">
         <v>43</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="90">
       <c r="A24" s="16"/>
       <c r="C24" s="17" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G24" s="16" t="s">
         <v>43</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="87" customHeight="1">
@@ -3790,37 +3808,37 @@
         <v>20</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>43</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="87" customHeight="1">
       <c r="A26" s="16"/>
       <c r="C26" s="2" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G26" s="16" t="s">
         <v>43</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="60">
@@ -3828,13 +3846,13 @@
         <v>21</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G27" s="16"/>
     </row>
@@ -3843,39 +3861,39 @@
         <v>22</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="17" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G28" s="16" t="s">
         <v>43</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="60">
       <c r="A29" s="16"/>
       <c r="C29" s="17" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="17" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G29" s="16" t="s">
         <v>43</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="75">
@@ -3883,19 +3901,19 @@
         <v>23</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G30" s="16" t="s">
         <v>43</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="90">
@@ -3903,45 +3921,45 @@
         <v>24</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G31" s="16" t="s">
         <v>46</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="I31" s="17"/>
       <c r="J31" s="4" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="90">
       <c r="A32" s="16"/>
       <c r="C32" s="17" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G32" s="16" t="s">
         <v>46</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="I32" s="17"/>
       <c r="J32" s="4" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="75">
@@ -3949,13 +3967,13 @@
         <v>25</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G33" s="16" t="s">
         <v>43</v>
@@ -3966,13 +3984,13 @@
         <v>26</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G34" s="16" t="s">
         <v>43</v>
@@ -3983,13 +4001,13 @@
         <v>27</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G35" s="16" t="s">
         <v>43</v>
@@ -4000,13 +4018,13 @@
         <v>28</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G36" s="16" t="s">
         <v>43</v>
@@ -4017,13 +4035,13 @@
         <v>29</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G37" s="16" t="s">
         <v>43</v>
@@ -4032,13 +4050,13 @@
     <row r="38" spans="1:7" ht="180">
       <c r="A38" s="16"/>
       <c r="C38" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="G38" s="16" t="s">
         <v>43</v>
@@ -4048,10 +4066,10 @@
       <c r="A39" s="16"/>
       <c r="C39" s="2"/>
       <c r="D39" s="33" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G39" s="16" t="s">
         <v>43</v>
@@ -4060,13 +4078,13 @@
     <row r="40" spans="1:7" ht="120">
       <c r="A40" s="16"/>
       <c r="C40" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D40" s="33" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="G40" s="16" t="s">
         <v>46</v>
@@ -4076,10 +4094,10 @@
       <c r="A41" s="16"/>
       <c r="C41" s="2"/>
       <c r="D41" s="33" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="G41" s="16"/>
     </row>
@@ -4087,10 +4105,10 @@
       <c r="A42" s="16"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="G42" s="16" t="s">
         <v>43</v>
@@ -4101,7 +4119,7 @@
         <v>30</v>
       </c>
       <c r="D43" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G43" s="16" t="s">
         <v>43</v>
@@ -4112,13 +4130,13 @@
         <v>31</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D44" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="D44" s="33" t="s">
-        <v>170</v>
-      </c>
       <c r="F44" s="20" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G44" s="16" t="s">
         <v>43</v>
@@ -4129,13 +4147,13 @@
         <v>32</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G45" s="16" t="s">
         <v>43</v>
@@ -4146,13 +4164,13 @@
         <v>33</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D46" s="33" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G46" s="16" t="s">
         <v>43</v>
@@ -4163,13 +4181,13 @@
         <v>34</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G47" s="16" t="s">
         <v>43</v>
@@ -4183,15 +4201,17 @@
         <v>14</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E48" s="26"/>
       <c r="F48" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="G48" s="16"/>
-    </row>
-    <row r="49" spans="1:7" ht="75">
+        <v>174</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="75">
       <c r="A49" s="16">
         <v>36</v>
       </c>
@@ -4199,75 +4219,81 @@
         <v>11</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G49" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="60">
+    <row r="50" spans="1:9" ht="60">
       <c r="A50" s="16">
         <v>37</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G50" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="75">
+    <row r="51" spans="1:9" ht="75">
       <c r="A51" s="16">
         <v>38</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D51" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="D51" s="33" t="s">
-        <v>220</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G51" s="16"/>
-    </row>
-    <row r="52" spans="1:7" ht="60">
+        <v>207</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="60">
       <c r="A52" s="16">
         <v>39</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D52" s="33" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G52" s="16"/>
-    </row>
-    <row r="53" spans="1:7" ht="75">
+        <v>209</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="75">
       <c r="A53" s="16">
         <v>40</v>
       </c>
       <c r="C53" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="D53" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="D53" s="33" t="s">
-        <v>222</v>
-      </c>
       <c r="F53" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G53" s="16"/>
-    </row>
-    <row r="54" spans="1:7">
+        <v>209</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="16">
         <v>41</v>
       </c>
@@ -4275,84 +4301,93 @@
         <v>15</v>
       </c>
       <c r="F54" s="2"/>
-      <c r="G54" s="16"/>
-    </row>
-    <row r="55" spans="1:7" ht="60">
+    </row>
+    <row r="55" spans="1:9" ht="60">
       <c r="A55" s="16">
         <v>42</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="G55" s="16"/>
-    </row>
-    <row r="56" spans="1:7" ht="60">
+        <v>219</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="60">
       <c r="A56" s="16">
         <v>43</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D56" s="33" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="G56" s="16"/>
-    </row>
-    <row r="57" spans="1:7" ht="75">
+        <v>218</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="75">
       <c r="A57" s="16">
         <v>44</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="G57" s="16"/>
-    </row>
-    <row r="58" spans="1:7" ht="45">
+        <v>218</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="45">
       <c r="A58" s="16">
         <v>45</v>
       </c>
       <c r="C58" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="D58" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="D58" s="33" t="s">
-        <v>232</v>
-      </c>
       <c r="F58" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="G58" s="16"/>
-    </row>
-    <row r="59" spans="1:7" ht="75">
+        <v>221</v>
+      </c>
+      <c r="G58" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="75">
       <c r="A59" s="16">
         <v>46</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="G59" s="16"/>
-    </row>
-    <row r="60" spans="1:7">
+        <v>223</v>
+      </c>
+      <c r="G59" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="16">
         <v>47</v>
       </c>
@@ -4362,7 +4397,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="16"/>
     </row>
-    <row r="61" spans="1:7" ht="60">
+    <row r="61" spans="1:9" ht="60">
       <c r="A61" s="16">
         <v>48</v>
       </c>
@@ -4370,42 +4405,48 @@
         <v>17</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G61" s="16"/>
     </row>
-    <row r="62" spans="1:7" ht="75">
+    <row r="62" spans="1:9" ht="75">
       <c r="A62" s="16">
         <v>49</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D62" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="D62" s="33" t="s">
-        <v>181</v>
-      </c>
       <c r="F62" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G62" s="16"/>
     </row>
-    <row r="63" spans="1:7" ht="30">
+    <row r="63" spans="1:9" ht="60">
       <c r="A63" s="16">
         <v>50</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E63" s="2"/>
-      <c r="G63" s="16"/>
-    </row>
-    <row r="64" spans="1:7" ht="30">
+      <c r="G63" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H63" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="I63" s="20"/>
+    </row>
+    <row r="64" spans="1:9" ht="45">
       <c r="A64" s="16">
         <v>51</v>
       </c>
@@ -4413,61 +4454,82 @@
         <v>72</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E64" s="2"/>
-      <c r="G64" s="16"/>
-    </row>
-    <row r="65" spans="1:7" ht="30">
+      <c r="F64" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="30">
       <c r="A65" s="16">
         <v>52</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D65" s="33" t="s">
-        <v>87</v>
+        <v>258</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="E65" s="2"/>
-      <c r="G65" s="16"/>
-    </row>
-    <row r="66" spans="1:7" ht="30">
+      <c r="F65" s="2"/>
+      <c r="G65" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="30">
       <c r="A66" s="16">
         <v>53</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E66" s="2"/>
-      <c r="G66" s="16"/>
-    </row>
-    <row r="67" spans="1:7" ht="30">
+      <c r="F66" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="30">
       <c r="A67" s="16">
         <v>54</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D67" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E67" s="2"/>
-      <c r="G67" s="16"/>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="F67" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="16">
         <v>55</v>
       </c>
       <c r="D68" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E68" s="2"/>
       <c r="G68" s="16"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:8">
       <c r="A69" s="16">
         <v>56</v>
       </c>
@@ -4475,7 +4537,7 @@
       <c r="E69" s="2"/>
       <c r="G69" s="16"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:8">
       <c r="A70" s="16">
         <v>57</v>
       </c>
@@ -4484,7 +4546,7 @@
       </c>
       <c r="G70" s="16"/>
     </row>
-    <row r="71" spans="1:7" ht="105">
+    <row r="71" spans="1:8" ht="105">
       <c r="A71" s="16">
         <v>58</v>
       </c>
@@ -4492,11 +4554,11 @@
         <v>8</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G71" s="16"/>
     </row>
-    <row r="72" spans="1:7" ht="60">
+    <row r="72" spans="1:8" ht="60">
       <c r="A72" s="16">
         <v>59</v>
       </c>
@@ -4504,14 +4566,16 @@
         <v>44</v>
       </c>
       <c r="D72" s="33" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="G72" s="16"/>
-    </row>
-    <row r="73" spans="1:7" ht="30">
+        <v>181</v>
+      </c>
+      <c r="G72" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="30">
       <c r="A73" s="16">
         <v>60</v>
       </c>
@@ -4522,68 +4586,74 @@
       <c r="F73" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G73" s="16"/>
-    </row>
-    <row r="74" spans="1:7" ht="60">
+      <c r="G73" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="60">
       <c r="A74" s="16">
         <v>61</v>
       </c>
-      <c r="D74" s="33" t="s">
-        <v>81</v>
+      <c r="D74" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="16"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:8">
       <c r="A75" s="16">
         <v>62</v>
       </c>
       <c r="D75" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
-      <c r="G75" s="16"/>
-    </row>
-    <row r="76" spans="1:7" ht="30">
+      <c r="G75" s="16" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="30">
       <c r="A76" s="16">
         <v>63</v>
       </c>
       <c r="D76" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F76" s="2"/>
-      <c r="G76" s="16"/>
-    </row>
-    <row r="77" spans="1:7" ht="60">
+      <c r="G76" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="60">
       <c r="A77" s="16">
         <v>64</v>
       </c>
       <c r="D77" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="16"/>
     </row>
-    <row r="78" spans="1:7" ht="120">
+    <row r="78" spans="1:8" ht="120">
       <c r="A78" s="16">
         <v>65</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D78" s="33" t="s">
-        <v>186</v>
+        <v>183</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G78" s="16"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:8">
       <c r="A79" s="16">
         <v>66</v>
       </c>
@@ -4593,12 +4663,12 @@
       <c r="F79" s="2"/>
       <c r="G79" s="16"/>
     </row>
-    <row r="80" spans="1:7" ht="60">
+    <row r="80" spans="1:8" ht="60">
       <c r="A80" s="16">
         <v>67</v>
       </c>
       <c r="D80" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E80" s="2"/>
       <c r="G80" s="16"/>
@@ -4608,11 +4678,11 @@
         <v>68</v>
       </c>
       <c r="D81" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G81" s="16"/>
     </row>
@@ -4621,7 +4691,7 @@
         <v>69</v>
       </c>
       <c r="D82" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G82" s="16"/>
     </row>
@@ -4630,7 +4700,7 @@
         <v>70</v>
       </c>
       <c r="D83" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G83" s="16"/>
     </row>
@@ -4639,7 +4709,7 @@
         <v>71</v>
       </c>
       <c r="D84" s="36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G84" s="16"/>
     </row>
@@ -4648,7 +4718,7 @@
         <v>72</v>
       </c>
       <c r="D85" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G85" s="16"/>
     </row>
@@ -4657,7 +4727,7 @@
         <v>73</v>
       </c>
       <c r="D86" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G86" s="16"/>
     </row>
@@ -4666,7 +4736,7 @@
         <v>74</v>
       </c>
       <c r="D87" s="36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G87" s="16"/>
     </row>
@@ -4675,7 +4745,7 @@
         <v>75</v>
       </c>
       <c r="D88" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E88" s="2"/>
       <c r="G88" s="16"/>
@@ -4685,7 +4755,7 @@
         <v>76</v>
       </c>
       <c r="D89" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G89" s="16"/>
     </row>
@@ -4694,7 +4764,7 @@
         <v>77</v>
       </c>
       <c r="D90" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E90" s="2"/>
       <c r="G90" s="16"/>
@@ -4705,7 +4775,7 @@
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E91" s="2"/>
       <c r="G91" s="16"/>
@@ -4716,7 +4786,7 @@
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E92" s="2"/>
       <c r="G92" s="16"/>
@@ -4726,10 +4796,10 @@
         <v>80</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D93" s="36" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G93" s="16"/>
     </row>
@@ -4738,10 +4808,10 @@
         <v>81</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D94" s="36" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G94" s="16"/>
     </row>
@@ -4749,8 +4819,8 @@
       <c r="A95" s="16">
         <v>82</v>
       </c>
-      <c r="D95" s="33" t="s">
-        <v>250</v>
+      <c r="D95" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="G95" s="16"/>
     </row>
@@ -4758,15 +4828,15 @@
       <c r="A96" s="16">
         <v>83</v>
       </c>
-      <c r="D96" s="33" t="s">
-        <v>209</v>
+      <c r="D96" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="G96" s="16"/>
     </row>
     <row r="97" spans="1:7" ht="60">
       <c r="A97" s="16"/>
       <c r="D97" s="33" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="G97" s="16"/>
     </row>
@@ -4775,7 +4845,7 @@
         <v>84</v>
       </c>
       <c r="D98" s="33" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="G98" s="16"/>
     </row>
@@ -4784,7 +4854,7 @@
         <v>85</v>
       </c>
       <c r="D99" s="36" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G99" s="16"/>
     </row>
@@ -4793,7 +4863,7 @@
         <v>86</v>
       </c>
       <c r="D100" s="36" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G100" s="16"/>
     </row>
@@ -4801,8 +4871,8 @@
       <c r="A101" s="16">
         <v>87</v>
       </c>
-      <c r="D101" s="33" t="s">
-        <v>210</v>
+      <c r="D101" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="G101" s="16"/>
     </row>
@@ -4811,7 +4881,7 @@
         <v>88</v>
       </c>
       <c r="D102" s="36" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G102" s="16"/>
     </row>
@@ -4895,32 +4965,40 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:L102"/>
-  <conditionalFormatting sqref="G3:G21 G23:G30 G32:G128">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+  <conditionalFormatting sqref="G3:G21 G23:G30 G32:G53 G55:G62 G64:G128">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G63">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G128">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G53 G55:G128">
       <formula1>"Pass, Fail, untestable"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4954,30 +5032,30 @@
   <sheetData>
     <row r="1" spans="1:18" ht="30">
       <c r="D1" s="6" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="24" customFormat="1">
       <c r="B2" s="24" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D2" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="I2" s="24" t="s">
         <v>253</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="60">
@@ -4988,22 +5066,22 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D3" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E3" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G3" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="60">
@@ -5014,22 +5092,22 @@
         <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D4" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E4" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F4" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="P4" s="28"/>
       <c r="Q4" s="28"/>
@@ -5043,22 +5121,22 @@
         <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D5" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E5" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F5" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G5" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="N5" s="3"/>
     </row>
@@ -5070,22 +5148,22 @@
         <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D6" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E6" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F6" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="N6" s="3"/>
       <c r="R6" s="40"/>
@@ -5098,22 +5176,22 @@
         <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="R7" s="40"/>
     </row>
@@ -5125,22 +5203,22 @@
         <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D8" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E8" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F8" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G8" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="N8" s="3"/>
       <c r="R8" s="40"/>
@@ -5153,22 +5231,22 @@
         <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D9" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E9" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F9" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G9" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="R9" s="40"/>
     </row>
@@ -5180,22 +5258,22 @@
         <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D10" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E10" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F10" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="N10" s="3"/>
       <c r="R10" s="40"/>
@@ -5208,22 +5286,22 @@
         <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D11" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E11" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F11" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G11" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="R11" s="40"/>
     </row>
@@ -5232,25 +5310,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C12" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D12" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E12" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F12" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="N12" s="3"/>
       <c r="R12" s="40"/>
@@ -5260,25 +5338,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C13" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D13" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E13" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F13" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="R13" s="40"/>
     </row>
@@ -5287,22 +5365,22 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D14" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E14" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F14" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G14" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="N14" s="3"/>
       <c r="R14" s="40"/>
@@ -5312,25 +5390,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C15" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D15" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E15" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F15" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="R15" s="40"/>
     </row>
@@ -5339,25 +5417,25 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C16" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D16" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E16" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F16" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G16" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="N16" s="3"/>
       <c r="R16" s="40"/>
@@ -5367,25 +5445,25 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C17" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D17" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E17" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F17" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G17" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="R17" s="40"/>
     </row>
@@ -5394,25 +5472,25 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C18" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D18" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E18" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F18" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G18" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="N18" s="3"/>
       <c r="R18" s="40"/>
@@ -5422,28 +5500,28 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
+        <v>261</v>
+      </c>
+      <c r="D19" t="s">
+        <v>251</v>
+      </c>
+      <c r="E19" t="s">
+        <v>283</v>
+      </c>
+      <c r="F19" t="s">
+        <v>250</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="H19" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="D19" t="s">
-        <v>259</v>
-      </c>
-      <c r="E19" t="s">
-        <v>291</v>
-      </c>
-      <c r="F19" t="s">
-        <v>258</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>259</v>
-      </c>
-      <c r="H19" s="29" t="s">
+      <c r="I19" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="J19" s="29" t="s">
         <v>277</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="J19" s="29" t="s">
-        <v>285</v>
       </c>
       <c r="R19" s="40"/>
     </row>
@@ -5452,28 +5530,28 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D20" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E20" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F20" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H20" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J20" s="29" t="s">
         <v>278</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="J20" s="29" t="s">
-        <v>286</v>
       </c>
       <c r="N20" s="3"/>
       <c r="R20" s="37"/>
@@ -5483,25 +5561,25 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D21" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E21" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="F21" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="N21" s="3"/>
       <c r="R21" s="40"/>
@@ -5511,28 +5589,28 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D22" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E22" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F22" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="R22" s="40"/>
     </row>
@@ -5541,28 +5619,28 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D23" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E23" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F23" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="J23" s="29" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="N23" s="3"/>
       <c r="R23" s="40"/>
@@ -5572,28 +5650,28 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D24" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E24" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="F24" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="J24" s="29" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="R24" s="40"/>
     </row>
@@ -5602,25 +5680,25 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D25" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E25" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F25" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="I25" s="38" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="N25" s="3"/>
       <c r="R25" s="40"/>
@@ -5630,25 +5708,25 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D26" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E26" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F26" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="I26" s="38" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="R26" s="40"/>
     </row>
@@ -5657,25 +5735,25 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D27" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E27" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F27" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="I27" s="38" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="N27" s="3"/>
       <c r="R27" s="40"/>
@@ -5685,25 +5763,25 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D28" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E28" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F28" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="I28" s="38" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="R28" s="40"/>
     </row>
@@ -5712,25 +5790,25 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D29" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E29" t="s">
+        <v>283</v>
+      </c>
+      <c r="F29" t="s">
+        <v>250</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="I29" s="38" t="s">
         <v>291</v>
-      </c>
-      <c r="F29" t="s">
-        <v>258</v>
-      </c>
-      <c r="G29" s="29" t="s">
-        <v>259</v>
-      </c>
-      <c r="H29" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="I29" s="38" t="s">
-        <v>299</v>
       </c>
       <c r="N29" s="3"/>
       <c r="R29" s="40"/>
@@ -5740,28 +5818,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C30" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D30" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E30" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F30" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="I30" s="38" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="R30" s="40"/>
     </row>
@@ -5770,28 +5848,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C31" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D31" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E31" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F31" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="I31" s="38" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="N31" s="3"/>
       <c r="R31" s="40"/>
@@ -5801,28 +5879,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C32" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D32" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E32" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F32" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="I32" s="38" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="R32" s="40"/>
     </row>
@@ -5831,28 +5909,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C33" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D33" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E33" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F33" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="I33" s="38" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="N33" s="3"/>
       <c r="R33" s="40"/>
@@ -5862,28 +5940,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C34" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D34" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E34" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F34" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="I34" s="38" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="R34" s="40"/>
     </row>
@@ -5892,28 +5970,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C35" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D35" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E35" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F35" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H35" s="29" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="I35" s="38" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="N35" s="3"/>
       <c r="R35" s="40"/>
@@ -5923,28 +6001,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C36" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D36" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E36" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F36" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H36" s="29" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="I36" s="38" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="R36" s="40"/>
     </row>
@@ -5953,28 +6031,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
+        <v>292</v>
+      </c>
+      <c r="C37" t="s">
+        <v>261</v>
+      </c>
+      <c r="D37" t="s">
+        <v>255</v>
+      </c>
+      <c r="E37" t="s">
+        <v>252</v>
+      </c>
+      <c r="F37" t="s">
+        <v>250</v>
+      </c>
+      <c r="G37" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="I37" s="38" t="s">
         <v>300</v>
-      </c>
-      <c r="C37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D37" t="s">
-        <v>263</v>
-      </c>
-      <c r="E37" t="s">
-        <v>260</v>
-      </c>
-      <c r="F37" t="s">
-        <v>258</v>
-      </c>
-      <c r="G37" s="29" t="s">
-        <v>259</v>
-      </c>
-      <c r="H37" s="29" t="s">
-        <v>295</v>
-      </c>
-      <c r="I37" s="38" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -5982,28 +6060,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C38" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D38" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E38" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F38" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H38" s="29" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="I38" s="38" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -6016,28 +6094,28 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C40" t="s">
+        <v>261</v>
+      </c>
+      <c r="D40" t="s">
+        <v>255</v>
+      </c>
+      <c r="E40" t="s">
+        <v>252</v>
+      </c>
+      <c r="F40" t="s">
+        <v>250</v>
+      </c>
+      <c r="G40" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="H40" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="D40" t="s">
-        <v>263</v>
-      </c>
-      <c r="E40" t="s">
-        <v>260</v>
-      </c>
-      <c r="F40" t="s">
-        <v>258</v>
-      </c>
-      <c r="G40" s="29" t="s">
-        <v>259</v>
-      </c>
-      <c r="H40" s="29" t="s">
-        <v>277</v>
-      </c>
       <c r="I40" s="38" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -6045,28 +6123,28 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C41" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D41" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E41" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F41" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G41" s="29" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H41" s="29" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="I41" s="38" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -6074,28 +6152,28 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C42" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D42" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E42" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F42" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H42" s="29" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="I42" s="38" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -6103,28 +6181,28 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C43" t="s">
+        <v>261</v>
+      </c>
+      <c r="D43" t="s">
+        <v>255</v>
+      </c>
+      <c r="E43" t="s">
+        <v>252</v>
+      </c>
+      <c r="F43" t="s">
+        <v>251</v>
+      </c>
+      <c r="G43" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="H43" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="D43" t="s">
-        <v>263</v>
-      </c>
-      <c r="E43" t="s">
-        <v>260</v>
-      </c>
-      <c r="F43" t="s">
-        <v>259</v>
-      </c>
-      <c r="G43" s="29" t="s">
-        <v>259</v>
-      </c>
-      <c r="H43" s="29" t="s">
-        <v>277</v>
-      </c>
       <c r="I43" s="38" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -6147,28 +6225,28 @@
         <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C47" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D47" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E47" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F47" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H47" s="29" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="I47" s="38" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -6176,28 +6254,28 @@
         <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C48" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D48" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E48" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F48" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="I48" s="38" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -6205,28 +6283,28 @@
         <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C49" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D49" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E49" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F49" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G49" s="29" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H49" s="29" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="I49" s="38" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -6234,28 +6312,28 @@
         <v>44</v>
       </c>
       <c r="B50" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C50" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D50" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E50" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F50" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G50" s="29" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H50" s="29" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="I50" s="38" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -6263,28 +6341,28 @@
         <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C51" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D51" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E51" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F51" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G51" s="29" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H51" s="29" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="I51" s="38" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>

--- a/MMS/Test Cases/Monitor app/Performance tests-18apr2015.xlsx
+++ b/MMS/Test Cases/Monitor app/Performance tests-18apr2015.xlsx
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="353">
   <si>
     <t>time for upload</t>
   </si>
@@ -425,9 +425,6 @@
   <si>
     <t xml:space="preserve"> capture image with gps off and mobile data off and wifi off upload
 </t>
-  </si>
-  <si>
-    <t>capture imagewith gps off and wifi on and u</t>
   </si>
   <si>
     <t>logout</t>
@@ -1387,9 +1384,6 @@
     <t>INDOOR: Unchecking medias and uploading</t>
   </si>
   <si>
-    <t>The application not going to the Linked to the monitor when clciking on Proceed</t>
-  </si>
-  <si>
     <t>WIFI</t>
   </si>
   <si>
@@ -1397,9 +1391,6 @@
   </si>
   <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>The application not going to the Linked to the monitor screen when clciking on Proceed</t>
   </si>
   <si>
     <t>Medias which are already linked to a QRcode must not be retrieved to the link monitor screen.
@@ -1461,14 +1452,38 @@
 Unable to connect server please try again later msg is displayed and if the image cache will be there its loading.</t>
   </si>
   <si>
-    <t>untestable</t>
+    <t>Response of the application when capturing a image is slow</t>
+  </si>
+  <si>
+    <t>Manual selected media is diplayed in the linked monitor screen</t>
+  </si>
+  <si>
+    <t>capture imagewith gps off and wifi on and upload</t>
+  </si>
+  <si>
+    <t>When we performing option of trying to off wifi , mobile data the medias are loaded</t>
+  </si>
+  <si>
+    <t>The loading messages are appeared</t>
+  </si>
+  <si>
+    <t>In gionee GPAD mobile all the screens are correctly opened when return back</t>
+  </si>
+  <si>
+    <t>The landscape taken image return to the portrait mode in Image preview screen</t>
+  </si>
+  <si>
+    <t>Without giving the permission for the snapooh  it accepting to upload.</t>
+  </si>
+  <si>
+    <t>0 Bytes images are creating</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1537,8 +1552,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1591,6 +1613,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -1655,11 +1682,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1747,12 +1775,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2107,7 +2154,7 @@
   <dimension ref="A1:V116"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E11" sqref="E11:E17"/>
     </sheetView>
   </sheetViews>
@@ -3393,11 +3440,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A2:L128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <pane ySplit="2" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3416,166 +3464,188 @@
   <sheetData>
     <row r="2" spans="1:12" s="23" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="F2" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="G2" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>123</v>
-      </c>
       <c r="J2" s="22" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="16" customFormat="1">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="16" customFormat="1" hidden="1">
       <c r="A3" s="16">
         <v>1</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F3" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="41" customFormat="1" ht="75">
+      <c r="A4" s="41">
+        <v>2</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42" t="s">
+        <v>340</v>
+      </c>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="G3" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="16" customFormat="1" ht="75">
-      <c r="A4" s="16">
-        <v>2</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="16" customFormat="1" ht="60">
+      <c r="G4" s="42"/>
+      <c r="H4" s="42" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="16" customFormat="1" ht="60" hidden="1">
       <c r="A5" s="16">
         <v>3</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="16" customFormat="1" ht="30">
+        <v>200</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="16" customFormat="1" ht="30" hidden="1">
       <c r="A6" s="16">
         <v>4</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="16" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="16" customFormat="1" ht="30">
+        <v>112</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="16" customFormat="1" ht="30" hidden="1">
       <c r="A7" s="16">
         <v>5</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="16" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="16" customFormat="1" ht="30">
+        <v>113</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="16" customFormat="1" ht="30" hidden="1">
       <c r="A8" s="16">
         <v>6</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="30">
+        <v>114</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30" hidden="1">
       <c r="A9" s="16">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" spans="1:12" ht="60">
+        <v>123</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="60" hidden="1">
       <c r="A10" s="16">
         <v>8</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="1:12" ht="45">
+        <v>124</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="45" hidden="1">
       <c r="A11" s="16">
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="1:12" ht="45">
+        <v>124</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="45" hidden="1">
       <c r="A12" s="16">
         <v>10</v>
       </c>
@@ -3583,127 +3653,139 @@
         <v>13</v>
       </c>
       <c r="D12" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="1:12" ht="75">
+      <c r="G12" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="75" hidden="1">
       <c r="A13" s="16">
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14" spans="1:12" ht="75">
+        <v>133</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="75" hidden="1">
       <c r="A14" s="16">
         <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D14" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G14" s="16"/>
-    </row>
-    <row r="15" spans="1:12" ht="90">
+      <c r="G14" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="90" hidden="1">
       <c r="A15" s="16">
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G15" s="16"/>
-    </row>
-    <row r="16" spans="1:12" ht="90">
+        <v>147</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="90" hidden="1">
       <c r="A16" s="16">
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D16" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G16" s="16"/>
-    </row>
-    <row r="17" spans="1:10" ht="90">
+      <c r="G16" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="90" hidden="1">
       <c r="A17" s="16">
         <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D17" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G17" s="16"/>
-    </row>
-    <row r="18" spans="1:10" ht="150">
+      <c r="G17" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="150" hidden="1">
       <c r="A18" s="16">
         <v>16</v>
       </c>
       <c r="B18" s="39"/>
       <c r="C18" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D18" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="G18" s="16" t="s">
         <v>46</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="60">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="60" hidden="1">
       <c r="A19" s="16"/>
       <c r="B19" s="39"/>
       <c r="C19" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="16" t="s">
         <v>46</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="90">
@@ -3711,47 +3793,47 @@
         <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:10" ht="105">
+    <row r="21" spans="1:10" ht="105" hidden="1">
       <c r="A21" s="16">
         <v>18</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G21" s="16" t="s">
         <v>43</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="90">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="90" hidden="1">
       <c r="C22" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G22" s="16" t="s">
         <v>43</v>
@@ -3759,86 +3841,86 @@
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
       <c r="J22" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="60">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="60" hidden="1">
       <c r="A23" s="16">
         <v>19</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G23" s="16" t="s">
         <v>43</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="90">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="90" hidden="1">
       <c r="A24" s="16"/>
       <c r="C24" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D24" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>315</v>
-      </c>
       <c r="J24" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="87" customHeight="1">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="87" hidden="1" customHeight="1">
       <c r="A25" s="16">
         <v>20</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>43</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="87" customHeight="1">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="87" hidden="1" customHeight="1">
       <c r="A26" s="16"/>
       <c r="C26" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D26" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>320</v>
-      </c>
       <c r="G26" s="16" t="s">
         <v>43</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="60">
@@ -3846,123 +3928,119 @@
         <v>21</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="1:10" ht="60">
+    <row r="28" spans="1:10" ht="60" hidden="1">
       <c r="A28" s="16">
         <v>22</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G28" s="16" t="s">
         <v>43</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="60">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="60" hidden="1">
       <c r="A29" s="16"/>
       <c r="C29" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G29" s="16" t="s">
         <v>43</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="75">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="75" hidden="1">
       <c r="A30" s="16">
         <v>23</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D30" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="G30" s="16" t="s">
         <v>43</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="90">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="90" hidden="1">
       <c r="A31" s="16">
         <v>24</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="17" t="s">
-        <v>331</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="H31" s="17"/>
       <c r="I31" s="17"/>
       <c r="J31" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="90">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="90" hidden="1">
       <c r="A32" s="16"/>
       <c r="C32" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>327</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="H32" s="17"/>
       <c r="I32" s="17"/>
       <c r="J32" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="75">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="75" hidden="1">
       <c r="A33" s="16">
         <v>25</v>
       </c>
@@ -3970,213 +4048,215 @@
         <v>81</v>
       </c>
       <c r="D33" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="G33" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="120">
+    <row r="34" spans="1:7" ht="120" hidden="1">
       <c r="A34" s="16">
         <v>26</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D34" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="G34" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="135">
+    <row r="35" spans="1:7" ht="135" hidden="1">
       <c r="A35" s="16">
         <v>27</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="G35" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="120">
+    <row r="36" spans="1:7" ht="120" hidden="1">
       <c r="A36" s="16">
         <v>28</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D36" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="F36" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="G36" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="90">
+    <row r="37" spans="1:7" ht="90" hidden="1">
       <c r="A37" s="16">
         <v>29</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D37" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="D37" s="32" t="s">
-        <v>195</v>
-      </c>
       <c r="F37" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G37" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="180">
+    <row r="38" spans="1:7" ht="180" hidden="1">
       <c r="A38" s="16"/>
       <c r="C38" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G38" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="105">
+    <row r="39" spans="1:7" ht="105" hidden="1">
       <c r="A39" s="16"/>
       <c r="C39" s="2"/>
       <c r="D39" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="G39" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="120">
+    <row r="40" spans="1:7" ht="120" hidden="1">
       <c r="A40" s="16"/>
       <c r="C40" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D40" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="D40" s="33" t="s">
+      <c r="F40" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="G40" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30">
+    <row r="41" spans="1:7" ht="30" hidden="1">
       <c r="A41" s="16"/>
       <c r="C41" s="2"/>
       <c r="D41" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="G41" s="16"/>
-    </row>
-    <row r="42" spans="1:7" ht="180">
+      <c r="G41" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="180" hidden="1">
       <c r="A42" s="16"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>242</v>
-      </c>
       <c r="G42" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" hidden="1">
       <c r="A43" s="16">
         <v>30</v>
       </c>
       <c r="D43" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G43" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="75">
+    <row r="44" spans="1:7" ht="75" hidden="1">
       <c r="A44" s="16">
         <v>31</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="F44" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="D44" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="F44" s="20" t="s">
-        <v>165</v>
-      </c>
       <c r="G44" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="75">
+    <row r="45" spans="1:7" ht="75" hidden="1">
       <c r="A45" s="16">
         <v>32</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G45" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="75">
+    <row r="46" spans="1:7" ht="75" hidden="1">
       <c r="A46" s="16">
         <v>33</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D46" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G46" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="75">
+    <row r="47" spans="1:7" ht="75" hidden="1">
       <c r="A47" s="16">
         <v>34</v>
       </c>
@@ -4184,16 +4264,16 @@
         <v>82</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G47" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="90">
+    <row r="48" spans="1:7" ht="90" hidden="1">
       <c r="A48" s="16">
         <v>35</v>
       </c>
@@ -4201,17 +4281,17 @@
         <v>14</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E48" s="26"/>
       <c r="F48" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G48" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="75">
+    <row r="49" spans="1:9" ht="75" hidden="1">
       <c r="A49" s="16">
         <v>36</v>
       </c>
@@ -4219,81 +4299,81 @@
         <v>11</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G49" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="60">
+    <row r="50" spans="1:9" ht="60" hidden="1">
       <c r="A50" s="16">
         <v>37</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G50" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="75">
+    <row r="51" spans="1:9" ht="75" hidden="1">
       <c r="A51" s="16">
         <v>38</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G51" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="60">
+    <row r="52" spans="1:9" ht="60" hidden="1">
       <c r="A52" s="16">
         <v>39</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D52" s="33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G52" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="75">
+    <row r="53" spans="1:9" ht="75" hidden="1">
       <c r="A53" s="16">
         <v>40</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G53" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" hidden="1">
       <c r="A54" s="16">
         <v>41</v>
       </c>
@@ -4301,93 +4381,96 @@
         <v>15</v>
       </c>
       <c r="F54" s="2"/>
-    </row>
-    <row r="55" spans="1:9" ht="60">
+      <c r="G54" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="60" hidden="1">
       <c r="A55" s="16">
         <v>42</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G55" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="60">
+    <row r="56" spans="1:9" ht="60" hidden="1">
       <c r="A56" s="16">
         <v>43</v>
       </c>
       <c r="C56" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D56" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D56" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>218</v>
-      </c>
       <c r="G56" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="75">
+    <row r="57" spans="1:9" ht="75" hidden="1">
       <c r="A57" s="16">
         <v>44</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D57" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D57" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>218</v>
-      </c>
       <c r="G57" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="45">
+    <row r="58" spans="1:9" ht="45" hidden="1">
       <c r="A58" s="16">
         <v>45</v>
       </c>
       <c r="C58" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D58" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D58" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>221</v>
-      </c>
       <c r="G58" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="75">
+    <row r="59" spans="1:9" ht="75" hidden="1">
       <c r="A59" s="16">
         <v>46</v>
       </c>
       <c r="C59" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="D59" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D59" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="G59" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" hidden="1">
       <c r="A60" s="16">
         <v>47</v>
       </c>
@@ -4395,9 +4478,11 @@
         <v>16</v>
       </c>
       <c r="F60" s="2"/>
-      <c r="G60" s="16"/>
-    </row>
-    <row r="61" spans="1:9" ht="60">
+      <c r="G60" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="60" hidden="1">
       <c r="A61" s="16">
         <v>48</v>
       </c>
@@ -4405,34 +4490,44 @@
         <v>17</v>
       </c>
       <c r="D61" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G61" s="16"/>
-    </row>
-    <row r="62" spans="1:9" ht="75">
+      <c r="G61" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H61" s="20" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="75" hidden="1">
       <c r="A62" s="16">
         <v>49</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D62" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G62" s="16"/>
-    </row>
-    <row r="63" spans="1:9" ht="60">
+      <c r="G62" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H62" s="20" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="60" hidden="1">
       <c r="A63" s="16">
         <v>50</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D63" s="33" t="s">
         <v>85</v>
@@ -4442,11 +4537,11 @@
         <v>43</v>
       </c>
       <c r="H63" s="20" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I63" s="20"/>
     </row>
-    <row r="64" spans="1:9" ht="45">
+    <row r="64" spans="1:9" ht="45" hidden="1">
       <c r="A64" s="16">
         <v>51</v>
       </c>
@@ -4458,18 +4553,18 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G64" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="30">
+    <row r="65" spans="1:8" ht="30" hidden="1">
       <c r="A65" s="16">
         <v>52</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>86</v>
@@ -4480,54 +4575,56 @@
         <v>43</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="30">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="30" hidden="1">
       <c r="A66" s="16">
         <v>53</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D66" s="33" t="s">
         <v>87</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G66" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="30">
+    <row r="67" spans="1:8" ht="30" hidden="1">
       <c r="A67" s="16">
         <v>54</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D67" s="33" t="s">
         <v>88</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G67" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" hidden="1">
       <c r="A68" s="16">
         <v>55</v>
       </c>
-      <c r="D68" s="33" t="s">
-        <v>90</v>
+      <c r="D68" s="2" t="s">
+        <v>346</v>
       </c>
       <c r="E68" s="2"/>
-      <c r="G68" s="16"/>
+      <c r="G68" s="16" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="16">
@@ -4554,11 +4651,11 @@
         <v>8</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G71" s="16"/>
     </row>
-    <row r="72" spans="1:8" ht="60">
+    <row r="72" spans="1:8" ht="60" hidden="1">
       <c r="A72" s="16">
         <v>59</v>
       </c>
@@ -4566,16 +4663,16 @@
         <v>44</v>
       </c>
       <c r="D72" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F72" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="G72" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="30">
+    <row r="73" spans="1:8" ht="30" hidden="1">
       <c r="A73" s="16">
         <v>60</v>
       </c>
@@ -4590,18 +4687,20 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="60">
+    <row r="74" spans="1:8" ht="60" hidden="1">
       <c r="A74" s="16">
         <v>61</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
-      <c r="G74" s="16"/>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="G74" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" hidden="1">
       <c r="A75" s="16">
         <v>62</v>
       </c>
@@ -4611,10 +4710,10 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="16" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="30">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="30" hidden="1">
       <c r="A76" s="16">
         <v>63</v>
       </c>
@@ -4631,7 +4730,7 @@
         <v>64</v>
       </c>
       <c r="D77" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -4642,14 +4741,14 @@
         <v>65</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G78" s="16"/>
     </row>
@@ -4663,256 +4762,314 @@
       <c r="F79" s="2"/>
       <c r="G79" s="16"/>
     </row>
-    <row r="80" spans="1:8" ht="60">
+    <row r="80" spans="1:8" ht="60" hidden="1">
       <c r="A80" s="16">
         <v>67</v>
       </c>
       <c r="D80" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E80" s="2"/>
-      <c r="G80" s="16"/>
-    </row>
-    <row r="81" spans="1:7" ht="60">
+      <c r="G80" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="60" hidden="1">
       <c r="A81" s="16">
         <v>68</v>
       </c>
       <c r="D81" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G81" s="16"/>
-    </row>
-    <row r="82" spans="1:7" ht="30">
+        <v>95</v>
+      </c>
+      <c r="G81" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="30">
       <c r="A82" s="16">
         <v>69</v>
       </c>
       <c r="D82" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G82" s="16"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:8" ht="45" hidden="1">
       <c r="A83" s="16">
         <v>70</v>
       </c>
-      <c r="D83" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="G83" s="16"/>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="D83" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G83" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" hidden="1">
       <c r="A84" s="16">
         <v>71</v>
       </c>
       <c r="D84" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="G84" s="16"/>
-    </row>
-    <row r="85" spans="1:7" ht="30">
+        <v>98</v>
+      </c>
+      <c r="G84" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H84" s="2"/>
+    </row>
+    <row r="85" spans="1:8" ht="30" hidden="1">
       <c r="A85" s="16">
         <v>72</v>
       </c>
       <c r="D85" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="G85" s="16"/>
-    </row>
-    <row r="86" spans="1:7">
+        <v>99</v>
+      </c>
+      <c r="G85" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="60" hidden="1">
       <c r="A86" s="16">
         <v>73</v>
       </c>
       <c r="D86" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="G86" s="16"/>
-    </row>
-    <row r="87" spans="1:7">
+        <v>103</v>
+      </c>
+      <c r="G86" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="60" hidden="1">
       <c r="A87" s="16">
         <v>74</v>
       </c>
       <c r="D87" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="G87" s="16"/>
-    </row>
-    <row r="88" spans="1:7" ht="30">
+        <v>104</v>
+      </c>
+      <c r="G87" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H87" s="33" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="30" hidden="1">
       <c r="A88" s="16">
         <v>75</v>
       </c>
       <c r="D88" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E88" s="2"/>
-      <c r="G88" s="16"/>
-    </row>
-    <row r="89" spans="1:7" ht="30">
+      <c r="G88" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="30" hidden="1">
       <c r="A89" s="16">
         <v>76</v>
       </c>
       <c r="D89" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="G89" s="16"/>
-    </row>
-    <row r="90" spans="1:7" ht="45">
+        <v>101</v>
+      </c>
+      <c r="G89" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="45" hidden="1">
       <c r="A90" s="16">
         <v>77</v>
       </c>
       <c r="D90" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E90" s="2"/>
-      <c r="G90" s="16"/>
-    </row>
-    <row r="91" spans="1:7" ht="45">
+      <c r="G90" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="45" hidden="1">
       <c r="A91" s="16">
         <v>78</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E91" s="2"/>
-      <c r="G91" s="16"/>
-    </row>
-    <row r="92" spans="1:7" ht="30">
+      <c r="G91" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="30" hidden="1">
       <c r="A92" s="16">
         <v>79</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E92" s="2"/>
-      <c r="G92" s="16"/>
-    </row>
-    <row r="93" spans="1:7" ht="60">
+      <c r="G92" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="60" hidden="1">
       <c r="A93" s="16">
         <v>80</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D93" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="G93" s="16"/>
-    </row>
-    <row r="94" spans="1:7" ht="45">
+        <v>107</v>
+      </c>
+      <c r="G93" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="45" hidden="1">
       <c r="A94" s="16">
         <v>81</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D94" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="G94" s="16"/>
-    </row>
-    <row r="95" spans="1:7" ht="60">
+        <v>185</v>
+      </c>
+      <c r="G94" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="60" hidden="1">
       <c r="A95" s="16">
         <v>82</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="G95" s="16"/>
-    </row>
-    <row r="96" spans="1:7" ht="60">
+        <v>337</v>
+      </c>
+      <c r="G95" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="60" hidden="1">
       <c r="A96" s="16">
         <v>83</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="G96" s="16"/>
-    </row>
-    <row r="97" spans="1:7" ht="60">
+        <v>338</v>
+      </c>
+      <c r="G96" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="60" hidden="1">
       <c r="A97" s="16"/>
       <c r="D97" s="33" t="s">
-        <v>243</v>
-      </c>
-      <c r="G97" s="16"/>
-    </row>
-    <row r="98" spans="1:7" ht="90">
+        <v>242</v>
+      </c>
+      <c r="G97" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="90">
       <c r="A98" s="16">
         <v>84</v>
       </c>
       <c r="D98" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="G98" s="16"/>
-    </row>
-    <row r="99" spans="1:7">
+        <v>243</v>
+      </c>
+      <c r="G98" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" hidden="1">
       <c r="A99" s="16">
         <v>85</v>
       </c>
       <c r="D99" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="G99" s="16"/>
-    </row>
-    <row r="100" spans="1:7">
+        <v>202</v>
+      </c>
+      <c r="G99" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" hidden="1">
       <c r="A100" s="16">
         <v>86</v>
       </c>
       <c r="D100" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="G100" s="16"/>
-    </row>
-    <row r="101" spans="1:7" ht="30">
+        <v>203</v>
+      </c>
+      <c r="G100" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="30">
       <c r="A101" s="16">
         <v>87</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G101" s="16"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:8" ht="60" hidden="1">
       <c r="A102" s="16">
         <v>88</v>
       </c>
       <c r="D102" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="G102" s="16"/>
-    </row>
-    <row r="103" spans="1:7">
+        <v>204</v>
+      </c>
+      <c r="G102" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="G103" s="16"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:8">
       <c r="G104" s="16"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:8">
       <c r="G105" s="16"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:8">
       <c r="G106" s="16"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:8">
       <c r="G107" s="16"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:8">
       <c r="G108" s="16"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:8">
       <c r="G109" s="16"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:8">
       <c r="G110" s="16"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:8">
       <c r="G111" s="16"/>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:8">
       <c r="G112" s="16"/>
     </row>
     <row r="113" spans="7:7">
@@ -4964,41 +5121,45 @@
       <c r="G128" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:L102"/>
-  <conditionalFormatting sqref="G3:G21 G23:G30 G32:G53 G55:G62 G64:G128">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+  <autoFilter ref="A2:L102">
+    <filterColumn colId="6">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="G64:G128 G23:G30 G3 G5:G21 G32:G62">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G63">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G53 G55:G128">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G128">
       <formula1>"Pass, Fail, untestable"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5032,30 +5193,30 @@
   <sheetData>
     <row r="1" spans="1:18" ht="30">
       <c r="D1" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="24" customFormat="1">
       <c r="B2" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E2" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>248</v>
-      </c>
       <c r="G2" s="24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="60">
@@ -5066,22 +5227,22 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G3" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="60">
@@ -5092,22 +5253,22 @@
         <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P4" s="28"/>
       <c r="Q4" s="28"/>
@@ -5121,22 +5282,22 @@
         <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E5" t="s">
         <v>255</v>
       </c>
-      <c r="E5" t="s">
-        <v>256</v>
-      </c>
       <c r="F5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G5" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N5" s="3"/>
     </row>
@@ -5148,22 +5309,22 @@
         <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E6" t="s">
         <v>255</v>
       </c>
-      <c r="E6" t="s">
-        <v>256</v>
-      </c>
       <c r="F6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N6" s="3"/>
       <c r="R6" s="40"/>
@@ -5176,22 +5337,22 @@
         <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R7" s="40"/>
     </row>
@@ -5203,22 +5364,22 @@
         <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G8" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N8" s="3"/>
       <c r="R8" s="40"/>
@@ -5231,22 +5392,22 @@
         <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G9" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R9" s="40"/>
     </row>
@@ -5258,22 +5419,22 @@
         <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N10" s="3"/>
       <c r="R10" s="40"/>
@@ -5286,22 +5447,22 @@
         <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E11" t="s">
         <v>251</v>
       </c>
-      <c r="E11" t="s">
-        <v>252</v>
-      </c>
       <c r="F11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G11" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R11" s="40"/>
     </row>
@@ -5310,25 +5471,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D12" t="s">
+        <v>250</v>
+      </c>
+      <c r="E12" t="s">
         <v>251</v>
       </c>
-      <c r="E12" t="s">
-        <v>252</v>
-      </c>
       <c r="F12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N12" s="3"/>
       <c r="R12" s="40"/>
@@ -5338,25 +5499,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="R13" s="40"/>
     </row>
@@ -5365,22 +5526,22 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G14" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N14" s="3"/>
       <c r="R14" s="40"/>
@@ -5390,25 +5551,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D15" t="s">
+        <v>254</v>
+      </c>
+      <c r="E15" t="s">
         <v>255</v>
       </c>
-      <c r="E15" t="s">
-        <v>256</v>
-      </c>
       <c r="F15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="R15" s="40"/>
     </row>
@@ -5417,25 +5578,25 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D16" t="s">
+        <v>254</v>
+      </c>
+      <c r="E16" t="s">
         <v>255</v>
       </c>
-      <c r="E16" t="s">
-        <v>256</v>
-      </c>
       <c r="F16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G16" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N16" s="3"/>
       <c r="R16" s="40"/>
@@ -5445,25 +5606,25 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G17" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="R17" s="40"/>
     </row>
@@ -5472,25 +5633,25 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G18" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N18" s="3"/>
       <c r="R18" s="40"/>
@@ -5500,28 +5661,28 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J19" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R19" s="40"/>
     </row>
@@ -5530,28 +5691,28 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J20" s="29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N20" s="3"/>
       <c r="R20" s="37"/>
@@ -5561,25 +5722,25 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N21" s="3"/>
       <c r="R21" s="40"/>
@@ -5589,28 +5750,28 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="R22" s="40"/>
     </row>
@@ -5619,28 +5780,28 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J23" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N23" s="3"/>
       <c r="R23" s="40"/>
@@ -5650,28 +5811,28 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J24" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R24" s="40"/>
     </row>
@@ -5680,25 +5841,25 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D25" t="s">
+        <v>250</v>
+      </c>
+      <c r="E25" t="s">
         <v>251</v>
       </c>
-      <c r="E25" t="s">
-        <v>252</v>
-      </c>
       <c r="F25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I25" s="38" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N25" s="3"/>
       <c r="R25" s="40"/>
@@ -5708,25 +5869,25 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
+        <v>285</v>
+      </c>
+      <c r="D26" t="s">
+        <v>250</v>
+      </c>
+      <c r="E26" t="s">
+        <v>282</v>
+      </c>
+      <c r="F26" t="s">
+        <v>249</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="H26" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="D26" t="s">
-        <v>251</v>
-      </c>
-      <c r="E26" t="s">
-        <v>283</v>
-      </c>
-      <c r="F26" t="s">
-        <v>250</v>
-      </c>
-      <c r="G26" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="H26" s="29" t="s">
+      <c r="I26" s="38" t="s">
         <v>287</v>
-      </c>
-      <c r="I26" s="38" t="s">
-        <v>288</v>
       </c>
       <c r="R26" s="40"/>
     </row>
@@ -5735,25 +5896,25 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
+        <v>285</v>
+      </c>
+      <c r="D27" t="s">
+        <v>250</v>
+      </c>
+      <c r="E27" t="s">
+        <v>282</v>
+      </c>
+      <c r="F27" t="s">
+        <v>250</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="H27" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="D27" t="s">
-        <v>251</v>
-      </c>
-      <c r="E27" t="s">
-        <v>283</v>
-      </c>
-      <c r="F27" t="s">
-        <v>251</v>
-      </c>
-      <c r="G27" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="H27" s="29" t="s">
-        <v>287</v>
-      </c>
       <c r="I27" s="38" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N27" s="3"/>
       <c r="R27" s="40"/>
@@ -5763,25 +5924,25 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I28" s="38" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R28" s="40"/>
     </row>
@@ -5790,25 +5951,25 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I29" s="38" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N29" s="3"/>
       <c r="R29" s="40"/>
@@ -5818,28 +5979,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C30" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I30" s="38" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="R30" s="40"/>
     </row>
@@ -5848,28 +6009,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
+        <v>291</v>
+      </c>
+      <c r="C31" t="s">
+        <v>279</v>
+      </c>
+      <c r="D31" t="s">
+        <v>254</v>
+      </c>
+      <c r="E31" t="s">
+        <v>251</v>
+      </c>
+      <c r="F31" t="s">
+        <v>249</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="H31" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="I31" s="38" t="s">
         <v>292</v>
-      </c>
-      <c r="C31" t="s">
-        <v>280</v>
-      </c>
-      <c r="D31" t="s">
-        <v>255</v>
-      </c>
-      <c r="E31" t="s">
-        <v>252</v>
-      </c>
-      <c r="F31" t="s">
-        <v>250</v>
-      </c>
-      <c r="G31" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="H31" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="I31" s="38" t="s">
-        <v>293</v>
       </c>
       <c r="N31" s="3"/>
       <c r="R31" s="40"/>
@@ -5879,28 +6040,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D32" t="s">
+        <v>250</v>
+      </c>
+      <c r="E32" t="s">
         <v>251</v>
       </c>
-      <c r="E32" t="s">
-        <v>252</v>
-      </c>
       <c r="F32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I32" s="38" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="R32" s="40"/>
     </row>
@@ -5909,28 +6070,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C33" t="s">
+        <v>294</v>
+      </c>
+      <c r="D33" t="s">
+        <v>254</v>
+      </c>
+      <c r="E33" t="s">
+        <v>251</v>
+      </c>
+      <c r="F33" t="s">
+        <v>250</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="H33" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="I33" s="38" t="s">
         <v>295</v>
-      </c>
-      <c r="D33" t="s">
-        <v>255</v>
-      </c>
-      <c r="E33" t="s">
-        <v>252</v>
-      </c>
-      <c r="F33" t="s">
-        <v>251</v>
-      </c>
-      <c r="G33" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="H33" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="I33" s="38" t="s">
-        <v>296</v>
       </c>
       <c r="N33" s="3"/>
       <c r="R33" s="40"/>
@@ -5940,28 +6101,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I34" s="38" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="R34" s="40"/>
     </row>
@@ -5970,28 +6131,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F35" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H35" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I35" s="38" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N35" s="3"/>
       <c r="R35" s="40"/>
@@ -6001,28 +6162,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C36" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D36" t="s">
+        <v>250</v>
+      </c>
+      <c r="E36" t="s">
         <v>251</v>
       </c>
-      <c r="E36" t="s">
-        <v>252</v>
-      </c>
       <c r="F36" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H36" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I36" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="R36" s="40"/>
     </row>
@@ -6031,28 +6192,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H37" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I37" s="38" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -6060,28 +6221,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E38" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F38" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H38" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I38" s="38" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -6094,28 +6255,28 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
+        <v>301</v>
+      </c>
+      <c r="C40" t="s">
+        <v>260</v>
+      </c>
+      <c r="D40" t="s">
+        <v>254</v>
+      </c>
+      <c r="E40" t="s">
+        <v>251</v>
+      </c>
+      <c r="F40" t="s">
+        <v>249</v>
+      </c>
+      <c r="G40" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="H40" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="I40" s="38" t="s">
         <v>302</v>
-      </c>
-      <c r="C40" t="s">
-        <v>261</v>
-      </c>
-      <c r="D40" t="s">
-        <v>255</v>
-      </c>
-      <c r="E40" t="s">
-        <v>252</v>
-      </c>
-      <c r="F40" t="s">
-        <v>250</v>
-      </c>
-      <c r="G40" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="H40" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="I40" s="38" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -6123,28 +6284,28 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C41" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D41" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E41" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G41" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H41" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I41" s="38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -6152,28 +6313,28 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D42" t="s">
+        <v>250</v>
+      </c>
+      <c r="E42" t="s">
         <v>251</v>
       </c>
-      <c r="E42" t="s">
-        <v>252</v>
-      </c>
       <c r="F42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H42" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I42" s="38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -6181,28 +6342,28 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C43" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D43" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E43" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H43" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I43" s="38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -6225,28 +6386,28 @@
         <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C47" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D47" t="s">
+        <v>250</v>
+      </c>
+      <c r="E47" t="s">
         <v>251</v>
       </c>
-      <c r="E47" t="s">
-        <v>252</v>
-      </c>
       <c r="F47" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H47" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I47" s="38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -6254,28 +6415,28 @@
         <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C48" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D48" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E48" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F48" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I48" s="38" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -6283,28 +6444,28 @@
         <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C49" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D49" t="s">
+        <v>250</v>
+      </c>
+      <c r="E49" t="s">
         <v>251</v>
       </c>
-      <c r="E49" t="s">
-        <v>252</v>
-      </c>
       <c r="F49" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G49" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H49" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I49" s="38" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -6312,28 +6473,28 @@
         <v>44</v>
       </c>
       <c r="B50" t="s">
+        <v>308</v>
+      </c>
+      <c r="C50" t="s">
+        <v>293</v>
+      </c>
+      <c r="D50" t="s">
+        <v>250</v>
+      </c>
+      <c r="E50" t="s">
+        <v>251</v>
+      </c>
+      <c r="F50" t="s">
+        <v>250</v>
+      </c>
+      <c r="G50" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="H50" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="I50" s="38" t="s">
         <v>309</v>
-      </c>
-      <c r="C50" t="s">
-        <v>294</v>
-      </c>
-      <c r="D50" t="s">
-        <v>251</v>
-      </c>
-      <c r="E50" t="s">
-        <v>252</v>
-      </c>
-      <c r="F50" t="s">
-        <v>251</v>
-      </c>
-      <c r="G50" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="H50" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="I50" s="38" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -6341,37 +6502,32 @@
         <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C51" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D51" t="s">
+        <v>250</v>
+      </c>
+      <c r="E51" t="s">
         <v>251</v>
       </c>
-      <c r="E51" t="s">
-        <v>252</v>
-      </c>
       <c r="F51" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G51" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H51" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I51" s="38" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="R14:R15"/>
     <mergeCell ref="R16:R17"/>
     <mergeCell ref="R18:R19"/>
     <mergeCell ref="R31:R32"/>
@@ -6382,6 +6538,11 @@
     <mergeCell ref="R25:R26"/>
     <mergeCell ref="R27:R28"/>
     <mergeCell ref="R29:R30"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="R14:R15"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E51">

--- a/MMS/Test Cases/Monitor app/Performance tests-18apr2015.xlsx
+++ b/MMS/Test Cases/Monitor app/Performance tests-18apr2015.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'20 mar15'!$A$2:$L$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'20 mar15'!$A$2:$I$102</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="353">
   <si>
     <t>time for upload</t>
   </si>
@@ -1384,15 +1384,6 @@
     <t>INDOOR: Unchecking medias and uploading</t>
   </si>
   <si>
-    <t>WIFI</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>Medias which are already linked to a QRcode must not be retrieved to the link monitor screen.
 Only unlinked medias (with default QRcode value '0' ) must be retrieved into the link monitor screen</t>
   </si>
@@ -1477,6 +1468,15 @@
   </si>
   <si>
     <t>0 Bytes images are creating</t>
+  </si>
+  <si>
+    <t>after taking a 2 minitues after it will display a message</t>
+  </si>
+  <si>
+    <t>Name and Image changes image not loaded .</t>
+  </si>
+  <si>
+    <t>When we call the screens are not disturbed and uploading also not stopped.</t>
   </si>
 </sst>
 </file>
@@ -1772,12 +1772,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1785,63 +1785,7 @@
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -3441,11 +3385,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A2:L128"/>
+  <dimension ref="A2:I128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3462,7 +3406,7 @@
     <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" s="23" customFormat="1" ht="45" customHeight="1">
+    <row r="2" spans="1:9" s="23" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>119</v>
       </c>
@@ -3490,17 +3434,8 @@
       <c r="I2" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="J2" s="22" t="s">
-        <v>326</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="16" customFormat="1" hidden="1">
+    </row>
+    <row r="3" spans="1:9" s="16" customFormat="1" hidden="1">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -3514,24 +3449,24 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="41" customFormat="1" ht="75">
-      <c r="A4" s="41">
+    <row r="4" spans="1:9" s="40" customFormat="1" ht="75">
+      <c r="A4" s="40">
         <v>2</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42" t="s">
-        <v>340</v>
-      </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="41" t="s">
+        <v>337</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="16" customFormat="1" ht="60" hidden="1">
+      <c r="G4" s="41"/>
+      <c r="H4" s="41" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="16" customFormat="1" ht="60" hidden="1">
       <c r="A5" s="16">
         <v>3</v>
       </c>
@@ -3549,13 +3484,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="16" customFormat="1" ht="30" hidden="1">
+    <row r="6" spans="1:9" s="16" customFormat="1" ht="30" hidden="1">
       <c r="A6" s="16">
         <v>4</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="16" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>112</v>
@@ -3564,13 +3499,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="16" customFormat="1" ht="30" hidden="1">
+    <row r="7" spans="1:9" s="16" customFormat="1" ht="30" hidden="1">
       <c r="A7" s="16">
         <v>5</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="16" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>113</v>
@@ -3579,7 +3514,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="16" customFormat="1" ht="30" hidden="1">
+    <row r="8" spans="1:9" s="16" customFormat="1" ht="30" hidden="1">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -3596,7 +3531,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30" hidden="1">
+    <row r="9" spans="1:9" ht="30" hidden="1">
       <c r="A9" s="16">
         <v>7</v>
       </c>
@@ -3613,7 +3548,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="60" hidden="1">
+    <row r="10" spans="1:9" ht="60" hidden="1">
       <c r="A10" s="16">
         <v>8</v>
       </c>
@@ -3628,7 +3563,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="45" hidden="1">
+    <row r="11" spans="1:9" ht="45" hidden="1">
       <c r="A11" s="16">
         <v>9</v>
       </c>
@@ -3645,7 +3580,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="45" hidden="1">
+    <row r="12" spans="1:9" ht="45" hidden="1">
       <c r="A12" s="16">
         <v>10</v>
       </c>
@@ -3662,7 +3597,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="75" hidden="1">
+    <row r="13" spans="1:9" ht="75" hidden="1">
       <c r="A13" s="16">
         <v>11</v>
       </c>
@@ -3679,7 +3614,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="75" hidden="1">
+    <row r="14" spans="1:9" ht="75" hidden="1">
       <c r="A14" s="16">
         <v>12</v>
       </c>
@@ -3696,7 +3631,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="90" hidden="1">
+    <row r="15" spans="1:9" ht="90" hidden="1">
       <c r="A15" s="16">
         <v>13</v>
       </c>
@@ -3713,7 +3648,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="90" hidden="1">
+    <row r="16" spans="1:9" ht="90" hidden="1">
       <c r="A16" s="16">
         <v>14</v>
       </c>
@@ -3730,7 +3665,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="90" hidden="1">
+    <row r="17" spans="1:9" ht="90" hidden="1">
       <c r="A17" s="16">
         <v>15</v>
       </c>
@@ -3747,7 +3682,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="150" hidden="1">
+    <row r="18" spans="1:9" ht="150" hidden="1">
       <c r="A18" s="16">
         <v>16</v>
       </c>
@@ -3765,13 +3700,10 @@
         <v>46</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="60" hidden="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="60" hidden="1">
       <c r="A19" s="16"/>
       <c r="B19" s="39"/>
       <c r="C19" s="2" t="s">
@@ -3784,11 +3716,8 @@
       <c r="G19" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="90">
+    </row>
+    <row r="20" spans="1:9" ht="90" hidden="1">
       <c r="A20" s="16">
         <v>17</v>
       </c>
@@ -3801,9 +3730,11 @@
       <c r="F20" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G20" s="16"/>
-    </row>
-    <row r="21" spans="1:10" ht="105" hidden="1">
+      <c r="G20" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="105" hidden="1">
       <c r="A21" s="16">
         <v>18</v>
       </c>
@@ -3820,11 +3751,8 @@
       <c r="G21" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="90" hidden="1">
+    </row>
+    <row r="22" spans="1:9" ht="90" hidden="1">
       <c r="C22" s="17" t="s">
         <v>315</v>
       </c>
@@ -3840,11 +3768,8 @@
       </c>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
-      <c r="J22" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="60" hidden="1">
+    </row>
+    <row r="23" spans="1:9" ht="60" hidden="1">
       <c r="A23" s="16">
         <v>19</v>
       </c>
@@ -3860,11 +3785,8 @@
       <c r="G23" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="90" hidden="1">
+    </row>
+    <row r="24" spans="1:9" ht="90" hidden="1">
       <c r="A24" s="16"/>
       <c r="C24" s="17" t="s">
         <v>313</v>
@@ -3881,11 +3803,8 @@
       <c r="H24" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="87" hidden="1" customHeight="1">
+    </row>
+    <row r="25" spans="1:9" ht="87" hidden="1" customHeight="1">
       <c r="A25" s="16">
         <v>20</v>
       </c>
@@ -3901,11 +3820,8 @@
       <c r="G25" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="J25" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="87" hidden="1" customHeight="1">
+    </row>
+    <row r="26" spans="1:9" ht="87" hidden="1" customHeight="1">
       <c r="A26" s="16"/>
       <c r="C26" s="2" t="s">
         <v>318</v>
@@ -3919,11 +3835,8 @@
       <c r="G26" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="J26" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="60">
+    </row>
+    <row r="27" spans="1:9" ht="60" hidden="1">
       <c r="A27" s="16">
         <v>21</v>
       </c>
@@ -3936,9 +3849,14 @@
       <c r="F27" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G27" s="16"/>
-    </row>
-    <row r="28" spans="1:10" ht="60" hidden="1">
+      <c r="G27" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="60" hidden="1">
       <c r="A28" s="16">
         <v>22</v>
       </c>
@@ -3955,11 +3873,8 @@
       <c r="G28" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="J28" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="60" hidden="1">
+    </row>
+    <row r="29" spans="1:9" ht="60" hidden="1">
       <c r="A29" s="16"/>
       <c r="C29" s="17" t="s">
         <v>321</v>
@@ -3974,11 +3889,8 @@
       <c r="G29" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="J29" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="75" hidden="1">
+    </row>
+    <row r="30" spans="1:9" ht="75" hidden="1">
       <c r="A30" s="16">
         <v>23</v>
       </c>
@@ -3994,11 +3906,8 @@
       <c r="G30" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="J30" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="90" hidden="1">
+    </row>
+    <row r="31" spans="1:9" ht="90" hidden="1">
       <c r="A31" s="16">
         <v>24</v>
       </c>
@@ -4016,11 +3925,8 @@
       </c>
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
-      <c r="J31" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="90" hidden="1">
+    </row>
+    <row r="32" spans="1:9" ht="90" hidden="1">
       <c r="A32" s="16"/>
       <c r="C32" s="17" t="s">
         <v>325</v>
@@ -4036,9 +3942,6 @@
       </c>
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
-      <c r="J32" s="4" t="s">
-        <v>327</v>
-      </c>
     </row>
     <row r="33" spans="1:7" ht="75" hidden="1">
       <c r="A33" s="16">
@@ -4134,7 +4037,7 @@
         <v>231</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G38" s="16" t="s">
         <v>43</v>
@@ -4499,7 +4402,7 @@
         <v>43</v>
       </c>
       <c r="H61" s="20" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="75" hidden="1">
@@ -4519,7 +4422,7 @@
         <v>43</v>
       </c>
       <c r="H62" s="20" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="60" hidden="1">
@@ -4537,7 +4440,7 @@
         <v>43</v>
       </c>
       <c r="H63" s="20" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I63" s="20"/>
     </row>
@@ -4553,7 +4456,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G64" s="16" t="s">
         <v>43</v>
@@ -4575,7 +4478,7 @@
         <v>43</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="30" hidden="1">
@@ -4590,7 +4493,7 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G66" s="16" t="s">
         <v>43</v>
@@ -4608,7 +4511,7 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G67" s="16" t="s">
         <v>43</v>
@@ -4619,7 +4522,7 @@
         <v>55</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E68" s="2"/>
       <c r="G68" s="16" t="s">
@@ -4643,7 +4546,7 @@
       </c>
       <c r="G70" s="16"/>
     </row>
-    <row r="71" spans="1:8" ht="105">
+    <row r="71" spans="1:8" ht="105" hidden="1">
       <c r="A71" s="16">
         <v>58</v>
       </c>
@@ -4653,7 +4556,12 @@
       <c r="D71" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="G71" s="16"/>
+      <c r="G71" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="72" spans="1:8" ht="60" hidden="1">
       <c r="A72" s="16">
@@ -4692,7 +4600,7 @@
         <v>61</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -4725,7 +4633,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="60">
+    <row r="77" spans="1:8" ht="60" hidden="1">
       <c r="A77" s="16">
         <v>64</v>
       </c>
@@ -4734,7 +4642,9 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
-      <c r="G77" s="16"/>
+      <c r="G77" s="16" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="78" spans="1:8" ht="120">
       <c r="A78" s="16">
@@ -4744,7 +4654,7 @@
         <v>182</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
@@ -4809,7 +4719,7 @@
         <v>43</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="84" spans="1:8" hidden="1">
@@ -4846,7 +4756,7 @@
         <v>43</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="60" hidden="1">
@@ -4860,7 +4770,7 @@
         <v>43</v>
       </c>
       <c r="H87" s="33" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="30" hidden="1">
@@ -4957,7 +4867,7 @@
         <v>82</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G95" s="16" t="s">
         <v>43</v>
@@ -4968,7 +4878,7 @@
         <v>83</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G96" s="16" t="s">
         <v>43</v>
@@ -4983,7 +4893,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="90">
+    <row r="98" spans="1:8" ht="90" hidden="1">
       <c r="A98" s="16">
         <v>84</v>
       </c>
@@ -5005,7 +4915,7 @@
         <v>46</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="100" spans="1:8" hidden="1">
@@ -5019,14 +4929,19 @@
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="30">
+    <row r="101" spans="1:8" ht="45" hidden="1">
       <c r="A101" s="16">
         <v>87</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="G101" s="16"/>
+        <v>336</v>
+      </c>
+      <c r="G101" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="102" spans="1:8" ht="60" hidden="1">
       <c r="A102" s="16">
@@ -5039,7 +4954,7 @@
         <v>43</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5121,40 +5036,16 @@
       <c r="G128" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:L102">
+  <autoFilter ref="A2:I102">
     <filterColumn colId="6">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="G64:G128 G23:G30 G3 G5:G21 G32:G62">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+  <conditionalFormatting sqref="G3 G5:G128">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
-      <formula>"fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
-      <formula>"fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G63">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>"fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5327,7 +5218,7 @@
         <v>262</v>
       </c>
       <c r="N6" s="3"/>
-      <c r="R6" s="40"/>
+      <c r="R6" s="42"/>
     </row>
     <row r="7" spans="1:18" ht="45">
       <c r="A7">
@@ -5354,7 +5245,7 @@
       <c r="I7" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="R7" s="40"/>
+      <c r="R7" s="42"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
@@ -5382,7 +5273,7 @@
         <v>262</v>
       </c>
       <c r="N8" s="3"/>
-      <c r="R8" s="40"/>
+      <c r="R8" s="42"/>
     </row>
     <row r="9" spans="1:18" ht="45">
       <c r="A9">
@@ -5409,7 +5300,7 @@
       <c r="I9" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="R9" s="40"/>
+      <c r="R9" s="42"/>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
@@ -5437,7 +5328,7 @@
         <v>262</v>
       </c>
       <c r="N10" s="3"/>
-      <c r="R10" s="40"/>
+      <c r="R10" s="42"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
@@ -5464,7 +5355,7 @@
       <c r="I11" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="R11" s="40"/>
+      <c r="R11" s="42"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12">
@@ -5492,7 +5383,7 @@
         <v>274</v>
       </c>
       <c r="N12" s="3"/>
-      <c r="R12" s="40"/>
+      <c r="R12" s="42"/>
     </row>
     <row r="13" spans="1:18" ht="60">
       <c r="A13">
@@ -5519,7 +5410,7 @@
       <c r="I13" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="R13" s="40"/>
+      <c r="R13" s="42"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14">
@@ -5544,7 +5435,7 @@
         <v>262</v>
       </c>
       <c r="N14" s="3"/>
-      <c r="R14" s="40"/>
+      <c r="R14" s="42"/>
     </row>
     <row r="15" spans="1:18" ht="90">
       <c r="A15">
@@ -5571,7 +5462,7 @@
       <c r="I15" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="R15" s="40"/>
+      <c r="R15" s="42"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16">
@@ -5599,7 +5490,7 @@
         <v>266</v>
       </c>
       <c r="N16" s="3"/>
-      <c r="R16" s="40"/>
+      <c r="R16" s="42"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17">
@@ -5626,7 +5517,7 @@
       <c r="I17" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="R17" s="40"/>
+      <c r="R17" s="42"/>
     </row>
     <row r="18" spans="1:18" ht="45">
       <c r="A18">
@@ -5654,7 +5545,7 @@
         <v>263</v>
       </c>
       <c r="N18" s="3"/>
-      <c r="R18" s="40"/>
+      <c r="R18" s="42"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19">
@@ -5684,7 +5575,7 @@
       <c r="J19" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="R19" s="40"/>
+      <c r="R19" s="42"/>
     </row>
     <row r="20" spans="1:18" ht="30">
       <c r="A20">
@@ -5743,7 +5634,7 @@
         <v>280</v>
       </c>
       <c r="N21" s="3"/>
-      <c r="R21" s="40"/>
+      <c r="R21" s="42"/>
     </row>
     <row r="22" spans="1:18">
       <c r="A22">
@@ -5773,7 +5664,7 @@
       <c r="J22" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="R22" s="40"/>
+      <c r="R22" s="42"/>
     </row>
     <row r="23" spans="1:18" ht="30">
       <c r="A23">
@@ -5804,7 +5695,7 @@
         <v>276</v>
       </c>
       <c r="N23" s="3"/>
-      <c r="R23" s="40"/>
+      <c r="R23" s="42"/>
     </row>
     <row r="24" spans="1:18">
       <c r="A24">
@@ -5834,7 +5725,7 @@
       <c r="J24" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="R24" s="40"/>
+      <c r="R24" s="42"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25">
@@ -5862,7 +5753,7 @@
         <v>284</v>
       </c>
       <c r="N25" s="3"/>
-      <c r="R25" s="40"/>
+      <c r="R25" s="42"/>
     </row>
     <row r="26" spans="1:18">
       <c r="A26">
@@ -5889,7 +5780,7 @@
       <c r="I26" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="R26" s="40"/>
+      <c r="R26" s="42"/>
     </row>
     <row r="27" spans="1:18" ht="30">
       <c r="A27">
@@ -5917,7 +5808,7 @@
         <v>288</v>
       </c>
       <c r="N27" s="3"/>
-      <c r="R27" s="40"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="1:18" ht="30">
       <c r="A28">
@@ -5944,7 +5835,7 @@
       <c r="I28" s="38" t="s">
         <v>289</v>
       </c>
-      <c r="R28" s="40"/>
+      <c r="R28" s="42"/>
     </row>
     <row r="29" spans="1:18">
       <c r="A29">
@@ -5972,7 +5863,7 @@
         <v>290</v>
       </c>
       <c r="N29" s="3"/>
-      <c r="R29" s="40"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="1:18">
       <c r="A30">
@@ -6002,7 +5893,7 @@
       <c r="I30" s="38" t="s">
         <v>270</v>
       </c>
-      <c r="R30" s="40"/>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="1:18">
       <c r="A31">
@@ -6033,7 +5924,7 @@
         <v>292</v>
       </c>
       <c r="N31" s="3"/>
-      <c r="R31" s="40"/>
+      <c r="R31" s="42"/>
     </row>
     <row r="32" spans="1:18" ht="30">
       <c r="A32">
@@ -6063,7 +5954,7 @@
       <c r="I32" s="38" t="s">
         <v>280</v>
       </c>
-      <c r="R32" s="40"/>
+      <c r="R32" s="42"/>
     </row>
     <row r="33" spans="1:18" ht="30">
       <c r="A33">
@@ -6094,7 +5985,7 @@
         <v>295</v>
       </c>
       <c r="N33" s="3"/>
-      <c r="R33" s="40"/>
+      <c r="R33" s="42"/>
     </row>
     <row r="34" spans="1:18">
       <c r="A34">
@@ -6124,7 +6015,7 @@
       <c r="I34" s="38" t="s">
         <v>296</v>
       </c>
-      <c r="R34" s="40"/>
+      <c r="R34" s="42"/>
     </row>
     <row r="35" spans="1:18">
       <c r="A35">
@@ -6155,7 +6046,7 @@
         <v>297</v>
       </c>
       <c r="N35" s="3"/>
-      <c r="R35" s="40"/>
+      <c r="R35" s="42"/>
     </row>
     <row r="36" spans="1:18">
       <c r="A36">
@@ -6185,7 +6076,7 @@
       <c r="I36" s="38" t="s">
         <v>298</v>
       </c>
-      <c r="R36" s="40"/>
+      <c r="R36" s="42"/>
     </row>
     <row r="37" spans="1:18">
       <c r="A37">

--- a/MMS/Test Cases/Monitor app/Performance tests-18apr2015.xlsx
+++ b/MMS/Test Cases/Monitor app/Performance tests-18apr2015.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="20 mar15" sheetId="3" r:id="rId1"/>
+    <sheet name="18apr15" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20 mar15'!$A$2:$I$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'18apr15'!$A$2:$I$102</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -1794,7 +1794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
@@ -3467,7 +3467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
     </sheetView>
@@ -4822,11 +4822,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="R14:R15"/>
     <mergeCell ref="R16:R17"/>
     <mergeCell ref="R18:R19"/>
     <mergeCell ref="R31:R32"/>
@@ -4837,6 +4832,11 @@
     <mergeCell ref="R25:R26"/>
     <mergeCell ref="R27:R28"/>
     <mergeCell ref="R29:R30"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="R14:R15"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E51">

--- a/MMS/Test Cases/Monitor app/Performance tests-18apr2015.xlsx
+++ b/MMS/Test Cases/Monitor app/Performance tests-18apr2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="18apr15" sheetId="3" r:id="rId1"/>
@@ -1794,9 +1794,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I128"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3467,7 +3467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
     </sheetView>
@@ -4822,6 +4822,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="R14:R15"/>
     <mergeCell ref="R16:R17"/>
     <mergeCell ref="R18:R19"/>
     <mergeCell ref="R31:R32"/>
@@ -4832,11 +4837,6 @@
     <mergeCell ref="R25:R26"/>
     <mergeCell ref="R27:R28"/>
     <mergeCell ref="R29:R30"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="R14:R15"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E51">

--- a/MMS/Test Cases/Monitor app/Performance tests-18apr2015.xlsx
+++ b/MMS/Test Cases/Monitor app/Performance tests-18apr2015.xlsx
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="352">
   <si>
     <t>time for upload</t>
   </si>
@@ -1471,9 +1471,6 @@
   </si>
   <si>
     <t>after taking a 2 minitues after it will display a message</t>
-  </si>
-  <si>
-    <t>Name and Image changes image not loaded .</t>
   </si>
   <si>
     <t>When we call the screens are not disturbed and uploading also not stopped.</t>
@@ -3387,9 +3384,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:I128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F78" sqref="F78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3449,7 +3446,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="40" customFormat="1" ht="75">
+    <row r="4" spans="1:9" s="40" customFormat="1" ht="75" hidden="1">
       <c r="A4" s="40">
         <v>2</v>
       </c>
@@ -3682,7 +3679,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="150" hidden="1">
+    <row r="18" spans="1:9" ht="150">
       <c r="A18" s="16">
         <v>16</v>
       </c>
@@ -3703,7 +3700,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="60" hidden="1">
+    <row r="19" spans="1:9" ht="60">
       <c r="A19" s="16"/>
       <c r="B19" s="39"/>
       <c r="C19" s="2" t="s">
@@ -4056,7 +4053,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="120" hidden="1">
+    <row r="40" spans="1:7" ht="120">
       <c r="A40" s="16"/>
       <c r="C40" s="2" t="s">
         <v>235</v>
@@ -4529,7 +4526,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" hidden="1">
       <c r="A69" s="16">
         <v>56</v>
       </c>
@@ -4537,7 +4534,7 @@
       <c r="E69" s="2"/>
       <c r="G69" s="16"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" hidden="1">
       <c r="A70" s="16">
         <v>57</v>
       </c>
@@ -4560,7 +4557,7 @@
         <v>43</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="60" hidden="1">
@@ -4646,7 +4643,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="120">
+    <row r="78" spans="1:8" ht="120" hidden="1">
       <c r="A78" s="16">
         <v>65</v>
       </c>
@@ -4660,9 +4657,11 @@
       <c r="F78" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G78" s="16"/>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="G78" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" hidden="1">
       <c r="A79" s="16">
         <v>66</v>
       </c>
@@ -4699,7 +4698,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="30">
+    <row r="82" spans="1:8" ht="30" hidden="1">
       <c r="A82" s="16">
         <v>69</v>
       </c>
@@ -4834,7 +4833,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="60" hidden="1">
+    <row r="93" spans="1:8" ht="60">
       <c r="A93" s="16">
         <v>80</v>
       </c>
@@ -4904,7 +4903,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1">
+    <row r="99" spans="1:8">
       <c r="A99" s="16">
         <v>85</v>
       </c>
@@ -4918,7 +4917,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1">
+    <row r="100" spans="1:8">
       <c r="A100" s="16">
         <v>86</v>
       </c>
@@ -4929,7 +4928,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="45" hidden="1">
+    <row r="101" spans="1:8" ht="30" hidden="1">
       <c r="A101" s="16">
         <v>87</v>
       </c>
@@ -4937,11 +4936,9 @@
         <v>336</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>351</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="H101" s="2"/>
     </row>
     <row r="102" spans="1:8" ht="60" hidden="1">
       <c r="A102" s="16">
@@ -5038,7 +5035,9 @@
   </sheetData>
   <autoFilter ref="A2:I102">
     <filterColumn colId="6">
-      <filters blank="1"/>
+      <filters>
+        <filter val="Fail"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="G3 G5:G128">

--- a/MMS/Test Cases/Monitor app/Performance tests-18apr2015.xlsx
+++ b/MMS/Test Cases/Monitor app/Performance tests-18apr2015.xlsx
@@ -1795,8 +1795,8 @@
   <dimension ref="A2:I128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3344,7 +3344,7 @@
         <v>271</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>286</v>
@@ -4822,11 +4822,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="R14:R15"/>
     <mergeCell ref="R16:R17"/>
     <mergeCell ref="R18:R19"/>
     <mergeCell ref="R31:R32"/>
@@ -4837,6 +4832,11 @@
     <mergeCell ref="R25:R26"/>
     <mergeCell ref="R27:R28"/>
     <mergeCell ref="R29:R30"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="R14:R15"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E51">

--- a/MMS/Test Cases/Monitor app/Performance tests-18apr2015.xlsx
+++ b/MMS/Test Cases/Monitor app/Performance tests-18apr2015.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="18apr15" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
+    <sheet name="tests" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'18apr15'!$A$2:$I$102</definedName>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="292">
   <si>
     <t>incoming call handling check</t>
   </si>
@@ -1208,6 +1208,18 @@
   </si>
   <si>
     <t>When we call the screens are not disturbed and uploading also not stopped.</t>
+  </si>
+  <si>
+    <t>defect 1876</t>
+  </si>
+  <si>
+    <t>defect 1866</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> defect1379</t>
+  </si>
+  <si>
+    <t>still checking</t>
   </si>
 </sst>
 </file>
@@ -1291,7 +1303,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1319,12 +1331,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1399,7 +1405,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1441,11 +1447,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1466,9 +1469,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1794,9 +1800,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1808,7 +1814,7 @@
     <col min="5" max="5" width="18.28515625" style="3" customWidth="1"/>
     <col min="6" max="6" width="36.140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="30.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" style="3" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" style="3" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
@@ -1846,7 +1852,7 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>164</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -1856,20 +1862,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="29" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="29">
+    <row r="4" spans="1:9" s="28" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30" t="s">
+      <c r="E4" s="29"/>
+      <c r="F4" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30" t="s">
+      <c r="G4" s="29"/>
+      <c r="H4" s="29" t="s">
         <v>283</v>
       </c>
     </row>
@@ -1880,7 +1886,7 @@
       <c r="C5" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="20" t="s">
         <v>136</v>
       </c>
       <c r="E5" s="6"/>
@@ -1928,7 +1934,7 @@
       <c r="C8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>64</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -1945,7 +1951,7 @@
       <c r="C9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="21" t="s">
         <v>65</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -1960,7 +1966,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>66</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -1977,7 +1983,7 @@
       <c r="C11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="21" t="s">
         <v>60</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -1994,7 +2000,7 @@
       <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="21" t="s">
         <v>61</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -2011,7 +2017,7 @@
       <c r="C13" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="21" t="s">
         <v>63</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -2028,7 +2034,7 @@
       <c r="C14" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="21" t="s">
         <v>106</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -2045,7 +2051,7 @@
       <c r="C15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="21" t="s">
         <v>76</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -2062,7 +2068,7 @@
       <c r="C16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="21" t="s">
         <v>77</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -2079,7 +2085,7 @@
       <c r="C17" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="21" t="s">
         <v>69</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -2089,15 +2095,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B18" s="28"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="21" t="s">
         <v>80</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -2109,29 +2115,37 @@
       <c r="H18" s="1" t="s">
         <v>275</v>
       </c>
+      <c r="I18" s="3" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="28"/>
+      <c r="A19" s="5">
+        <v>17</v>
+      </c>
+      <c r="B19" s="27"/>
       <c r="C19" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="21" t="s">
         <v>80</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="I19" s="3" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="21" t="s">
         <v>90</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -2143,12 +2157,12 @@
     </row>
     <row r="21" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="22" t="s">
         <v>86</v>
       </c>
       <c r="E21" s="8"/>
@@ -2160,6 +2174,9 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>20</v>
+      </c>
       <c r="C22" s="6" t="s">
         <v>250</v>
       </c>
@@ -2178,12 +2195,12 @@
     </row>
     <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="20" t="s">
         <v>92</v>
       </c>
       <c r="F23" s="6" t="s">
@@ -2193,12 +2210,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
+    <row r="24" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>22</v>
+      </c>
       <c r="C24" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="20" t="s">
         <v>163</v>
       </c>
       <c r="F24" s="6" t="s">
@@ -2213,12 +2232,12 @@
     </row>
     <row r="25" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="20" t="s">
         <v>93</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -2229,11 +2248,13 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
+      <c r="A26" s="5">
+        <v>24</v>
+      </c>
       <c r="C26" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="20" t="s">
         <v>93</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -2245,12 +2266,12 @@
     </row>
     <row r="27" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="20" t="s">
         <v>94</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -2265,12 +2286,12 @@
     </row>
     <row r="28" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="20" t="s">
         <v>95</v>
       </c>
       <c r="E28" s="5"/>
@@ -2282,11 +2303,13 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
+      <c r="A29" s="5">
+        <v>27</v>
+      </c>
       <c r="C29" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="20" t="s">
         <v>95</v>
       </c>
       <c r="E29" s="5"/>
@@ -2299,12 +2322,12 @@
     </row>
     <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="20" t="s">
         <v>96</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -2316,12 +2339,12 @@
     </row>
     <row r="31" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="20" t="s">
         <v>116</v>
       </c>
       <c r="F31" s="6" t="s">
@@ -2334,11 +2357,13 @@
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
+      <c r="A32" s="5">
+        <v>30</v>
+      </c>
       <c r="C32" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="20" t="s">
         <v>116</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -2350,14 +2375,14 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="20" t="s">
         <v>121</v>
       </c>
       <c r="F33" s="1" t="s">
@@ -2367,14 +2392,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="20" t="s">
         <v>123</v>
       </c>
       <c r="F34" s="1" t="s">
@@ -2384,14 +2409,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="20" t="s">
         <v>126</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -2401,14 +2426,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="20" t="s">
         <v>132</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -2418,14 +2443,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="20" t="s">
         <v>129</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -2435,8 +2460,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="180" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
+    <row r="38" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>36</v>
+      </c>
       <c r="C38" s="1" t="s">
         <v>167</v>
       </c>
@@ -2450,10 +2477,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
+    <row r="39" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>37</v>
+      </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="21" t="s">
         <v>168</v>
       </c>
       <c r="F39" s="1" t="s">
@@ -2463,12 +2492,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
+    <row r="40" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>38</v>
+      </c>
       <c r="C40" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="21" t="s">
         <v>171</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -2477,11 +2508,16 @@
       <c r="G40" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
+      <c r="H40" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>39</v>
+      </c>
       <c r="C41" s="1"/>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="21" t="s">
         <v>173</v>
       </c>
       <c r="F41" s="1" t="s">
@@ -2491,8 +2527,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="180" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
+    <row r="42" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>40</v>
+      </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
         <v>175</v>
@@ -2504,25 +2542,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
-        <v>30</v>
-      </c>
-      <c r="D43" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="21" t="s">
         <v>28</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F44" s="9" t="s">
@@ -2532,14 +2570,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="21" t="s">
         <v>100</v>
       </c>
       <c r="F45" s="9" t="s">
@@ -2549,14 +2587,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="21" t="s">
         <v>102</v>
       </c>
       <c r="F46" s="9" t="s">
@@ -2566,14 +2604,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="21" t="s">
         <v>105</v>
       </c>
       <c r="F47" s="9" t="s">
@@ -2583,14 +2621,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="23" t="s">
         <v>107</v>
       </c>
       <c r="E48" s="15"/>
@@ -2603,12 +2641,12 @@
     </row>
     <row r="49" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="21" t="s">
         <v>146</v>
       </c>
       <c r="G49" s="5" t="s">
@@ -2617,12 +2655,12 @@
     </row>
     <row r="50" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="D50" s="21" t="s">
         <v>147</v>
       </c>
       <c r="F50" s="1" t="s">
@@ -2634,12 +2672,12 @@
     </row>
     <row r="51" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="21" t="s">
         <v>148</v>
       </c>
       <c r="F51" s="1" t="s">
@@ -2651,12 +2689,12 @@
     </row>
     <row r="52" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D52" s="22" t="s">
+      <c r="D52" s="21" t="s">
         <v>149</v>
       </c>
       <c r="F52" s="1" t="s">
@@ -2668,12 +2706,12 @@
     </row>
     <row r="53" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D53" s="22" t="s">
+      <c r="D53" s="21" t="s">
         <v>150</v>
       </c>
       <c r="F53" s="1" t="s">
@@ -2685,9 +2723,9 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
-        <v>41</v>
-      </c>
-      <c r="D54" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F54" s="1"/>
@@ -2697,12 +2735,12 @@
     </row>
     <row r="55" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="21" t="s">
         <v>140</v>
       </c>
       <c r="F55" s="1" t="s">
@@ -2714,12 +2752,12 @@
     </row>
     <row r="56" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D56" s="22" t="s">
+      <c r="D56" s="21" t="s">
         <v>158</v>
       </c>
       <c r="F56" s="1" t="s">
@@ -2731,12 +2769,12 @@
     </row>
     <row r="57" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D57" s="22" t="s">
+      <c r="D57" s="21" t="s">
         <v>159</v>
       </c>
       <c r="F57" s="1" t="s">
@@ -2748,12 +2786,12 @@
     </row>
     <row r="58" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="D58" s="22" t="s">
+      <c r="D58" s="21" t="s">
         <v>160</v>
       </c>
       <c r="F58" s="1" t="s">
@@ -2765,12 +2803,12 @@
     </row>
     <row r="59" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="D59" s="22" t="s">
+      <c r="D59" s="21" t="s">
         <v>161</v>
       </c>
       <c r="F59" s="1" t="s">
@@ -2782,9 +2820,9 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
-        <v>47</v>
-      </c>
-      <c r="D60" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" s="24" t="s">
         <v>6</v>
       </c>
       <c r="F60" s="1"/>
@@ -2794,12 +2832,12 @@
     </row>
     <row r="61" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D61" s="22" t="s">
+      <c r="D61" s="21" t="s">
         <v>110</v>
       </c>
       <c r="F61" s="1" t="s">
@@ -2814,12 +2852,12 @@
     </row>
     <row r="62" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D62" s="22" t="s">
+      <c r="D62" s="21" t="s">
         <v>112</v>
       </c>
       <c r="F62" s="1" t="s">
@@ -2832,14 +2870,14 @@
         <v>279</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D63" s="22" t="s">
+      <c r="D63" s="21" t="s">
         <v>20</v>
       </c>
       <c r="E63" s="1"/>
@@ -2853,12 +2891,12 @@
     </row>
     <row r="64" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="22" t="s">
+      <c r="D64" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E64" s="1"/>
@@ -2871,7 +2909,7 @@
     </row>
     <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>192</v>
@@ -2890,12 +2928,12 @@
     </row>
     <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D66" s="22" t="s">
+      <c r="D66" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E66" s="1"/>
@@ -2908,12 +2946,12 @@
     </row>
     <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D67" s="22" t="s">
+      <c r="D67" s="21" t="s">
         <v>23</v>
       </c>
       <c r="E67" s="1"/>
@@ -2926,7 +2964,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>278</v>
@@ -2938,29 +2976,29 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
-        <v>56</v>
-      </c>
-      <c r="D69" s="22"/>
+        <v>67</v>
+      </c>
+      <c r="D69" s="21"/>
       <c r="E69" s="1"/>
       <c r="G69" s="5"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
-        <v>57</v>
-      </c>
-      <c r="D70" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" s="24" t="s">
         <v>1</v>
       </c>
       <c r="G70" s="5"/>
     </row>
     <row r="71" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D71" s="22" t="s">
+      <c r="D71" s="21" t="s">
         <v>162</v>
       </c>
       <c r="G71" s="5" t="s">
@@ -2972,12 +3010,12 @@
     </row>
     <row r="72" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="22" t="s">
+      <c r="D72" s="21" t="s">
         <v>114</v>
       </c>
       <c r="F72" s="1" t="s">
@@ -2989,9 +3027,9 @@
     </row>
     <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
-        <v>60</v>
-      </c>
-      <c r="D73" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D73" s="21" t="s">
         <v>12</v>
       </c>
       <c r="E73" s="1"/>
@@ -3004,7 +3042,7 @@
     </row>
     <row r="74" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>267</v>
@@ -3017,9 +3055,9 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
-        <v>62</v>
-      </c>
-      <c r="D75" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D75" s="21" t="s">
         <v>18</v>
       </c>
       <c r="E75" s="1"/>
@@ -3030,9 +3068,9 @@
     </row>
     <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
-        <v>63</v>
-      </c>
-      <c r="D76" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D76" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F76" s="1"/>
@@ -3042,9 +3080,9 @@
     </row>
     <row r="77" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
-        <v>64</v>
-      </c>
-      <c r="D77" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D77" s="21" t="s">
         <v>26</v>
       </c>
       <c r="E77" s="1"/>
@@ -3055,7 +3093,7 @@
     </row>
     <row r="78" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>117</v>
@@ -3071,19 +3109,19 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C79" s="1"/>
-      <c r="D79" s="22"/>
+      <c r="D79" s="21"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="5"/>
     </row>
     <row r="80" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
-        <v>67</v>
-      </c>
-      <c r="D80" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D80" s="21" t="s">
         <v>27</v>
       </c>
       <c r="E80" s="1"/>
@@ -3093,9 +3131,9 @@
     </row>
     <row r="81" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
-        <v>68</v>
-      </c>
-      <c r="D81" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D81" s="21" t="s">
         <v>29</v>
       </c>
       <c r="E81" s="1"/>
@@ -3108,16 +3146,16 @@
     </row>
     <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
-        <v>69</v>
-      </c>
-      <c r="D82" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D82" s="21" t="s">
         <v>31</v>
       </c>
       <c r="G82" s="5"/>
     </row>
     <row r="83" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>32</v>
@@ -3131,9 +3169,9 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
-        <v>71</v>
-      </c>
-      <c r="D84" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D84" s="24" t="s">
         <v>33</v>
       </c>
       <c r="G84" s="5" t="s">
@@ -3143,20 +3181,20 @@
     </row>
     <row r="85" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
-        <v>72</v>
-      </c>
-      <c r="D85" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D85" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
-        <v>73</v>
-      </c>
-      <c r="D86" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D86" s="21" t="s">
         <v>38</v>
       </c>
       <c r="G86" s="5" t="s">
@@ -3166,25 +3204,25 @@
         <v>281</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
-        <v>74</v>
-      </c>
-      <c r="D87" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D87" s="24" t="s">
         <v>39</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H87" s="22" t="s">
+      <c r="H87" s="21" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
-        <v>75</v>
-      </c>
-      <c r="D88" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D88" s="21" t="s">
         <v>35</v>
       </c>
       <c r="E88" s="1"/>
@@ -3194,9 +3232,9 @@
     </row>
     <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
-        <v>76</v>
-      </c>
-      <c r="D89" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D89" s="21" t="s">
         <v>36</v>
       </c>
       <c r="G89" s="5" t="s">
@@ -3205,9 +3243,9 @@
     </row>
     <row r="90" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
-        <v>77</v>
-      </c>
-      <c r="D90" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D90" s="21" t="s">
         <v>37</v>
       </c>
       <c r="E90" s="1"/>
@@ -3217,10 +3255,10 @@
     </row>
     <row r="91" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C91" s="1"/>
-      <c r="D91" s="22" t="s">
+      <c r="D91" s="21" t="s">
         <v>40</v>
       </c>
       <c r="E91" s="1"/>
@@ -3230,10 +3268,10 @@
     </row>
     <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C92" s="1"/>
-      <c r="D92" s="22" t="s">
+      <c r="D92" s="21" t="s">
         <v>41</v>
       </c>
       <c r="E92" s="1"/>
@@ -3243,26 +3281,29 @@
     </row>
     <row r="93" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D93" s="25" t="s">
+      <c r="D93" s="24" t="s">
         <v>42</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="H93" s="3" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="94" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D94" s="25" t="s">
+      <c r="D94" s="24" t="s">
         <v>120</v>
       </c>
       <c r="G94" s="5" t="s">
@@ -3271,7 +3312,7 @@
     </row>
     <row r="95" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>269</v>
@@ -3282,7 +3323,7 @@
     </row>
     <row r="96" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>270</v>
@@ -3291,31 +3332,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A97" s="5"/>
-      <c r="D97" s="22" t="s">
+    <row r="97" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A97" s="5">
+        <v>95</v>
+      </c>
+      <c r="D97" s="21" t="s">
         <v>177</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
-        <v>84</v>
-      </c>
-      <c r="D98" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D98" s="21" t="s">
         <v>178</v>
       </c>
       <c r="G98" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
-        <v>85</v>
-      </c>
-      <c r="D99" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D99" s="24" t="s">
         <v>137</v>
       </c>
       <c r="G99" s="5" t="s">
@@ -3324,21 +3367,24 @@
       <c r="H99" s="3" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I99" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
-        <v>86</v>
-      </c>
-      <c r="D100" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D100" s="24" t="s">
         <v>138</v>
       </c>
       <c r="G100" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>271</v>
@@ -3350,11 +3396,11 @@
         <v>286</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
-        <v>88</v>
-      </c>
-      <c r="D102" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D102" s="24" t="s">
         <v>139</v>
       </c>
       <c r="G102" s="5" t="s">
@@ -3364,34 +3410,34 @@
         <v>282</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G103" s="5"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G104" s="5"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G105" s="5"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G106" s="5"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G107" s="5"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G108" s="5"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G109" s="5"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G110" s="5"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G111" s="5"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G112" s="5"/>
     </row>
     <row r="113" spans="7:7" x14ac:dyDescent="0.25">
@@ -3468,8 +3514,8 @@
   <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3561,7 +3607,7 @@
       <c r="G4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="30" t="s">
         <v>207</v>
       </c>
       <c r="P4" s="17"/>
@@ -4009,7 +4055,7 @@
         <v>212</v>
       </c>
       <c r="N20" s="2"/>
-      <c r="R20" s="26"/>
+      <c r="R20" s="25"/>
     </row>
     <row r="21" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -4152,7 +4198,7 @@
       <c r="H25" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="I25" s="27" t="s">
+      <c r="I25" s="26" t="s">
         <v>219</v>
       </c>
       <c r="N25" s="2"/>
@@ -4180,7 +4226,7 @@
       <c r="H26" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="I26" s="27" t="s">
+      <c r="I26" s="26" t="s">
         <v>222</v>
       </c>
       <c r="R26" s="31"/>
@@ -4207,7 +4253,7 @@
       <c r="H27" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="I27" s="27" t="s">
+      <c r="I27" s="26" t="s">
         <v>223</v>
       </c>
       <c r="N27" s="2"/>
@@ -4235,7 +4281,7 @@
       <c r="H28" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="I28" s="27" t="s">
+      <c r="I28" s="26" t="s">
         <v>224</v>
       </c>
       <c r="R28" s="31"/>
@@ -4262,7 +4308,7 @@
       <c r="H29" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="I29" s="27" t="s">
+      <c r="I29" s="26" t="s">
         <v>225</v>
       </c>
       <c r="N29" s="2"/>
@@ -4293,7 +4339,7 @@
       <c r="H30" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="I30" s="27" t="s">
+      <c r="I30" s="26" t="s">
         <v>205</v>
       </c>
       <c r="R30" s="31"/>
@@ -4323,7 +4369,7 @@
       <c r="H31" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="I31" s="27" t="s">
+      <c r="I31" s="26" t="s">
         <v>227</v>
       </c>
       <c r="N31" s="2"/>
@@ -4354,7 +4400,7 @@
       <c r="H32" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="I32" s="27" t="s">
+      <c r="I32" s="26" t="s">
         <v>215</v>
       </c>
       <c r="R32" s="31"/>
@@ -4384,7 +4430,7 @@
       <c r="H33" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="I33" s="27" t="s">
+      <c r="I33" s="26" t="s">
         <v>230</v>
       </c>
       <c r="N33" s="2"/>
@@ -4415,7 +4461,7 @@
       <c r="H34" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="I34" s="27" t="s">
+      <c r="I34" s="26" t="s">
         <v>231</v>
       </c>
       <c r="R34" s="31"/>
@@ -4445,7 +4491,7 @@
       <c r="H35" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="I35" s="27" t="s">
+      <c r="I35" s="26" t="s">
         <v>232</v>
       </c>
       <c r="N35" s="2"/>
@@ -4476,7 +4522,7 @@
       <c r="H36" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="I36" s="27" t="s">
+      <c r="I36" s="26" t="s">
         <v>233</v>
       </c>
       <c r="R36" s="31"/>
@@ -4506,7 +4552,7 @@
       <c r="H37" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="I37" s="27" t="s">
+      <c r="I37" s="26" t="s">
         <v>234</v>
       </c>
     </row>
@@ -4535,14 +4581,14 @@
       <c r="H38" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="I38" s="27" t="s">
+      <c r="I38" s="26" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
-      <c r="I39" s="27"/>
+      <c r="I39" s="26"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -4569,7 +4615,7 @@
       <c r="H40" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="I40" s="27" t="s">
+      <c r="I40" s="26" t="s">
         <v>237</v>
       </c>
     </row>
@@ -4598,7 +4644,7 @@
       <c r="H41" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="I41" s="27" t="s">
+      <c r="I41" s="26" t="s">
         <v>238</v>
       </c>
     </row>
@@ -4627,7 +4673,7 @@
       <c r="H42" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="I42" s="27" t="s">
+      <c r="I42" s="26" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4656,24 +4702,24 @@
       <c r="H43" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="I43" s="27" t="s">
+      <c r="I43" s="26" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G44" s="18"/>
       <c r="H44" s="18"/>
-      <c r="I44" s="27"/>
+      <c r="I44" s="26"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G45" s="18"/>
       <c r="H45" s="18"/>
-      <c r="I45" s="27"/>
+      <c r="I45" s="26"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G46" s="18"/>
       <c r="H46" s="18"/>
-      <c r="I46" s="27"/>
+      <c r="I46" s="26"/>
     </row>
     <row r="47" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -4700,7 +4746,7 @@
       <c r="H47" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="I47" s="27" t="s">
+      <c r="I47" s="26" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4729,7 +4775,7 @@
       <c r="H48" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="I48" s="27" t="s">
+      <c r="I48" s="26" t="s">
         <v>241</v>
       </c>
     </row>
@@ -4758,7 +4804,7 @@
       <c r="H49" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="I49" s="27" t="s">
+      <c r="I49" s="26" t="s">
         <v>242</v>
       </c>
     </row>
@@ -4787,7 +4833,7 @@
       <c r="H50" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="I50" s="27" t="s">
+      <c r="I50" s="26" t="s">
         <v>244</v>
       </c>
     </row>
@@ -4816,7 +4862,7 @@
       <c r="H51" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="I51" s="27" t="s">
+      <c r="I51" s="26" t="s">
         <v>245</v>
       </c>
     </row>

--- a/MMS/Test Cases/Monitor app/Performance tests-18apr2015.xlsx
+++ b/MMS/Test Cases/Monitor app/Performance tests-18apr2015.xlsx
@@ -3381,12 +3381,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A2:I128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3432,7 +3431,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="16" customFormat="1" hidden="1">
+    <row r="3" spans="1:9" s="16" customFormat="1">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -3446,7 +3445,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="40" customFormat="1" ht="75" hidden="1">
+    <row r="4" spans="1:9" s="40" customFormat="1" ht="75">
       <c r="A4" s="40">
         <v>2</v>
       </c>
@@ -3463,7 +3462,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="16" customFormat="1" ht="60" hidden="1">
+    <row r="5" spans="1:9" s="16" customFormat="1" ht="60">
       <c r="A5" s="16">
         <v>3</v>
       </c>
@@ -3481,7 +3480,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="16" customFormat="1" ht="30" hidden="1">
+    <row r="6" spans="1:9" s="16" customFormat="1" ht="30">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -3496,7 +3495,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="16" customFormat="1" ht="30" hidden="1">
+    <row r="7" spans="1:9" s="16" customFormat="1" ht="30">
       <c r="A7" s="16">
         <v>5</v>
       </c>
@@ -3511,7 +3510,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="16" customFormat="1" ht="30" hidden="1">
+    <row r="8" spans="1:9" s="16" customFormat="1" ht="30">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -3528,7 +3527,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" hidden="1">
+    <row r="9" spans="1:9" ht="30">
       <c r="A9" s="16">
         <v>7</v>
       </c>
@@ -3545,7 +3544,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="60" hidden="1">
+    <row r="10" spans="1:9" ht="60">
       <c r="A10" s="16">
         <v>8</v>
       </c>
@@ -3560,7 +3559,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="45" hidden="1">
+    <row r="11" spans="1:9" ht="45">
       <c r="A11" s="16">
         <v>9</v>
       </c>
@@ -3577,7 +3576,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="45" hidden="1">
+    <row r="12" spans="1:9" ht="45">
       <c r="A12" s="16">
         <v>10</v>
       </c>
@@ -3594,7 +3593,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="75" hidden="1">
+    <row r="13" spans="1:9" ht="75">
       <c r="A13" s="16">
         <v>11</v>
       </c>
@@ -3611,7 +3610,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="75" hidden="1">
+    <row r="14" spans="1:9" ht="75">
       <c r="A14" s="16">
         <v>12</v>
       </c>
@@ -3628,7 +3627,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="90" hidden="1">
+    <row r="15" spans="1:9" ht="90">
       <c r="A15" s="16">
         <v>13</v>
       </c>
@@ -3645,7 +3644,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="90" hidden="1">
+    <row r="16" spans="1:9" ht="90">
       <c r="A16" s="16">
         <v>14</v>
       </c>
@@ -3662,7 +3661,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="90" hidden="1">
+    <row r="17" spans="1:9" ht="90">
       <c r="A17" s="16">
         <v>15</v>
       </c>
@@ -3714,7 +3713,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="90" hidden="1">
+    <row r="20" spans="1:9" ht="90">
       <c r="A20" s="16">
         <v>17</v>
       </c>
@@ -3731,7 +3730,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="105" hidden="1">
+    <row r="21" spans="1:9" ht="105">
       <c r="A21" s="16">
         <v>18</v>
       </c>
@@ -3749,7 +3748,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="90" hidden="1">
+    <row r="22" spans="1:9" ht="90">
       <c r="C22" s="17" t="s">
         <v>315</v>
       </c>
@@ -3766,7 +3765,7 @@
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="60" hidden="1">
+    <row r="23" spans="1:9" ht="60">
       <c r="A23" s="16">
         <v>19</v>
       </c>
@@ -3783,7 +3782,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="90" hidden="1">
+    <row r="24" spans="1:9" ht="90">
       <c r="A24" s="16"/>
       <c r="C24" s="17" t="s">
         <v>313</v>
@@ -3801,7 +3800,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="87" hidden="1" customHeight="1">
+    <row r="25" spans="1:9" ht="87" customHeight="1">
       <c r="A25" s="16">
         <v>20</v>
       </c>
@@ -3818,7 +3817,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="87" hidden="1" customHeight="1">
+    <row r="26" spans="1:9" ht="87" customHeight="1">
       <c r="A26" s="16"/>
       <c r="C26" s="2" t="s">
         <v>318</v>
@@ -3833,7 +3832,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="60" hidden="1">
+    <row r="27" spans="1:9" ht="60">
       <c r="A27" s="16">
         <v>21</v>
       </c>
@@ -3853,7 +3852,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="60" hidden="1">
+    <row r="28" spans="1:9" ht="60">
       <c r="A28" s="16">
         <v>22</v>
       </c>
@@ -3871,7 +3870,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="60" hidden="1">
+    <row r="29" spans="1:9" ht="60">
       <c r="A29" s="16"/>
       <c r="C29" s="17" t="s">
         <v>321</v>
@@ -3887,7 +3886,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="75" hidden="1">
+    <row r="30" spans="1:9" ht="75">
       <c r="A30" s="16">
         <v>23</v>
       </c>
@@ -3904,7 +3903,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="90" hidden="1">
+    <row r="31" spans="1:9" ht="90">
       <c r="A31" s="16">
         <v>24</v>
       </c>
@@ -3923,7 +3922,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="90" hidden="1">
+    <row r="32" spans="1:9" ht="90">
       <c r="A32" s="16"/>
       <c r="C32" s="17" t="s">
         <v>325</v>
@@ -3940,7 +3939,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:7" ht="75" hidden="1">
+    <row r="33" spans="1:7" ht="75">
       <c r="A33" s="16">
         <v>25</v>
       </c>
@@ -3957,7 +3956,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="120" hidden="1">
+    <row r="34" spans="1:7" ht="120">
       <c r="A34" s="16">
         <v>26</v>
       </c>
@@ -3974,7 +3973,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="135" hidden="1">
+    <row r="35" spans="1:7" ht="135">
       <c r="A35" s="16">
         <v>27</v>
       </c>
@@ -3991,7 +3990,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="120" hidden="1">
+    <row r="36" spans="1:7" ht="120">
       <c r="A36" s="16">
         <v>28</v>
       </c>
@@ -4008,7 +4007,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="90" hidden="1">
+    <row r="37" spans="1:7" ht="90">
       <c r="A37" s="16">
         <v>29</v>
       </c>
@@ -4025,7 +4024,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="180" hidden="1">
+    <row r="38" spans="1:7" ht="180">
       <c r="A38" s="16"/>
       <c r="C38" s="2" t="s">
         <v>232</v>
@@ -4040,7 +4039,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="105" hidden="1">
+    <row r="39" spans="1:7" ht="105">
       <c r="A39" s="16"/>
       <c r="C39" s="2"/>
       <c r="D39" s="33" t="s">
@@ -4068,7 +4067,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" hidden="1">
+    <row r="41" spans="1:7" ht="30">
       <c r="A41" s="16"/>
       <c r="C41" s="2"/>
       <c r="D41" s="33" t="s">
@@ -4081,7 +4080,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="180" hidden="1">
+    <row r="42" spans="1:7" ht="180">
       <c r="A42" s="16"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
@@ -4094,7 +4093,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1">
+    <row r="43" spans="1:7">
       <c r="A43" s="16">
         <v>30</v>
       </c>
@@ -4105,7 +4104,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="75" hidden="1">
+    <row r="44" spans="1:7" ht="75">
       <c r="A44" s="16">
         <v>31</v>
       </c>
@@ -4122,7 +4121,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="75" hidden="1">
+    <row r="45" spans="1:7" ht="75">
       <c r="A45" s="16">
         <v>32</v>
       </c>
@@ -4139,7 +4138,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="75" hidden="1">
+    <row r="46" spans="1:7" ht="75">
       <c r="A46" s="16">
         <v>33</v>
       </c>
@@ -4156,7 +4155,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="75" hidden="1">
+    <row r="47" spans="1:7" ht="75">
       <c r="A47" s="16">
         <v>34</v>
       </c>
@@ -4173,7 +4172,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="90" hidden="1">
+    <row r="48" spans="1:7" ht="90">
       <c r="A48" s="16">
         <v>35</v>
       </c>
@@ -4191,7 +4190,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="75" hidden="1">
+    <row r="49" spans="1:9" ht="75">
       <c r="A49" s="16">
         <v>36</v>
       </c>
@@ -4205,7 +4204,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="60" hidden="1">
+    <row r="50" spans="1:9" ht="60">
       <c r="A50" s="16">
         <v>37</v>
       </c>
@@ -4222,7 +4221,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="75" hidden="1">
+    <row r="51" spans="1:9" ht="75">
       <c r="A51" s="16">
         <v>38</v>
       </c>
@@ -4239,7 +4238,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="60" hidden="1">
+    <row r="52" spans="1:9" ht="60">
       <c r="A52" s="16">
         <v>39</v>
       </c>
@@ -4256,7 +4255,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="75" hidden="1">
+    <row r="53" spans="1:9" ht="75">
       <c r="A53" s="16">
         <v>40</v>
       </c>
@@ -4273,7 +4272,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1">
+    <row r="54" spans="1:9">
       <c r="A54" s="16">
         <v>41</v>
       </c>
@@ -4285,7 +4284,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="60" hidden="1">
+    <row r="55" spans="1:9" ht="60">
       <c r="A55" s="16">
         <v>42</v>
       </c>
@@ -4302,7 +4301,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="60" hidden="1">
+    <row r="56" spans="1:9" ht="60">
       <c r="A56" s="16">
         <v>43</v>
       </c>
@@ -4319,7 +4318,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="75" hidden="1">
+    <row r="57" spans="1:9" ht="75">
       <c r="A57" s="16">
         <v>44</v>
       </c>
@@ -4336,7 +4335,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="45" hidden="1">
+    <row r="58" spans="1:9" ht="45">
       <c r="A58" s="16">
         <v>45</v>
       </c>
@@ -4353,7 +4352,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="75" hidden="1">
+    <row r="59" spans="1:9" ht="75">
       <c r="A59" s="16">
         <v>46</v>
       </c>
@@ -4370,7 +4369,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1">
+    <row r="60" spans="1:9">
       <c r="A60" s="16">
         <v>47</v>
       </c>
@@ -4382,7 +4381,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="60" hidden="1">
+    <row r="61" spans="1:9" ht="60">
       <c r="A61" s="16">
         <v>48</v>
       </c>
@@ -4402,7 +4401,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="75" hidden="1">
+    <row r="62" spans="1:9" ht="75">
       <c r="A62" s="16">
         <v>49</v>
       </c>
@@ -4422,7 +4421,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="60" hidden="1">
+    <row r="63" spans="1:9" ht="60">
       <c r="A63" s="16">
         <v>50</v>
       </c>
@@ -4441,7 +4440,7 @@
       </c>
       <c r="I63" s="20"/>
     </row>
-    <row r="64" spans="1:9" ht="45" hidden="1">
+    <row r="64" spans="1:9" ht="45">
       <c r="A64" s="16">
         <v>51</v>
       </c>
@@ -4459,7 +4458,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="30" hidden="1">
+    <row r="65" spans="1:8" ht="30">
       <c r="A65" s="16">
         <v>52</v>
       </c>
@@ -4478,7 +4477,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="30" hidden="1">
+    <row r="66" spans="1:8" ht="30">
       <c r="A66" s="16">
         <v>53</v>
       </c>
@@ -4496,7 +4495,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="30" hidden="1">
+    <row r="67" spans="1:8" ht="30">
       <c r="A67" s="16">
         <v>54</v>
       </c>
@@ -4514,7 +4513,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1">
+    <row r="68" spans="1:8">
       <c r="A68" s="16">
         <v>55</v>
       </c>
@@ -4526,7 +4525,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1">
+    <row r="69" spans="1:8">
       <c r="A69" s="16">
         <v>56</v>
       </c>
@@ -4534,7 +4533,7 @@
       <c r="E69" s="2"/>
       <c r="G69" s="16"/>
     </row>
-    <row r="70" spans="1:8" hidden="1">
+    <row r="70" spans="1:8">
       <c r="A70" s="16">
         <v>57</v>
       </c>
@@ -4543,7 +4542,7 @@
       </c>
       <c r="G70" s="16"/>
     </row>
-    <row r="71" spans="1:8" ht="105" hidden="1">
+    <row r="71" spans="1:8" ht="105">
       <c r="A71" s="16">
         <v>58</v>
       </c>
@@ -4560,7 +4559,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="60" hidden="1">
+    <row r="72" spans="1:8" ht="60">
       <c r="A72" s="16">
         <v>59</v>
       </c>
@@ -4577,7 +4576,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="30" hidden="1">
+    <row r="73" spans="1:8" ht="30">
       <c r="A73" s="16">
         <v>60</v>
       </c>
@@ -4592,7 +4591,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="60" hidden="1">
+    <row r="74" spans="1:8" ht="60">
       <c r="A74" s="16">
         <v>61</v>
       </c>
@@ -4605,7 +4604,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1">
+    <row r="75" spans="1:8">
       <c r="A75" s="16">
         <v>62</v>
       </c>
@@ -4618,7 +4617,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="30" hidden="1">
+    <row r="76" spans="1:8" ht="30">
       <c r="A76" s="16">
         <v>63</v>
       </c>
@@ -4630,7 +4629,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="60" hidden="1">
+    <row r="77" spans="1:8" ht="60">
       <c r="A77" s="16">
         <v>64</v>
       </c>
@@ -4643,7 +4642,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="120" hidden="1">
+    <row r="78" spans="1:8" ht="120">
       <c r="A78" s="16">
         <v>65</v>
       </c>
@@ -4661,7 +4660,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1">
+    <row r="79" spans="1:8">
       <c r="A79" s="16">
         <v>66</v>
       </c>
@@ -4671,7 +4670,7 @@
       <c r="F79" s="2"/>
       <c r="G79" s="16"/>
     </row>
-    <row r="80" spans="1:8" ht="60" hidden="1">
+    <row r="80" spans="1:8" ht="60">
       <c r="A80" s="16">
         <v>67</v>
       </c>
@@ -4683,7 +4682,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="60" hidden="1">
+    <row r="81" spans="1:8" ht="60">
       <c r="A81" s="16">
         <v>68</v>
       </c>
@@ -4698,7 +4697,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="30" hidden="1">
+    <row r="82" spans="1:8" ht="30">
       <c r="A82" s="16">
         <v>69</v>
       </c>
@@ -4707,7 +4706,7 @@
       </c>
       <c r="G82" s="16"/>
     </row>
-    <row r="83" spans="1:8" ht="45" hidden="1">
+    <row r="83" spans="1:8" ht="45">
       <c r="A83" s="16">
         <v>70</v>
       </c>
@@ -4721,7 +4720,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1">
+    <row r="84" spans="1:8">
       <c r="A84" s="16">
         <v>71</v>
       </c>
@@ -4733,7 +4732,7 @@
       </c>
       <c r="H84" s="2"/>
     </row>
-    <row r="85" spans="1:8" ht="30" hidden="1">
+    <row r="85" spans="1:8" ht="30">
       <c r="A85" s="16">
         <v>72</v>
       </c>
@@ -4744,7 +4743,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="60" hidden="1">
+    <row r="86" spans="1:8" ht="60">
       <c r="A86" s="16">
         <v>73</v>
       </c>
@@ -4758,7 +4757,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="60" hidden="1">
+    <row r="87" spans="1:8" ht="60">
       <c r="A87" s="16">
         <v>74</v>
       </c>
@@ -4772,7 +4771,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="30" hidden="1">
+    <row r="88" spans="1:8" ht="30">
       <c r="A88" s="16">
         <v>75</v>
       </c>
@@ -4784,7 +4783,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="30" hidden="1">
+    <row r="89" spans="1:8" ht="30">
       <c r="A89" s="16">
         <v>76</v>
       </c>
@@ -4795,7 +4794,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="45" hidden="1">
+    <row r="90" spans="1:8" ht="45">
       <c r="A90" s="16">
         <v>77</v>
       </c>
@@ -4807,7 +4806,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="45" hidden="1">
+    <row r="91" spans="1:8" ht="45">
       <c r="A91" s="16">
         <v>78</v>
       </c>
@@ -4820,7 +4819,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="30" hidden="1">
+    <row r="92" spans="1:8" ht="30">
       <c r="A92" s="16">
         <v>79</v>
       </c>
@@ -4847,7 +4846,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="45" hidden="1">
+    <row r="94" spans="1:8" ht="45">
       <c r="A94" s="16">
         <v>81</v>
       </c>
@@ -4861,7 +4860,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="60" hidden="1">
+    <row r="95" spans="1:8" ht="60">
       <c r="A95" s="16">
         <v>82</v>
       </c>
@@ -4872,7 +4871,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="60" hidden="1">
+    <row r="96" spans="1:8" ht="60">
       <c r="A96" s="16">
         <v>83</v>
       </c>
@@ -4883,7 +4882,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="60" hidden="1">
+    <row r="97" spans="1:8" ht="60">
       <c r="A97" s="16"/>
       <c r="D97" s="33" t="s">
         <v>242</v>
@@ -4892,7 +4891,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="90" hidden="1">
+    <row r="98" spans="1:8" ht="90">
       <c r="A98" s="16">
         <v>84</v>
       </c>
@@ -4928,7 +4927,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="30" hidden="1">
+    <row r="101" spans="1:8" ht="30">
       <c r="A101" s="16">
         <v>87</v>
       </c>
@@ -4940,7 +4939,7 @@
       </c>
       <c r="H101" s="2"/>
     </row>
-    <row r="102" spans="1:8" ht="60" hidden="1">
+    <row r="102" spans="1:8" ht="60">
       <c r="A102" s="16">
         <v>88</v>
       </c>
@@ -5033,13 +5032,6 @@
       <c r="G128" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I102">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Fail"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <conditionalFormatting sqref="G3 G5:G128">
     <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>"fail"</formula>
@@ -6418,6 +6410,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="R14:R15"/>
     <mergeCell ref="R16:R17"/>
     <mergeCell ref="R18:R19"/>
     <mergeCell ref="R31:R32"/>
@@ -6428,11 +6425,6 @@
     <mergeCell ref="R25:R26"/>
     <mergeCell ref="R27:R28"/>
     <mergeCell ref="R29:R30"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="R14:R15"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E51">
